--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -386,6 +386,24 @@
   </si>
   <si>
     <t>Menghapus Data Kurs Mata Uang Pajak</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setDayOffGovernmentPolicy</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setDayOffNational</t>
+  </si>
+  <si>
+    <t>Menghapus Data Hari Libur Kebijakan Pemerintah</t>
+  </si>
+  <si>
+    <t>Menghapus Data Hari Libur Nasional</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setDayOffRegional</t>
+  </si>
+  <si>
+    <t>Menghapus Data Hari Libur Regional</t>
   </si>
 </sst>
 </file>
@@ -889,13 +907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C85"/>
+  <dimension ref="B1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -939,29 +957,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-    </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -969,147 +983,163 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="4"/>
-    </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
@@ -1131,365 +1161,397 @@
       <c r="B37" s="7"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="7"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="8"/>
-      <c r="C85" s="6"/>
+    <row r="93" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="8"/>
+      <c r="C93" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -404,6 +404,24 @@
   </si>
   <si>
     <t>Menghapus Data Hari Libur Regional</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setCitizenFamilyCardMember</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setCitizenIdentityCard</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kartu Keluarga Penduduk</t>
+  </si>
+  <si>
+    <t>Menghapus Data Anggota Kartu Keluarga Penduduk</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kartu Tanda Penduduk (KTP)</t>
   </si>
 </sst>
 </file>
@@ -907,13 +925,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C93"/>
+  <dimension ref="B1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1047,111 +1065,123 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
@@ -1177,344 +1207,340 @@
       <c r="B41" s="7"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
+      <c r="B63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
+      <c r="B84" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -1527,10 +1553,10 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
@@ -1543,15 +1569,31 @@
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="8"/>
-      <c r="C93" s="6"/>
+    <row r="96" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -421,7 +421,7 @@
     <t>Menghapus Data Anggota Kartu Keluarga Penduduk</t>
   </si>
   <si>
-    <t>Menghapus Data Kartu Tanda Penduduk (KTP)</t>
+    <t>Menghapus Data Kartu Identitas Penduduk (KTP)</t>
   </si>
 </sst>
 </file>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="212">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -422,6 +422,234 @@
   </si>
   <si>
     <t>Menghapus Data Kartu Identitas Penduduk (KTP)</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setTradeMark</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setSocialMedia</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setReligion</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setQuantityUnit</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setProductType</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setProduct</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setPersonGender</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setPersonAccountSocialMedia</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setPersonAccountEMail</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setPerson</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setPeriod</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setInstitutionBranch</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setInstitution</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setGoodsType</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setGoodsModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menghapus Data </t>
+  </si>
+  <si>
+    <t>transaction.delete.project.setProject</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Jenis Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Versi Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Kartu Keluarga Penduduk</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Anggota Kartu Keluarga Penduduk</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Identitas Penduduk</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Kartu Identitas Penduduk (KTP)</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Negara</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusani Data Propinsi (Daerah Tingkat 1)</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusani Data Kabupaten / Kota (Daerah Tingkat 2)</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusani Data Kecamatan (Daerah Tingkat 3)</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusani Data Kelurahan / Desa (Daerah Tingkat 4)</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Mata Uang</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Kurs Mata Uang Bank Sentral</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Kurs Mata Uang Pajak</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Hari Libur Kebijakan Pemerintah</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Hari Libur Nasional</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Hari Libur Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membatalkan Penghapusan Data </t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setBusinessDocument</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setBusinessDocumentType</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setBusinessDocumentVersion</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCitizenFamilyCardMember</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCitizenIdentity</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCitizenIdentityCard</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCountry</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCountryAdministrativeAreaLevel1</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCountryAdministrativeAreaLevel2</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCountryAdministrativeAreaLevel3</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCountryAdministrativeAreaLevel4</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCurrency</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCurrencyExchangeRateCentralBank</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setCurrencyExchangeRateTax</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setDayOffGovernmentPolicy</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setDayOffNational</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setDayOffRegional</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setGoodsModel</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setGoodsType</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setInstitution</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setInstitutionBranch</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setPeriod</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setPerson</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setPersonAccountEMail</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setPersonAccountSocialMedia</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setPersonGender</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setProduct</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setProductType</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setQuantityUnit</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setReligion</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setSocialMedia</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setTradeMark</t>
+  </si>
+  <si>
+    <t>transaction.undelete.project.setProject</t>
+  </si>
+  <si>
+    <t>Menghapus Data Model Barang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jenis Barang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Institusi</t>
+  </si>
+  <si>
+    <t>Menghapus Data Cabang Institusi</t>
+  </si>
+  <si>
+    <t>Menghapus Data Periode</t>
+  </si>
+  <si>
+    <t>Menghapus Data Orang</t>
   </si>
 </sst>
 </file>
@@ -925,13 +1153,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C96"/>
+  <dimension ref="B1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1184,416 +1412,784 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
+      <c r="B44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
+      <c r="B66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
+      <c r="B87" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
+      <c r="B90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="12"/>
+      <c r="C136" s="13"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="8"/>
-      <c r="C96" s="6"/>
+    <row r="138" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="217">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Menginisialisasi Data Orang</t>
   </si>
   <si>
-    <t>Menginisialisasi Data Akun EMail Orang</t>
-  </si>
-  <si>
     <t>Menginisialisasi Data Jenis Kelamin Orang</t>
   </si>
   <si>
@@ -650,6 +647,24 @@
   </si>
   <si>
     <t>Menghapus Data Orang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Akun Sosial Media Orang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jenis Kelamin Orang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Akun E-Mail Orang</t>
+  </si>
+  <si>
+    <t>Menginisialisasi Data Akun E-Mail Orang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Produk</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jenis Produk</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1174,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1264,279 +1279,279 @@
         <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -1672,7 +1687,7 @@
         <v>77</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -1680,7 +1695,7 @@
         <v>78</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -1688,7 +1703,7 @@
         <v>79</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -1696,7 +1711,7 @@
         <v>80</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -1704,7 +1719,7 @@
         <v>81</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -1877,10 +1892,10 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -1896,279 +1911,279 @@
         <v>53</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -2184,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="221">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -466,9 +466,6 @@
     <t>transaction.delete.master.setGoodsModel</t>
   </si>
   <si>
-    <t xml:space="preserve">Menghapus Data </t>
-  </si>
-  <si>
     <t>transaction.delete.project.setProject</t>
   </si>
   <si>
@@ -665,6 +662,21 @@
   </si>
   <si>
     <t>Menghapus Data Jenis Produk</t>
+  </si>
+  <si>
+    <t>Menghapus Data Unit Kuantitas</t>
+  </si>
+  <si>
+    <t>Menghapus Data Agama</t>
+  </si>
+  <si>
+    <t>Menghapus Data Media Sosial</t>
+  </si>
+  <si>
+    <t>Menghapus Data Merk Dagang</t>
+  </si>
+  <si>
+    <t>Menghapus Data Proyek</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1186,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1443,7 @@
         <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1451,7 @@
         <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1459,7 @@
         <v>147</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1467,7 @@
         <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -1463,7 +1475,7 @@
         <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -1471,7 +1483,7 @@
         <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -1479,7 +1491,7 @@
         <v>143</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -1487,7 +1499,7 @@
         <v>142</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1507,7 @@
         <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -1503,7 +1515,7 @@
         <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -1511,7 +1523,7 @@
         <v>139</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -1519,7 +1531,7 @@
         <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -1535,7 +1547,7 @@
         <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -1543,15 +1555,15 @@
         <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -1687,7 +1699,7 @@
         <v>77</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -1916,274 +1928,274 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -677,6 +677,15 @@
   </si>
   <si>
     <t>Menghapus Data Proyek</t>
+  </si>
+  <si>
+    <t>transaction.delete.project.setProjectSection</t>
+  </si>
+  <si>
+    <t>Menghapus Data Seksi Proyek</t>
+  </si>
+  <si>
+    <t>transaction.undelete.project.setProjectSection</t>
   </si>
 </sst>
 </file>
@@ -1180,13 +1189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C138"/>
+  <dimension ref="B1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1567,520 +1576,520 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>95</v>
-      </c>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="7"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>169</v>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>169</v>
@@ -2096,7 +2105,7 @@
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>169</v>
@@ -2104,7 +2113,7 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>169</v>
@@ -2112,7 +2121,7 @@
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>169</v>
@@ -2120,7 +2129,7 @@
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>169</v>
@@ -2128,7 +2137,7 @@
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>169</v>
@@ -2136,7 +2145,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>169</v>
@@ -2144,7 +2153,7 @@
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>169</v>
@@ -2152,7 +2161,7 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>169</v>
@@ -2160,7 +2169,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>169</v>
@@ -2168,7 +2177,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>169</v>
@@ -2176,7 +2185,7 @@
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>169</v>
@@ -2184,7 +2193,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>169</v>
@@ -2192,31 +2201,47 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
+      <c r="B135" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="7"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="12"/>
+      <c r="C138" s="13"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="8"/>
-      <c r="C138" s="6"/>
+    <row r="140" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="234">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -686,6 +686,36 @@
   </si>
   <si>
     <t>transaction.undelete.project.setProjectSection</t>
+  </si>
+  <si>
+    <t>transaction.delete.budgeting.setBudget</t>
+  </si>
+  <si>
+    <t>transaction.delete.budgeting.setBudgetGroup</t>
+  </si>
+  <si>
+    <t>transaction.delete.budgeting.setBudgetLine</t>
+  </si>
+  <si>
+    <t>transaction.delete.budgeting.setBudgetSection</t>
+  </si>
+  <si>
+    <t>transaction.delete.budgeting.setBudgetType</t>
+  </si>
+  <si>
+    <t>Menghapus Data Anggaran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kelompok Anggaran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Mata Anggaran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Seksi Anggaran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jenis Anggaran</t>
   </si>
 </sst>
 </file>
@@ -721,7 +751,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +780,19 @@
         </stop>
         <stop position="1">
           <color theme="3"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="1"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
         </stop>
       </gradientFill>
     </fill>
@@ -844,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -883,6 +926,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1189,13 +1238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C140"/>
+  <dimension ref="B1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B137" sqref="B137"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1567,585 +1616,577 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>220</v>
-      </c>
+    <row r="51" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
+      <c r="B53" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
+      <c r="B75" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
+      <c r="B96" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
+      <c r="B99" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>169</v>
@@ -2153,7 +2194,7 @@
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>169</v>
@@ -2161,7 +2202,7 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>169</v>
@@ -2169,7 +2210,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>169</v>
@@ -2177,7 +2218,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>169</v>
@@ -2185,7 +2226,7 @@
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>169</v>
@@ -2193,7 +2234,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>169</v>
@@ -2201,7 +2242,7 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>169</v>
@@ -2209,7 +2250,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>169</v>
@@ -2217,31 +2258,87 @@
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
+      <c r="B137" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="12"/>
+      <c r="C145" s="13"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="8"/>
-      <c r="C140" s="6"/>
+    <row r="147" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="8"/>
+      <c r="C147" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="236">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>Menghapus Data Jenis Anggaran</t>
+  </si>
+  <si>
+    <t>transaction.delete.customerRelation.setCustomer</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jenis Pelanggan</t>
   </si>
 </sst>
 </file>
@@ -1238,13 +1244,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C147"/>
+  <dimension ref="B1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1666,543 +1672,539 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-    </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-    </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-    </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="7"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-    </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>169</v>
@@ -2210,7 +2212,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>169</v>
@@ -2218,7 +2220,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>169</v>
@@ -2226,7 +2228,7 @@
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>169</v>
@@ -2234,7 +2236,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>169</v>
@@ -2242,7 +2244,7 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>169</v>
@@ -2250,7 +2252,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>169</v>
@@ -2258,7 +2260,7 @@
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>169</v>
@@ -2266,7 +2268,7 @@
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>169</v>
@@ -2274,7 +2276,7 @@
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>169</v>
@@ -2282,7 +2284,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>169</v>
@@ -2290,7 +2292,7 @@
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>169</v>
@@ -2298,7 +2300,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>169</v>
@@ -2306,7 +2308,7 @@
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>169</v>
@@ -2314,31 +2316,47 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
-      <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
+      <c r="B144" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="7"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="12"/>
+      <c r="C147" s="13"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="8"/>
-      <c r="C147" s="6"/>
+    <row r="149" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="8"/>
+      <c r="C149" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="240">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -722,6 +722,18 @@
   </si>
   <si>
     <t>Menghapus Data Jenis Pelanggan</t>
+  </si>
+  <si>
+    <t>transaction.delete.finance.setAdvance</t>
+  </si>
+  <si>
+    <t>transaction.delete.finance.setAdvanceDetail</t>
+  </si>
+  <si>
+    <t>Menghapus Data Uang Muka</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perician Uang Muka</t>
   </si>
 </sst>
 </file>
@@ -1244,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C149"/>
+  <dimension ref="B1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1684,362 +1696,366 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
+      <c r="B84" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
+      <c r="B105" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -2052,183 +2068,175 @@
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>169</v>
@@ -2236,7 +2244,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>169</v>
@@ -2244,7 +2252,7 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>169</v>
@@ -2252,7 +2260,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>169</v>
@@ -2260,7 +2268,7 @@
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>169</v>
@@ -2268,7 +2276,7 @@
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>169</v>
@@ -2276,7 +2284,7 @@
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>169</v>
@@ -2284,7 +2292,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>169</v>
@@ -2292,7 +2300,7 @@
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>169</v>
@@ -2300,7 +2308,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>169</v>
@@ -2308,7 +2316,7 @@
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>169</v>
@@ -2316,7 +2324,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>169</v>
@@ -2324,7 +2332,7 @@
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>169</v>
@@ -2332,31 +2340,55 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="7"/>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
+      <c r="B146" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="7"/>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="12"/>
+      <c r="C150" s="13"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="8"/>
-      <c r="C149" s="6"/>
+    <row r="152" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="8"/>
+      <c r="C152" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="250">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -734,6 +734,36 @@
   </si>
   <si>
     <t>Menghapus Data Perician Uang Muka</t>
+  </si>
+  <si>
+    <t>transaction.delete.accounting.setCodeOfAccounting</t>
+  </si>
+  <si>
+    <t>transaction.delete.accounting.setJournal</t>
+  </si>
+  <si>
+    <t>transaction.delete.accounting.setJournalDetail</t>
+  </si>
+  <si>
+    <t>transaction.delete.accounting.setLayoutStructure</t>
+  </si>
+  <si>
+    <t>transaction.delete.accounting.setLayoutStructureCodeOfAccounting</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jurnal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perician Jurnal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Struktur Tampilan</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kode Akunting</t>
+  </si>
+  <si>
+    <t>Menghapus Data Struktur Tampilan Kode Akunting</t>
   </si>
 </sst>
 </file>
@@ -1256,13 +1286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C152"/>
+  <dimension ref="B1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1640,42 +1670,42 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,607 +1714,603 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>220</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
+      <c r="B87" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
+      <c r="B108" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
+      <c r="B111" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>169</v>
@@ -2292,7 +2318,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>169</v>
@@ -2300,7 +2326,7 @@
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>169</v>
@@ -2308,7 +2334,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>169</v>
@@ -2316,7 +2342,7 @@
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>169</v>
@@ -2324,7 +2350,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>169</v>
@@ -2332,7 +2358,7 @@
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>169</v>
@@ -2340,7 +2366,7 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>169</v>
@@ -2348,7 +2374,7 @@
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>169</v>
@@ -2356,7 +2382,7 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>169</v>
@@ -2364,31 +2390,79 @@
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="7"/>
-      <c r="C149" s="4"/>
-    </row>
-    <row r="150" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
+      <c r="B149" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="7"/>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="12"/>
+      <c r="C156" s="13"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="8"/>
-      <c r="C152" s="6"/>
+    <row r="158" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="254">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -764,6 +764,18 @@
   </si>
   <si>
     <t>Menghapus Data Struktur Tampilan Kode Akunting</t>
+  </si>
+  <si>
+    <t>transaction.delete.fixedAsset.setGoodsIdentity</t>
+  </si>
+  <si>
+    <t>Menghapus Data Identitas Barang</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setBusinessTripCostComponent</t>
+  </si>
+  <si>
+    <t>Menghapus Data Komponen Biaya Perjalanan Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1286,13 +1298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C158"/>
+  <dimension ref="B1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1790,559 +1802,551 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
+      <c r="B71" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
+      <c r="B93" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
+      <c r="B114" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B117" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>169</v>
@@ -2350,7 +2354,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>169</v>
@@ -2358,7 +2362,7 @@
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>169</v>
@@ -2366,7 +2370,7 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>169</v>
@@ -2374,7 +2378,7 @@
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>169</v>
@@ -2382,7 +2386,7 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>169</v>
@@ -2390,7 +2394,7 @@
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>169</v>
@@ -2398,7 +2402,7 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>169</v>
@@ -2406,7 +2410,7 @@
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>169</v>
@@ -2414,7 +2418,7 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>169</v>
@@ -2422,7 +2426,7 @@
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>169</v>
@@ -2430,7 +2434,7 @@
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>169</v>
@@ -2438,31 +2442,63 @@
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="7"/>
-      <c r="C155" s="4"/>
-    </row>
-    <row r="156" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
+      <c r="B155" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="12"/>
+      <c r="C160" s="13"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="8"/>
-      <c r="C158" s="6"/>
+    <row r="162" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="8"/>
+      <c r="C162" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="261">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -776,6 +776,27 @@
   </si>
   <si>
     <t>Menghapus Data Komponen Biaya Perjalanan Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setEmployee</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setLog_FingerPrintMachine_Attendance</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setLog_FingerPrintMachine_AttendanceFetch</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setMapper_FingerPrintUserToPerson</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setOrganizationalDepartment</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonBusinessTrip</t>
   </si>
 </sst>
 </file>
@@ -1298,19 +1319,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C162"/>
+  <dimension ref="B1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1820,368 +1841,336 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>220</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
+      <c r="B97" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
+      <c r="B118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
@@ -2194,311 +2183,487 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>165</v>
+        <v>45</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="12"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="12"/>
+      <c r="C146" s="13"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="7"/>
-      <c r="C159" s="4"/>
-    </row>
-    <row r="160" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
+      <c r="B159" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="7"/>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="12"/>
+      <c r="C184" s="13"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C185" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="8"/>
-      <c r="C162" s="6"/>
+    <row r="186" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="8"/>
+      <c r="C186" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="290">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -778,9 +778,6 @@
     <t>Menghapus Data Komponen Biaya Perjalanan Bisnis</t>
   </si>
   <si>
-    <t>transaction.delete.humanResource.</t>
-  </si>
-  <si>
     <t>transaction.delete.humanResource.setEmployee</t>
   </si>
   <si>
@@ -797,6 +794,96 @@
   </si>
   <si>
     <t>transaction.delete.humanResource.setPersonBusinessTrip</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonBusinessTripSequence</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonBusinessTripSequenceDetail</t>
+  </si>
+  <si>
+    <t>Menghapus Data Departemen Organisasi</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonWorkAbsencePermit</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonWorkAbsenceReplacement</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonWorkArriveDepartPermit</t>
+  </si>
+  <si>
+    <t>Menghapus Data Izin Absensi Ketidakhadiran</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonWorkTimeSheet</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setPersonWorkTimeSheetActivity</t>
+  </si>
+  <si>
+    <t>Menghapus Data Izin Absensi Ketidakhadiran Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perjalanan Bisnis Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Sekuensial Perjalanan Bisnis Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perincian Sekuensial Perjalanan Bisnis Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Izin Absensi Pengganti Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Izin Absensi Pulang Cepat dan Datang Terlambat Personal</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkAbsencePermit</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkAbsencePermitType</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkArriveDepartPermit</t>
+  </si>
+  <si>
+    <t>Menghapus Data Izin Pulang Cepat dan Datang Terlambat</t>
+  </si>
+  <si>
+    <t>Menghapus Data Izin Jenis Absensi Ketidakhadiran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Timesheet Pekerjaan Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Aktivitas Timesheet Pekerjaan Personal</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkDay</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkTimeAssignation</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkTimeEpoch</t>
+  </si>
+  <si>
+    <t>transaction.delete.humanResource.setWorkTimeSchedule</t>
+  </si>
+  <si>
+    <t>Menghapus Data Hari Kerja</t>
+  </si>
+  <si>
+    <t>Menghapus Data Jadwal Waktu Kerja Harian</t>
+  </si>
+  <si>
+    <t>Menghapus Data Masa Waktu Kerja</t>
+  </si>
+  <si>
+    <t>Menghapus Data Penugasan Waktu Kerja</t>
   </si>
 </sst>
 </file>
@@ -1319,13 +1406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C186"/>
+  <dimension ref="B1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1843,675 +1930,715 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C73" s="4"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="4"/>
+        <v>283</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C92" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C93" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>254</v>
-      </c>
+      <c r="B95" s="7"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+    <row r="96" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
+      <c r="B99" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
+      <c r="B121" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="12"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
-      <c r="C142" s="4"/>
-    </row>
-    <row r="143" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="7"/>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
+      <c r="B145" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>169</v>
@@ -2519,7 +2646,7 @@
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>169</v>
@@ -2527,7 +2654,7 @@
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>169</v>
@@ -2535,7 +2662,7 @@
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>169</v>
@@ -2543,7 +2670,7 @@
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>169</v>
@@ -2551,7 +2678,7 @@
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>169</v>
@@ -2559,7 +2686,7 @@
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>169</v>
@@ -2567,7 +2694,7 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>169</v>
@@ -2575,7 +2702,7 @@
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>169</v>
@@ -2583,7 +2710,7 @@
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>169</v>
@@ -2591,7 +2718,7 @@
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>169</v>
@@ -2599,7 +2726,7 @@
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>169</v>
@@ -2607,63 +2734,31 @@
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="12"/>
+      <c r="C180" s="13"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="7"/>
-      <c r="C183" s="4"/>
-    </row>
-    <row r="184" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="8"/>
-      <c r="C186" s="6"/>
+    <row r="182" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="8"/>
+      <c r="C182" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1409,10 +1409,10 @@
   <dimension ref="B1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="294">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -884,6 +884,18 @@
   </si>
   <si>
     <t>Menghapus Data Penugasan Waktu Kerja</t>
+  </si>
+  <si>
+    <t>Menghapus Data Karyawan</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log Finger Print Machine - Penarikan Data Kehadiran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log Finger Print Machine - Kehadiran</t>
+  </si>
+  <si>
+    <t>Menghapus Data Mapper - Finger Print User ID ke Person ID</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1421,10 @@
   <dimension ref="B1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1932,25 +1944,33 @@
       <c r="B72" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -829,12 +829,6 @@
     <t>Menghapus Data Perjalanan Bisnis Personal</t>
   </si>
   <si>
-    <t>Menghapus Data Sekuensial Perjalanan Bisnis Personal</t>
-  </si>
-  <si>
-    <t>Menghapus Data Perincian Sekuensial Perjalanan Bisnis Personal</t>
-  </si>
-  <si>
     <t>Menghapus Data Izin Absensi Pengganti Personal</t>
   </si>
   <si>
@@ -896,6 +890,12 @@
   </si>
   <si>
     <t>Menghapus Data Mapper - Finger Print User ID ke Person ID</t>
+  </si>
+  <si>
+    <t>Menghapus Data Urutan Perjalanan Bisnis Personal</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perincian Urutan Perjalanan Bisnis Personal</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1421,10 @@
   <dimension ref="B1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1945,7 @@
         <v>254</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>255</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
         <v>256</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>257</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>260</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>261</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>264</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>265</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>267</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -2041,12 +2041,12 @@
         <v>268</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>266</v>
@@ -2054,50 +2054,50 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="304">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -896,6 +896,36 @@
   </si>
   <si>
     <t>Menghapus Data Perincian Urutan Perjalanan Bisnis Personal</t>
+  </si>
+  <si>
+    <t>transaction.delete.supplyChain.setPurchaseOrder</t>
+  </si>
+  <si>
+    <t>Menghapus Data Pesanan Pembelian</t>
+  </si>
+  <si>
+    <t>transaction.delete.supplyChain.setPurchaseOrderDetail</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perician Pesanan Pembelian</t>
+  </si>
+  <si>
+    <t>transaction.delete.supplyChain.setPurchaseRequisition</t>
+  </si>
+  <si>
+    <t>transaction.delete.supplyChain.setPurchaseRequisitionDetail</t>
+  </si>
+  <si>
+    <t>Menghapus Data Permintaan Pembelian</t>
+  </si>
+  <si>
+    <t>Menghapus Data Perician Permintaan Pembelian</t>
+  </si>
+  <si>
+    <t>transaction.delete.supplyChain.setSupplier</t>
+  </si>
+  <si>
+    <t>Menghapus Data Pemasok</t>
   </si>
 </sst>
 </file>
@@ -1418,13 +1448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C182"/>
+  <dimension ref="B1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2120,561 +2150,557 @@
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
+    <row r="95" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>55</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
+      <c r="B117" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
-      <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
+      <c r="B138" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
+      <c r="B141" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="12"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="12"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>169</v>
@@ -2682,7 +2708,7 @@
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>169</v>
@@ -2690,7 +2716,7 @@
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>169</v>
@@ -2698,7 +2724,7 @@
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>169</v>
@@ -2706,7 +2732,7 @@
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>169</v>
@@ -2714,7 +2740,7 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>169</v>
@@ -2722,7 +2748,7 @@
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>169</v>
@@ -2730,7 +2756,7 @@
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>169</v>
@@ -2738,7 +2764,7 @@
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>169</v>
@@ -2746,7 +2772,7 @@
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>169</v>
@@ -2754,31 +2780,79 @@
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="7"/>
-      <c r="C179" s="4"/>
-    </row>
-    <row r="180" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
+      <c r="B179" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="7"/>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="12"/>
+      <c r="C186" s="13"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="8"/>
-      <c r="C182" s="6"/>
+    <row r="188" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="8"/>
+      <c r="C188" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -901,9 +901,6 @@
     <t>transaction.delete.supplyChain.setPurchaseOrder</t>
   </si>
   <si>
-    <t>Menghapus Data Pesanan Pembelian</t>
-  </si>
-  <si>
     <t>transaction.delete.supplyChain.setPurchaseOrderDetail</t>
   </si>
   <si>
@@ -916,9 +913,6 @@
     <t>transaction.delete.supplyChain.setPurchaseRequisitionDetail</t>
   </si>
   <si>
-    <t>Menghapus Data Permintaan Pembelian</t>
-  </si>
-  <si>
     <t>Menghapus Data Perician Permintaan Pembelian</t>
   </si>
   <si>
@@ -926,6 +920,12 @@
   </si>
   <si>
     <t>Menghapus Data Pemasok</t>
+  </si>
+  <si>
+    <t>Menghapus Data Pesanan Pembelian (PO)</t>
+  </si>
+  <si>
+    <t>Menghapus Data Permintaan Pembelian (PR)</t>
   </si>
 </sst>
 </file>
@@ -2159,39 +2159,39 @@
         <v>294</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="310">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -926,6 +926,24 @@
   </si>
   <si>
     <t>Menghapus Data Permintaan Pembelian (PR)</t>
+  </si>
+  <si>
+    <t>transaction.delete.sysConfig.setDBObject_User</t>
+  </si>
+  <si>
+    <t>Menghapus Data DataBaseObject - User</t>
+  </si>
+  <si>
+    <t>transaction.delete.sysConfig.setDBObject_Schema</t>
+  </si>
+  <si>
+    <t>transaction.delete.sysConfig.setDBObject_Table</t>
+  </si>
+  <si>
+    <t>Menghapus Data DataBaseObject - Schema</t>
+  </si>
+  <si>
+    <t>Menghapus Data DataBaseObject - Table</t>
   </si>
 </sst>
 </file>
@@ -1448,13 +1466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C188"/>
+  <dimension ref="B1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1556,1183 +1574,1179 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>295</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>299</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
+      <c r="B101" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
-      <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
+      <c r="B123" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
-      <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
+      <c r="B144" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B147" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="12"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>169</v>
@@ -2740,7 +2754,7 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>169</v>
@@ -2748,7 +2762,7 @@
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>169</v>
@@ -2756,7 +2770,7 @@
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>169</v>
@@ -2764,7 +2778,7 @@
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>169</v>
@@ -2772,7 +2786,7 @@
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>169</v>
@@ -2780,7 +2794,7 @@
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>169</v>
@@ -2788,7 +2802,7 @@
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>169</v>
@@ -2796,7 +2810,7 @@
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>169</v>
@@ -2804,7 +2818,7 @@
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>169</v>
@@ -2812,7 +2826,7 @@
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>169</v>
@@ -2820,7 +2834,7 @@
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>169</v>
@@ -2828,31 +2842,63 @@
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="7"/>
-      <c r="C185" s="4"/>
-    </row>
-    <row r="186" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
+      <c r="B185" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="7"/>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="12"/>
+      <c r="C190" s="13"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C191" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="8"/>
-      <c r="C188" s="6"/>
+    <row r="192" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="8"/>
+      <c r="C192" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="314">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -944,6 +944,18 @@
   </si>
   <si>
     <t>Menghapus Data DataBaseObject - Table</t>
+  </si>
+  <si>
+    <t>transaction.delete.sysConfig.setRotateLog_API</t>
+  </si>
+  <si>
+    <t>transaction.delete.sysConfig.setLog_UserLoginSession</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log - User Login Session</t>
+  </si>
+  <si>
+    <t>Menghapus Data Rotate Log - API</t>
   </si>
 </sst>
 </file>
@@ -1466,13 +1478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C192"/>
+  <dimension ref="B1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1596,380 +1608,384 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>230</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1978,30 +1994,30 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,759 +2026,755 @@
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>296</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-    </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-    </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
-    </row>
-    <row r="149" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-    </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="7"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="12"/>
+      <c r="C151" s="13"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="7"/>
-      <c r="C151" s="4"/>
-    </row>
-    <row r="152" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-    </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="12"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>169</v>
@@ -2770,7 +2782,7 @@
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>169</v>
@@ -2778,7 +2790,7 @@
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>169</v>
@@ -2786,7 +2798,7 @@
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>169</v>
@@ -2794,7 +2806,7 @@
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>169</v>
@@ -2802,7 +2814,7 @@
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>169</v>
@@ -2810,7 +2822,7 @@
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>169</v>
@@ -2818,7 +2830,7 @@
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>169</v>
@@ -2826,7 +2838,7 @@
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>169</v>
@@ -2834,7 +2846,7 @@
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>169</v>
@@ -2842,7 +2854,7 @@
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>169</v>
@@ -2850,7 +2862,7 @@
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>169</v>
@@ -2858,7 +2870,7 @@
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>169</v>
@@ -2866,7 +2878,7 @@
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>169</v>
@@ -2874,31 +2886,47 @@
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="7"/>
-      <c r="C189" s="4"/>
-    </row>
-    <row r="190" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
+      <c r="B189" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="7"/>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="12"/>
+      <c r="C192" s="13"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C193" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="8"/>
-      <c r="C192" s="6"/>
+    <row r="194" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="8"/>
+      <c r="C194" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="316">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -58,9 +58,6 @@
     <t>transaction.create.master.setBloodAglutinogenType</t>
   </si>
   <si>
-    <t>Menyimpan data baru jenis golongan darah</t>
-  </si>
-  <si>
     <t>transaction.read.master.getDataListBloodAglutinogenType</t>
   </si>
   <si>
@@ -956,6 +953,15 @@
   </si>
   <si>
     <t>Menghapus Data Rotate Log - API</t>
+  </si>
+  <si>
+    <t>transaction.create.master.set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menyimpan Data Baru </t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Jenis Golongan Darah</t>
   </si>
 </sst>
 </file>
@@ -1478,13 +1484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C194"/>
+  <dimension ref="B1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1573,419 +1579,427 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="B15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>134</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,939 +2008,1027 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>291</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
+      <c r="B107" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>66</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>68</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>83</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
-      <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="7"/>
-      <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
+      <c r="B150" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="7"/>
-      <c r="C153" s="4"/>
-    </row>
-    <row r="154" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
+      <c r="B153" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>153</v>
+        <v>44</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="12"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="12"/>
+      <c r="C166" s="13"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="7"/>
-      <c r="C191" s="4"/>
-    </row>
-    <row r="192" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
+      <c r="B191" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="7"/>
+      <c r="C203" s="4"/>
+    </row>
+    <row r="204" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="12"/>
+      <c r="C204" s="13"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="8"/>
-      <c r="C194" s="6"/>
+      <c r="C205" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="8"/>
+      <c r="C206" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="318">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -962,6 +962,12 @@
   </si>
   <si>
     <t>Menyimpan Data Baru Jenis Golongan Darah</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.master.setBusinessDocument</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Dokumen Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1484,13 +1490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C206"/>
+  <dimension ref="B1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2708,191 +2714,187 @@
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="7"/>
-      <c r="C165" s="4"/>
-    </row>
-    <row r="166" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-    </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="12"/>
+      <c r="C168" s="13"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>168</v>
@@ -2900,7 +2902,7 @@
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>168</v>
@@ -2908,7 +2910,7 @@
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>168</v>
@@ -2916,7 +2918,7 @@
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>168</v>
@@ -2924,7 +2926,7 @@
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>168</v>
@@ -2932,7 +2934,7 @@
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>168</v>
@@ -2940,7 +2942,7 @@
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>168</v>
@@ -2948,7 +2950,7 @@
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>168</v>
@@ -2956,7 +2958,7 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>168</v>
@@ -2964,7 +2966,7 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>168</v>
@@ -2972,7 +2974,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>168</v>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>168</v>
@@ -2988,7 +2990,7 @@
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>168</v>
@@ -2996,7 +2998,7 @@
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>168</v>
@@ -3004,31 +3006,47 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="7"/>
-      <c r="C203" s="4"/>
-    </row>
-    <row r="204" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="12"/>
-      <c r="C204" s="13"/>
+      <c r="B203" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="7"/>
+      <c r="C205" s="4"/>
+    </row>
+    <row r="206" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="12"/>
+      <c r="C206" s="13"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C207" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="8"/>
-      <c r="C206" s="6"/>
+    <row r="208" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="8"/>
+      <c r="C208" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="322">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -968,6 +968,18 @@
   </si>
   <si>
     <t>Menyinkronkan Data Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setBusinessDocumentNumbering</t>
+  </si>
+  <si>
+    <t>Menghapus Data Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setBusinessDocumentNumberingFormat</t>
+  </si>
+  <si>
+    <t>Menghapus Data Format Penomoran Dokumen Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1490,13 +1502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C208"/>
+  <dimension ref="B1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C167" sqref="C167"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1754,358 +1766,362 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>114</v>
+        <v>320</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,30 +2130,30 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,771 +2162,767 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>287</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-    </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-    </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="12"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="7"/>
-      <c r="C162" s="4"/>
-    </row>
-    <row r="163" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-    </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="14"/>
-      <c r="C165" s="15"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="12"/>
+      <c r="C165" s="13"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="14"/>
+      <c r="C167" s="15"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="7"/>
-      <c r="C167" s="4"/>
-    </row>
-    <row r="168" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-    </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="12"/>
+      <c r="C170" s="13"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>168</v>
@@ -2918,7 +2930,7 @@
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>168</v>
@@ -2926,7 +2938,7 @@
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>168</v>
@@ -2934,7 +2946,7 @@
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>168</v>
@@ -2942,7 +2954,7 @@
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>168</v>
@@ -2950,7 +2962,7 @@
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>168</v>
@@ -2958,7 +2970,7 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>168</v>
@@ -2966,7 +2978,7 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>168</v>
@@ -2974,7 +2986,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>168</v>
@@ -2982,7 +2994,7 @@
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>168</v>
@@ -2990,7 +3002,7 @@
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>168</v>
@@ -2998,7 +3010,7 @@
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>168</v>
@@ -3006,7 +3018,7 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>168</v>
@@ -3014,7 +3026,7 @@
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>168</v>
@@ -3022,31 +3034,47 @@
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="7"/>
-      <c r="C205" s="4"/>
-    </row>
-    <row r="206" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="12"/>
-      <c r="C206" s="13"/>
+      <c r="B205" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="7"/>
+      <c r="C207" s="4"/>
+    </row>
+    <row r="208" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="12"/>
+      <c r="C208" s="13"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C209" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="8"/>
-      <c r="C208" s="6"/>
+    <row r="210" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="8"/>
+      <c r="C210" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="324">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -980,6 +980,12 @@
   </si>
   <si>
     <t>Menghapus Data Format Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setBusinessDocumentNumbering</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Penomoran Dokumen Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1502,13 +1508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C210"/>
+  <dimension ref="B1:C211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2786,151 +2792,151 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>168</v>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>168</v>
@@ -2946,7 +2952,7 @@
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>168</v>
@@ -2954,7 +2960,7 @@
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>168</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>168</v>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>168</v>
@@ -2978,7 +2984,7 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>168</v>
@@ -2986,7 +2992,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>168</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>168</v>
@@ -3002,7 +3008,7 @@
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>168</v>
@@ -3010,7 +3016,7 @@
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>168</v>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>168</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>168</v>
@@ -3034,7 +3040,7 @@
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>168</v>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>168</v>
@@ -3050,31 +3056,39 @@
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="7"/>
-      <c r="C207" s="4"/>
-    </row>
-    <row r="208" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="12"/>
-      <c r="C208" s="13"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
+      <c r="B207" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+      <c r="C208" s="4"/>
+    </row>
+    <row r="209" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="12"/>
+      <c r="C209" s="13"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C210" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="8"/>
-      <c r="C210" s="6"/>
+    <row r="211" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="8"/>
+      <c r="C211" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="336">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -986,6 +986,42 @@
   </si>
   <si>
     <t>Membatalkan Penghapusan Data Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setBusinessDocumentType</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Jenis Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setBusinessDocumentType</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Jenis Bisnis Dokumen</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setBusinessDocumentNumbering</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setBusinessDocumentNumberingFormat</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Format Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setBusinessDocumentNumbering</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setBusinessDocumentNumberingFormat</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Format Penomoran Dokumen Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1508,13 +1544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C211"/>
+  <dimension ref="B1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomRight" activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1608,26 +1644,26 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1703,443 +1739,447 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+      <c r="B27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>318</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>319</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>114</v>
+        <v>320</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,30 +2188,30 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,779 +2220,775 @@
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>287</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-    </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
-      <c r="C143" s="4"/>
-    </row>
-    <row r="144" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-    </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="12"/>
+      <c r="C146" s="13"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="7"/>
-      <c r="C164" s="4"/>
-    </row>
-    <row r="165" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-    </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="14"/>
-      <c r="C167" s="15"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="12"/>
+      <c r="C167" s="13"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="14"/>
+      <c r="C169" s="15"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="7"/>
-      <c r="C169" s="4"/>
-    </row>
-    <row r="170" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-    </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="12"/>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>323</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>152</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>168</v>
@@ -2960,7 +2996,7 @@
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>168</v>
@@ -2968,7 +3004,7 @@
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>168</v>
@@ -2976,7 +3012,7 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>168</v>
@@ -2984,7 +3020,7 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>168</v>
@@ -2992,7 +3028,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>168</v>
@@ -3000,7 +3036,7 @@
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>168</v>
@@ -3008,7 +3044,7 @@
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>168</v>
@@ -3016,7 +3052,7 @@
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>168</v>
@@ -3024,7 +3060,7 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>168</v>
@@ -3032,7 +3068,7 @@
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>168</v>
@@ -3040,7 +3076,7 @@
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>168</v>
@@ -3048,7 +3084,7 @@
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>168</v>
@@ -3056,7 +3092,7 @@
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
@@ -3064,31 +3100,71 @@
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="7"/>
-      <c r="C208" s="4"/>
-    </row>
-    <row r="209" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="12"/>
-      <c r="C209" s="13"/>
+      <c r="B208" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="7"/>
+      <c r="C210" s="4"/>
+    </row>
+    <row r="211" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="12"/>
+      <c r="C211" s="13"/>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="8"/>
-      <c r="C211" s="6"/>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="8"/>
+      <c r="C216" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="348">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1022,6 +1022,42 @@
   </si>
   <si>
     <t>Memutakhirkan Data Format Penomoran Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setTradeMark</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Merk Dagang</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setTradeMark</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Merk Dagang</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setReligion</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Agama</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setReligion</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Agama</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setQuantityUnit</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Unit Kuantitas</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setQuantityUnit</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Unit Kuantitas</t>
   </si>
 </sst>
 </file>
@@ -1544,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C216"/>
+  <dimension ref="B1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C215" sqref="C215"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1732,26 +1768,26 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3162,9 +3198,33 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="8"/>
-      <c r="C216" s="6"/>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="8"/>
+      <c r="C219" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="360">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1058,6 +1058,42 @@
   </si>
   <si>
     <t>Menyimpan Data Baru Unit Kuantitas</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setProductType</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setProduct</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setPersonGender</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Jenis Kelamin Orang</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Produk</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Jenis Produk</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setProductType</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setProduct</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setPersonGender</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Jenis Kelamin Orang</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Produk</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Jenis Produk</t>
   </si>
 </sst>
 </file>
@@ -1580,13 +1616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C219"/>
+  <dimension ref="B1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1744,26 +1780,26 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3200,31 +3236,55 @@
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="8"/>
-      <c r="C219" s="6"/>
+    <row r="222" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="8"/>
+      <c r="C222" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="372">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1094,6 +1094,42 @@
   </si>
   <si>
     <t>Memutakhirkan Data Jenis Produk</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setPeriod</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setPerson</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setPersonAccountEMail</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Orang</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Periode</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Akun E-Mail Orang</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setPersonAccountEMail</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setPerson</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setPeriod</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Periode</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Orang</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Akun E-Mail Orang</t>
   </si>
 </sst>
 </file>
@@ -1616,13 +1652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C222"/>
+  <dimension ref="B1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1756,26 +1792,26 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3236,55 +3272,79 @@
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="8"/>
-      <c r="C222" s="6"/>
+    <row r="225" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="8"/>
+      <c r="C225" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="386">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -955,12 +955,6 @@
     <t>Menghapus Data Rotate Log - API</t>
   </si>
   <si>
-    <t>transaction.create.master.set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyimpan Data Baru </t>
-  </si>
-  <si>
     <t>Menyimpan Data Baru Jenis Golongan Darah</t>
   </si>
   <si>
@@ -1130,13 +1124,61 @@
   </si>
   <si>
     <t>Menyimpan Data Baru Akun E-Mail Orang</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setDayOffGovernmentPolicy</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setDayOffNational</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setGoodsModel</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setGoodsType</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setDayOffGovernmentPolicy</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setDayOffNational</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setGoodsModel</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setGoodsType</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Hari Libur Kebijakan Pemerintah</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Hari Libur Nasional</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Model Barang</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Jenis Barang</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Hari Libur Kebijakan Pemerintah</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Hari Nasional</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Model Barang</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Jenis Barang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1203,19 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1301,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1347,6 +1402,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,13 +1716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C225"/>
+  <dimension ref="B1:C231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1747,63 +1811,63 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>370</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -1811,23 +1875,23 @@
         <v>366</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -1835,471 +1899,475 @@
         <v>348</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>318</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>319</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>100</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,30 +2376,30 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2340,779 +2408,775 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>287</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="14"/>
-      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
-      <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-    </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="7"/>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-    </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="12"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="7"/>
-      <c r="C166" s="4"/>
-    </row>
-    <row r="167" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-    </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="14"/>
-      <c r="C169" s="15"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="12"/>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="14"/>
+      <c r="C171" s="15"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="7"/>
-      <c r="C171" s="4"/>
-    </row>
-    <row r="172" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-    </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="12"/>
+      <c r="C174" s="13"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>323</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>168</v>
@@ -3120,7 +3184,7 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>168</v>
@@ -3128,7 +3192,7 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>168</v>
@@ -3136,7 +3200,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>168</v>
@@ -3144,7 +3208,7 @@
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>168</v>
@@ -3152,7 +3216,7 @@
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>168</v>
@@ -3160,7 +3224,7 @@
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>168</v>
@@ -3168,7 +3232,7 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>168</v>
@@ -3176,7 +3240,7 @@
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>168</v>
@@ -3184,7 +3248,7 @@
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>168</v>
@@ -3192,7 +3256,7 @@
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>168</v>
@@ -3200,7 +3264,7 @@
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
@@ -3208,7 +3272,7 @@
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>168</v>
@@ -3216,7 +3280,7 @@
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>168</v>
@@ -3224,127 +3288,175 @@
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="7"/>
-      <c r="C210" s="4"/>
-    </row>
-    <row r="211" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="12"/>
-      <c r="C211" s="13"/>
+      <c r="B210" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="B212" s="7"/>
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="12"/>
+      <c r="C213" s="13"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>359</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="8"/>
-      <c r="C225" s="6"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="8"/>
+      <c r="C231" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1209,13 +1209,11 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1719,10 +1717,10 @@
   <dimension ref="B1:C231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -46,9 +46,6 @@
     <t>environment.general.session.getData</t>
   </si>
   <si>
-    <t>Mengambil data User Session</t>
-  </si>
-  <si>
     <t>API KEY</t>
   </si>
   <si>
@@ -346,18 +343,6 @@
     <t>transaction.delete.master.setCountryAdministrativeAreaLevel4</t>
   </si>
   <si>
-    <t>Menghapusi Data Propinsi (Daerah Tingkat 1)</t>
-  </si>
-  <si>
-    <t>Menghapusi Data Kabupaten / Kota (Daerah Tingkat 2)</t>
-  </si>
-  <si>
-    <t>Menghapusi Data Kecamatan (Daerah Tingkat 3)</t>
-  </si>
-  <si>
-    <t>Menghapusi Data Kelurahan / Desa (Daerah Tingkat 4)</t>
-  </si>
-  <si>
     <t>transaction.delete.master.setBusinessDocumentVersion</t>
   </si>
   <si>
@@ -1172,6 +1157,21 @@
   </si>
   <si>
     <t>Menyimpan Data Baru Jenis Barang</t>
+  </si>
+  <si>
+    <t>Mendapatkan data User Session</t>
+  </si>
+  <si>
+    <t>Menghapus Data Propinsi (Daerah Tingkat 1)</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kabupaten / Kota (Daerah Tingkat 2)</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kecamatan (Daerah Tingkat 3)</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kelurahan / Desa (Daerah Tingkat 4)</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1717,10 @@
   <dimension ref="B1:C231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C223" sqref="C223"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1734,10 +1734,10 @@
     <row r="1" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -1806,138 +1806,138 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -1950,42 +1950,42 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,290 +1994,290 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>112</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2286,42 +2286,42 @@
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,42 +2330,42 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,10 +2374,10 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,18 +2386,18 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,10 +2406,10 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,170 +2418,170 @@
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2590,18 +2590,18 @@
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,42 +2610,42 @@
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -2658,162 +2658,162 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
@@ -2826,154 +2826,154 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -2986,10 +2986,10 @@
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2998,10 +2998,10 @@
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -3014,298 +3014,298 @@
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
@@ -3321,135 +3321,135 @@
         <v>0</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="16" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="16" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="388">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1159,9 +1159,6 @@
     <t>Menyimpan Data Baru Jenis Barang</t>
   </si>
   <si>
-    <t>Mendapatkan data User Session</t>
-  </si>
-  <si>
     <t>Menghapus Data Propinsi (Daerah Tingkat 1)</t>
   </si>
   <si>
@@ -1172,6 +1169,15 @@
   </si>
   <si>
     <t>Menghapus Data Kelurahan / Desa (Daerah Tingkat 4)</t>
+  </si>
+  <si>
+    <t>environment.general.session.getUserPrivelegesMenu</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data User Session</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data User Priveleges Menu</t>
   </si>
 </sst>
 </file>
@@ -1714,13 +1720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C231"/>
+  <dimension ref="B1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1793,1396 +1799,1396 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="B12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>302</v>
-      </c>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>92</v>
-      </c>
+    <row r="39" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>312</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>114</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>242</v>
-      </c>
+    <row r="76" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>223</v>
-      </c>
+    <row r="82" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
+    <row r="88" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>232</v>
-      </c>
+    <row r="90" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
+    <row r="93" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>247</v>
-      </c>
+    <row r="95" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>214</v>
-      </c>
+    <row r="117" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>296</v>
-      </c>
+    <row r="120" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>53</v>
-      </c>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="12"/>
+      <c r="C127" s="13"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="12"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="7"/>
-      <c r="C168" s="4"/>
-    </row>
-    <row r="169" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="7"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="12"/>
+      <c r="C170" s="13"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="14"/>
-      <c r="C171" s="15"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
+    <row r="172" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="14"/>
+      <c r="C172" s="15"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="7"/>
-      <c r="C173" s="4"/>
-    </row>
-    <row r="174" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>93</v>
-      </c>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="7"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="12"/>
+      <c r="C175" s="13"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>163</v>
@@ -3190,7 +3196,7 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>163</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>163</v>
@@ -3206,7 +3212,7 @@
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>163</v>
@@ -3214,7 +3220,7 @@
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>163</v>
@@ -3222,7 +3228,7 @@
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>163</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>163</v>
@@ -3238,7 +3244,7 @@
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>163</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>163</v>
@@ -3254,7 +3260,7 @@
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>163</v>
@@ -3262,7 +3268,7 @@
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>163</v>
@@ -3270,7 +3276,7 @@
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>163</v>
@@ -3278,7 +3284,7 @@
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>163</v>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>163</v>
@@ -3294,7 +3300,7 @@
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>163</v>
@@ -3302,159 +3308,167 @@
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="12"/>
-      <c r="C213" s="13"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B212" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+      <c r="C213" s="4"/>
+    </row>
+    <row r="214" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="12"/>
+      <c r="C214" s="13"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="219" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C222" s="17" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C231" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="8"/>
-      <c r="C231" s="6"/>
+    <row r="232" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="8"/>
+      <c r="C232" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="392">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1178,13 +1178,28 @@
   </si>
   <si>
     <t>Mendapatkan Data User Priveleges Menu</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>REVISION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,8 +1238,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,8 +1291,20 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1327,6 +1361,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1334,6 +1377,36 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1348,7 +1421,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1356,11 +1429,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1386,15 +1516,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1415,6 +1536,114 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1720,13 +1949,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C232"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1734,1743 +1963,3984 @@
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="1.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="33">
+        <v>44187</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="33">
+        <v>44187</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="39"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="19">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0</v>
+      </c>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="19">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="D39" s="39"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="19">
+        <v>1</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="19">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0</v>
+      </c>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="19">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="19">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="19">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44" s="39"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="19">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="39"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="D46" s="39"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="19">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="D47" s="39"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="19">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="39"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0</v>
+      </c>
+      <c r="H51" s="39"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+      <c r="D52" s="39"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="19">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="39"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="D53" s="39"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="19">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0</v>
+      </c>
+      <c r="H53" s="39"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="D54" s="39"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="19">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0</v>
+      </c>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="39"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="19">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="D56" s="39"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="39"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="39"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="19">
+        <v>1</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0</v>
+      </c>
+      <c r="H57" s="39"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="19">
+        <v>1</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="39"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="19">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
+      <c r="D60" s="39"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="19">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="39"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="39"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="19">
+        <v>1</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="39"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="19">
+        <v>1</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
+      <c r="D63" s="39"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="19">
+        <v>1</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+      <c r="D64" s="39"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="19">
+        <v>1</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0</v>
+      </c>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+      <c r="D65" s="39"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="19">
+        <v>1</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+      <c r="D66" s="39"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="19">
+        <v>1</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+      <c r="D67" s="39"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="19">
+        <v>1</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="19">
+        <v>1</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0</v>
+      </c>
+      <c r="H68" s="39"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+      <c r="D69" s="39"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="19">
+        <v>1</v>
+      </c>
+      <c r="G69" s="20">
+        <v>0</v>
+      </c>
+      <c r="H69" s="39"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="19">
+        <v>1</v>
+      </c>
+      <c r="G70" s="20">
+        <v>0</v>
+      </c>
+      <c r="H70" s="39"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+      <c r="D71" s="39"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="19">
+        <v>1</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0</v>
+      </c>
+      <c r="H71" s="39"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
+      <c r="D72" s="39"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="19">
+        <v>1</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="39"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+      <c r="D73" s="39"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="19">
+        <v>1</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0</v>
+      </c>
+      <c r="H73" s="39"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
+      <c r="D74" s="39"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="19">
+        <v>1</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0</v>
+      </c>
+      <c r="H74" s="39"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="D75" s="39"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="19">
+        <v>1</v>
+      </c>
+      <c r="G75" s="20">
+        <v>0</v>
+      </c>
+      <c r="H75" s="39"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+      <c r="D76" s="39"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="19">
+        <v>1</v>
+      </c>
+      <c r="G76" s="20">
+        <v>0</v>
+      </c>
+      <c r="H76" s="39"/>
+    </row>
+    <row r="77" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="39"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
+      <c r="D78" s="39"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="19">
+        <v>1</v>
+      </c>
+      <c r="G78" s="20">
+        <v>0</v>
+      </c>
+      <c r="H78" s="39"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
+      <c r="D79" s="39"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="19">
+        <v>1</v>
+      </c>
+      <c r="G79" s="20">
+        <v>0</v>
+      </c>
+      <c r="H79" s="39"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
+      <c r="D80" s="39"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="19">
+        <v>1</v>
+      </c>
+      <c r="G80" s="20">
+        <v>0</v>
+      </c>
+      <c r="H80" s="39"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
+      <c r="D81" s="39"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="19">
+        <v>1</v>
+      </c>
+      <c r="G81" s="20">
+        <v>0</v>
+      </c>
+      <c r="H81" s="39"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
+      <c r="D82" s="39"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="19">
+        <v>1</v>
+      </c>
+      <c r="G82" s="20">
+        <v>0</v>
+      </c>
+      <c r="H82" s="39"/>
+    </row>
+    <row r="83" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="39"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
+      <c r="D84" s="39"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="19">
+        <v>1</v>
+      </c>
+      <c r="G84" s="20">
+        <v>0</v>
+      </c>
+      <c r="H84" s="39"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
+      <c r="D85" s="39"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="19">
+        <v>1</v>
+      </c>
+      <c r="G85" s="20">
+        <v>0</v>
+      </c>
+      <c r="H85" s="39"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
+      <c r="D86" s="39"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="19">
+        <v>1</v>
+      </c>
+      <c r="G86" s="20">
+        <v>0</v>
+      </c>
+      <c r="H86" s="39"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
+      <c r="D87" s="39"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="19">
+        <v>1</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0</v>
+      </c>
+      <c r="H87" s="39"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
+      <c r="D88" s="39"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="19">
+        <v>1</v>
+      </c>
+      <c r="G88" s="20">
+        <v>0</v>
+      </c>
+      <c r="H88" s="39"/>
+    </row>
+    <row r="89" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="39"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
+      <c r="D90" s="39"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="19">
+        <v>1</v>
+      </c>
+      <c r="G90" s="20">
+        <v>0</v>
+      </c>
+      <c r="H90" s="39"/>
+    </row>
+    <row r="91" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="39"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
+      <c r="D92" s="39"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="19">
+        <v>1</v>
+      </c>
+      <c r="G92" s="20">
+        <v>0</v>
+      </c>
+      <c r="H92" s="39"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
+      <c r="D93" s="39"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="19">
+        <v>1</v>
+      </c>
+      <c r="G93" s="20">
+        <v>0</v>
+      </c>
+      <c r="H93" s="39"/>
+    </row>
+    <row r="94" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="39"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
+      <c r="D95" s="39"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="19">
+        <v>1</v>
+      </c>
+      <c r="G95" s="20">
+        <v>0</v>
+      </c>
+      <c r="H95" s="39"/>
+    </row>
+    <row r="96" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="39"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+      <c r="D97" s="39"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="19">
+        <v>1</v>
+      </c>
+      <c r="G97" s="20">
+        <v>0</v>
+      </c>
+      <c r="H97" s="39"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
+      <c r="D98" s="39"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="19">
+        <v>1</v>
+      </c>
+      <c r="G98" s="20">
+        <v>0</v>
+      </c>
+      <c r="H98" s="39"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
+      <c r="D99" s="39"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="19">
+        <v>1</v>
+      </c>
+      <c r="G99" s="20">
+        <v>0</v>
+      </c>
+      <c r="H99" s="39"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
+      <c r="D100" s="39"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="19">
+        <v>1</v>
+      </c>
+      <c r="G100" s="20">
+        <v>0</v>
+      </c>
+      <c r="H100" s="39"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+      <c r="D101" s="39"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="19">
+        <v>1</v>
+      </c>
+      <c r="G101" s="20">
+        <v>0</v>
+      </c>
+      <c r="H101" s="39"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
+      <c r="D102" s="39"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="19">
+        <v>1</v>
+      </c>
+      <c r="G102" s="20">
+        <v>0</v>
+      </c>
+      <c r="H102" s="39"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
+      <c r="D103" s="39"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="19">
+        <v>1</v>
+      </c>
+      <c r="G103" s="20">
+        <v>0</v>
+      </c>
+      <c r="H103" s="39"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
+      <c r="D104" s="39"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="19">
+        <v>1</v>
+      </c>
+      <c r="G104" s="20">
+        <v>0</v>
+      </c>
+      <c r="H104" s="39"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
+      <c r="D105" s="39"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="19">
+        <v>1</v>
+      </c>
+      <c r="G105" s="20">
+        <v>0</v>
+      </c>
+      <c r="H105" s="39"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
+      <c r="D106" s="39"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="19">
+        <v>1</v>
+      </c>
+      <c r="G106" s="20">
+        <v>0</v>
+      </c>
+      <c r="H106" s="39"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
+      <c r="D107" s="39"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="19">
+        <v>1</v>
+      </c>
+      <c r="G107" s="20">
+        <v>0</v>
+      </c>
+      <c r="H107" s="39"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
+      <c r="D108" s="39"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="19">
+        <v>1</v>
+      </c>
+      <c r="G108" s="20">
+        <v>0</v>
+      </c>
+      <c r="H108" s="39"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="s">
+      <c r="D109" s="39"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="19">
+        <v>1</v>
+      </c>
+      <c r="G109" s="20">
+        <v>0</v>
+      </c>
+      <c r="H109" s="39"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="B110" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
+      <c r="D110" s="39"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="19">
+        <v>1</v>
+      </c>
+      <c r="G110" s="20">
+        <v>0</v>
+      </c>
+      <c r="H110" s="39"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+      <c r="D111" s="39"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="19">
+        <v>1</v>
+      </c>
+      <c r="G111" s="20">
+        <v>0</v>
+      </c>
+      <c r="H111" s="39"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
+      <c r="B112" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
+      <c r="D112" s="39"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="19">
+        <v>1</v>
+      </c>
+      <c r="G112" s="20">
+        <v>0</v>
+      </c>
+      <c r="H112" s="39"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="B113" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
+      <c r="D113" s="39"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="19">
+        <v>1</v>
+      </c>
+      <c r="G113" s="20">
+        <v>0</v>
+      </c>
+      <c r="H113" s="39"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
+      <c r="B114" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
+      <c r="D114" s="39"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="19">
+        <v>1</v>
+      </c>
+      <c r="G114" s="20">
+        <v>0</v>
+      </c>
+      <c r="H114" s="39"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
+      <c r="B115" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
+      <c r="D115" s="39"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="19">
+        <v>1</v>
+      </c>
+      <c r="G115" s="20">
+        <v>0</v>
+      </c>
+      <c r="H115" s="39"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="39"/>
+      <c r="B116" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
+      <c r="D116" s="39"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="19">
+        <v>1</v>
+      </c>
+      <c r="G116" s="20">
+        <v>0</v>
+      </c>
+      <c r="H116" s="39"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
+      <c r="B117" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="14"/>
-      <c r="C117" s="15"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
+      <c r="D117" s="39"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="19">
+        <v>1</v>
+      </c>
+      <c r="G117" s="20">
+        <v>0</v>
+      </c>
+      <c r="H117" s="39"/>
+    </row>
+    <row r="118" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="39"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="39"/>
+      <c r="B119" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
+      <c r="D119" s="39"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="19">
+        <v>1</v>
+      </c>
+      <c r="G119" s="20">
+        <v>0</v>
+      </c>
+      <c r="H119" s="39"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="39"/>
+      <c r="B120" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
+      <c r="D120" s="39"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="19">
+        <v>1</v>
+      </c>
+      <c r="G120" s="20">
+        <v>0</v>
+      </c>
+      <c r="H120" s="39"/>
+    </row>
+    <row r="121" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="39"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="39"/>
+      <c r="B122" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
+      <c r="D122" s="39"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="19">
+        <v>1</v>
+      </c>
+      <c r="G122" s="20">
+        <v>0</v>
+      </c>
+      <c r="H122" s="39"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="39"/>
+      <c r="B123" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="7" t="s">
+      <c r="D123" s="39"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="19">
+        <v>1</v>
+      </c>
+      <c r="G123" s="20">
+        <v>0</v>
+      </c>
+      <c r="H123" s="39"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="39"/>
+      <c r="B124" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="7" t="s">
+      <c r="D124" s="39"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="19">
+        <v>1</v>
+      </c>
+      <c r="G124" s="20">
+        <v>0</v>
+      </c>
+      <c r="H124" s="39"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="39"/>
+      <c r="B125" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="7" t="s">
+      <c r="D125" s="39"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="19">
+        <v>1</v>
+      </c>
+      <c r="G125" s="20">
+        <v>0</v>
+      </c>
+      <c r="H125" s="39"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="39"/>
+      <c r="B126" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
-      <c r="C126" s="4"/>
-    </row>
-    <row r="127" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="7" t="s">
+      <c r="D126" s="39"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="19">
+        <v>1</v>
+      </c>
+      <c r="G126" s="20">
+        <v>0</v>
+      </c>
+      <c r="H126" s="39"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="39"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="39"/>
+    </row>
+    <row r="128" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="39"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="39"/>
+      <c r="B129" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="7" t="s">
+      <c r="D129" s="39"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="19">
+        <v>1</v>
+      </c>
+      <c r="G129" s="20">
+        <v>0</v>
+      </c>
+      <c r="H129" s="39"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="39"/>
+      <c r="B130" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="7" t="s">
+      <c r="D130" s="39"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="19">
+        <v>1</v>
+      </c>
+      <c r="G130" s="20">
+        <v>0</v>
+      </c>
+      <c r="H130" s="39"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="39"/>
+      <c r="B131" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
+      <c r="D131" s="39"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="19">
+        <v>1</v>
+      </c>
+      <c r="G131" s="20">
+        <v>0</v>
+      </c>
+      <c r="H131" s="39"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="39"/>
+      <c r="B132" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="7" t="s">
+      <c r="D132" s="39"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="19">
+        <v>1</v>
+      </c>
+      <c r="G132" s="20">
+        <v>0</v>
+      </c>
+      <c r="H132" s="39"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="39"/>
+      <c r="B133" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
+      <c r="D133" s="39"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="19">
+        <v>1</v>
+      </c>
+      <c r="G133" s="20">
+        <v>0</v>
+      </c>
+      <c r="H133" s="39"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="39"/>
+      <c r="B134" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="7" t="s">
+      <c r="D134" s="39"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="19">
+        <v>1</v>
+      </c>
+      <c r="G134" s="20">
+        <v>0</v>
+      </c>
+      <c r="H134" s="39"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="39"/>
+      <c r="B135" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
+      <c r="D135" s="39"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="19">
+        <v>1</v>
+      </c>
+      <c r="G135" s="20">
+        <v>0</v>
+      </c>
+      <c r="H135" s="39"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
+      <c r="D136" s="39"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="19">
+        <v>1</v>
+      </c>
+      <c r="G136" s="20">
+        <v>0</v>
+      </c>
+      <c r="H136" s="39"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="39"/>
+      <c r="B137" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="7" t="s">
+      <c r="D137" s="39"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="19">
+        <v>1</v>
+      </c>
+      <c r="G137" s="20">
+        <v>0</v>
+      </c>
+      <c r="H137" s="39"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="39"/>
+      <c r="B138" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
+      <c r="D138" s="39"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="19">
+        <v>1</v>
+      </c>
+      <c r="G138" s="20">
+        <v>0</v>
+      </c>
+      <c r="H138" s="39"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="39"/>
+      <c r="B139" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
+      <c r="D139" s="39"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="19">
+        <v>1</v>
+      </c>
+      <c r="G139" s="20">
+        <v>0</v>
+      </c>
+      <c r="H139" s="39"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="39"/>
+      <c r="B140" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="7" t="s">
+      <c r="D140" s="39"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="19">
+        <v>1</v>
+      </c>
+      <c r="G140" s="20">
+        <v>0</v>
+      </c>
+      <c r="H140" s="39"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="39"/>
+      <c r="B141" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
+      <c r="D141" s="39"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="19">
+        <v>1</v>
+      </c>
+      <c r="G141" s="20">
+        <v>0</v>
+      </c>
+      <c r="H141" s="39"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="39"/>
+      <c r="B142" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
+      <c r="D142" s="39"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="19">
+        <v>1</v>
+      </c>
+      <c r="G142" s="20">
+        <v>0</v>
+      </c>
+      <c r="H142" s="39"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="39"/>
+      <c r="B143" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="7" t="s">
+      <c r="D143" s="39"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="19">
+        <v>1</v>
+      </c>
+      <c r="G143" s="20">
+        <v>0</v>
+      </c>
+      <c r="H143" s="39"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="39"/>
+      <c r="B144" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7" t="s">
+      <c r="D144" s="39"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="19">
+        <v>1</v>
+      </c>
+      <c r="G144" s="20">
+        <v>0</v>
+      </c>
+      <c r="H144" s="39"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="7" t="s">
+      <c r="D145" s="39"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="19">
+        <v>1</v>
+      </c>
+      <c r="G145" s="20">
+        <v>0</v>
+      </c>
+      <c r="H145" s="39"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="39"/>
+      <c r="B146" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
+      <c r="D146" s="39"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="19">
+        <v>1</v>
+      </c>
+      <c r="G146" s="20">
+        <v>0</v>
+      </c>
+      <c r="H146" s="39"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="39"/>
+      <c r="B147" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="7" t="s">
+      <c r="D147" s="39"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="19">
+        <v>1</v>
+      </c>
+      <c r="G147" s="20">
+        <v>0</v>
+      </c>
+      <c r="H147" s="39"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
-    </row>
-    <row r="149" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="7" t="s">
+      <c r="D148" s="39"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="19">
+        <v>1</v>
+      </c>
+      <c r="G148" s="20">
+        <v>0</v>
+      </c>
+      <c r="H148" s="39"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="39"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="39"/>
+    </row>
+    <row r="150" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="39"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="39"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="39"/>
+      <c r="B151" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="7" t="s">
+      <c r="D151" s="39"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="19">
+        <v>1</v>
+      </c>
+      <c r="G151" s="20">
+        <v>0</v>
+      </c>
+      <c r="H151" s="39"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="39"/>
+      <c r="B152" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
+      <c r="D152" s="39"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="19">
+        <v>1</v>
+      </c>
+      <c r="G152" s="20">
+        <v>0</v>
+      </c>
+      <c r="H152" s="39"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="39"/>
+      <c r="B153" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="7" t="s">
+      <c r="D153" s="39"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="19">
+        <v>1</v>
+      </c>
+      <c r="G153" s="20">
+        <v>0</v>
+      </c>
+      <c r="H153" s="39"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="39"/>
+      <c r="B154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="7" t="s">
+      <c r="D154" s="39"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="19">
+        <v>1</v>
+      </c>
+      <c r="G154" s="20">
+        <v>0</v>
+      </c>
+      <c r="H154" s="39"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="39"/>
+      <c r="B155" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="7" t="s">
+      <c r="D155" s="39"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="19">
+        <v>1</v>
+      </c>
+      <c r="G155" s="20">
+        <v>0</v>
+      </c>
+      <c r="H155" s="39"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="39"/>
+      <c r="B156" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="7" t="s">
+      <c r="D156" s="39"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="19">
+        <v>1</v>
+      </c>
+      <c r="G156" s="20">
+        <v>0</v>
+      </c>
+      <c r="H156" s="39"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="39"/>
+      <c r="B157" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="7" t="s">
+      <c r="D157" s="39"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="19">
+        <v>1</v>
+      </c>
+      <c r="G157" s="20">
+        <v>0</v>
+      </c>
+      <c r="H157" s="39"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="39"/>
+      <c r="B158" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
+      <c r="D158" s="39"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="19">
+        <v>1</v>
+      </c>
+      <c r="G158" s="20">
+        <v>0</v>
+      </c>
+      <c r="H158" s="39"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="39"/>
+      <c r="B159" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
+      <c r="D159" s="39"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="20">
+        <v>0</v>
+      </c>
+      <c r="H159" s="39"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="39"/>
+      <c r="B160" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="7" t="s">
+      <c r="D160" s="39"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="19">
+        <v>1</v>
+      </c>
+      <c r="G160" s="20">
+        <v>0</v>
+      </c>
+      <c r="H160" s="39"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="39"/>
+      <c r="B161" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="7" t="s">
+      <c r="D161" s="39"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="19">
+        <v>1</v>
+      </c>
+      <c r="G161" s="20">
+        <v>0</v>
+      </c>
+      <c r="H161" s="39"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="39"/>
+      <c r="B162" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
+      <c r="D162" s="39"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="20">
+        <v>0</v>
+      </c>
+      <c r="H162" s="39"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="39"/>
+      <c r="B163" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="7" t="s">
+      <c r="D163" s="39"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="19">
+        <v>1</v>
+      </c>
+      <c r="G163" s="20">
+        <v>0</v>
+      </c>
+      <c r="H163" s="39"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="39"/>
+      <c r="B164" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C164" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="7" t="s">
+      <c r="D164" s="39"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="19">
+        <v>1</v>
+      </c>
+      <c r="G164" s="20">
+        <v>0</v>
+      </c>
+      <c r="H164" s="39"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="39"/>
+      <c r="B165" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="7" t="s">
+      <c r="D165" s="39"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="19">
+        <v>1</v>
+      </c>
+      <c r="G165" s="20">
+        <v>0</v>
+      </c>
+      <c r="H165" s="39"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="39"/>
+      <c r="B166" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="7" t="s">
+      <c r="D166" s="39"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="19">
+        <v>1</v>
+      </c>
+      <c r="G166" s="20">
+        <v>0</v>
+      </c>
+      <c r="H166" s="39"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="39"/>
+      <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
+      <c r="D167" s="39"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="19">
+        <v>1</v>
+      </c>
+      <c r="G167" s="20">
+        <v>0</v>
+      </c>
+      <c r="H167" s="39"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="39"/>
+      <c r="B168" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
+      <c r="D168" s="39"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="20">
+        <v>0</v>
+      </c>
+      <c r="H168" s="39"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="39"/>
+      <c r="B169" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="7"/>
-      <c r="C169" s="4"/>
-    </row>
-    <row r="170" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
+      <c r="D169" s="39"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="19">
+        <v>1</v>
+      </c>
+      <c r="G169" s="20">
+        <v>0</v>
+      </c>
+      <c r="H169" s="39"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="39"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="39"/>
+    </row>
+    <row r="171" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="39"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="39"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="39"/>
+      <c r="B172" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="14"/>
-      <c r="C172" s="15"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
+      <c r="D172" s="39"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="19">
+        <v>1</v>
+      </c>
+      <c r="G172" s="20">
+        <v>0</v>
+      </c>
+      <c r="H172" s="39"/>
+    </row>
+    <row r="173" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="39"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="39"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="39"/>
+      <c r="B174" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="7"/>
-      <c r="C174" s="4"/>
-    </row>
-    <row r="175" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="7" t="s">
+      <c r="D174" s="39"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="19">
+        <v>1</v>
+      </c>
+      <c r="G174" s="20">
+        <v>0</v>
+      </c>
+      <c r="H174" s="39"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="39"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="39"/>
+    </row>
+    <row r="176" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="39"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="39"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="39"/>
+      <c r="B177" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="7" t="s">
+      <c r="D177" s="39"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="19">
+        <v>1</v>
+      </c>
+      <c r="G177" s="20">
+        <v>0</v>
+      </c>
+      <c r="H177" s="39"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="39"/>
+      <c r="B178" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
+      <c r="D178" s="39"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="19">
+        <v>1</v>
+      </c>
+      <c r="G178" s="20">
+        <v>0</v>
+      </c>
+      <c r="H178" s="39"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="39"/>
+      <c r="B179" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
+      <c r="D179" s="39"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="19">
+        <v>1</v>
+      </c>
+      <c r="G179" s="20">
+        <v>0</v>
+      </c>
+      <c r="H179" s="39"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="39"/>
+      <c r="B180" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C180" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
+      <c r="D180" s="39"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="19">
+        <v>1</v>
+      </c>
+      <c r="G180" s="20">
+        <v>0</v>
+      </c>
+      <c r="H180" s="39"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="39"/>
+      <c r="B181" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C181" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="7" t="s">
+      <c r="D181" s="39"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="19">
+        <v>1</v>
+      </c>
+      <c r="G181" s="20">
+        <v>0</v>
+      </c>
+      <c r="H181" s="39"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="39"/>
+      <c r="B182" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
+      <c r="D182" s="39"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="19">
+        <v>1</v>
+      </c>
+      <c r="G182" s="20">
+        <v>0</v>
+      </c>
+      <c r="H182" s="39"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="39"/>
+      <c r="B183" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C183" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
+      <c r="D183" s="39"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="19">
+        <v>1</v>
+      </c>
+      <c r="G183" s="20">
+        <v>0</v>
+      </c>
+      <c r="H183" s="39"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="39"/>
+      <c r="B184" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C184" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
+      <c r="D184" s="39"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="19">
+        <v>1</v>
+      </c>
+      <c r="G184" s="20">
+        <v>0</v>
+      </c>
+      <c r="H184" s="39"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="39"/>
+      <c r="B185" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C185" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="7" t="s">
+      <c r="D185" s="39"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="19">
+        <v>1</v>
+      </c>
+      <c r="G185" s="20">
+        <v>0</v>
+      </c>
+      <c r="H185" s="39"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="39"/>
+      <c r="B186" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C186" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="7" t="s">
+      <c r="D186" s="39"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="19">
+        <v>1</v>
+      </c>
+      <c r="G186" s="20">
+        <v>0</v>
+      </c>
+      <c r="H186" s="39"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="39"/>
+      <c r="B187" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="7" t="s">
+      <c r="D187" s="39"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="19">
+        <v>1</v>
+      </c>
+      <c r="G187" s="20">
+        <v>0</v>
+      </c>
+      <c r="H187" s="39"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="39"/>
+      <c r="B188" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C188" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="7" t="s">
+      <c r="D188" s="39"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="19">
+        <v>1</v>
+      </c>
+      <c r="G188" s="20">
+        <v>0</v>
+      </c>
+      <c r="H188" s="39"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="39"/>
+      <c r="B189" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C189" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="7" t="s">
+      <c r="D189" s="39"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="19">
+        <v>1</v>
+      </c>
+      <c r="G189" s="20">
+        <v>0</v>
+      </c>
+      <c r="H189" s="39"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="39"/>
+      <c r="B190" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C190" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
+      <c r="D190" s="39"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="20">
+        <v>0</v>
+      </c>
+      <c r="H190" s="39"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="39"/>
+      <c r="B191" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C191" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
+      <c r="D191" s="39"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="19">
+        <v>1</v>
+      </c>
+      <c r="G191" s="20">
+        <v>0</v>
+      </c>
+      <c r="H191" s="39"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="39"/>
+      <c r="B192" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C192" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
+      <c r="D192" s="39"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="19">
+        <v>1</v>
+      </c>
+      <c r="G192" s="20">
+        <v>0</v>
+      </c>
+      <c r="H192" s="39"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="39"/>
+      <c r="B193" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C193" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
+      <c r="D193" s="39"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="19">
+        <v>1</v>
+      </c>
+      <c r="G193" s="20">
+        <v>0</v>
+      </c>
+      <c r="H193" s="39"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="39"/>
+      <c r="B194" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="7" t="s">
+      <c r="D194" s="39"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="19">
+        <v>1</v>
+      </c>
+      <c r="G194" s="20">
+        <v>0</v>
+      </c>
+      <c r="H194" s="39"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="39"/>
+      <c r="B195" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
+      <c r="D195" s="39"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="19">
+        <v>1</v>
+      </c>
+      <c r="G195" s="20">
+        <v>0</v>
+      </c>
+      <c r="H195" s="39"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="39"/>
+      <c r="B196" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C196" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
+      <c r="D196" s="39"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="19">
+        <v>1</v>
+      </c>
+      <c r="G196" s="20">
+        <v>0</v>
+      </c>
+      <c r="H196" s="39"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="39"/>
+      <c r="B197" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="39"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="19">
+        <v>1</v>
+      </c>
+      <c r="G197" s="20">
+        <v>0</v>
+      </c>
+      <c r="H197" s="39"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="39"/>
       <c r="B198" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="39"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="19">
+        <v>1</v>
+      </c>
+      <c r="G198" s="20">
+        <v>0</v>
+      </c>
+      <c r="H198" s="39"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="39"/>
       <c r="B199" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="39"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="19">
+        <v>1</v>
+      </c>
+      <c r="G199" s="20">
+        <v>0</v>
+      </c>
+      <c r="H199" s="39"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="39"/>
       <c r="B200" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="39"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="19">
+        <v>1</v>
+      </c>
+      <c r="G200" s="20">
+        <v>0</v>
+      </c>
+      <c r="H200" s="39"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="39"/>
       <c r="B201" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="39"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="19">
+        <v>1</v>
+      </c>
+      <c r="G201" s="20">
+        <v>0</v>
+      </c>
+      <c r="H201" s="39"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="39"/>
       <c r="B202" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="39"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="19">
+        <v>1</v>
+      </c>
+      <c r="G202" s="20">
+        <v>0</v>
+      </c>
+      <c r="H202" s="39"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="39"/>
       <c r="B203" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="39"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="19">
+        <v>1</v>
+      </c>
+      <c r="G203" s="20">
+        <v>0</v>
+      </c>
+      <c r="H203" s="39"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="39"/>
       <c r="B204" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="39"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="19">
+        <v>1</v>
+      </c>
+      <c r="G204" s="20">
+        <v>0</v>
+      </c>
+      <c r="H204" s="39"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="39"/>
       <c r="B205" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="39"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="19">
+        <v>1</v>
+      </c>
+      <c r="G205" s="20">
+        <v>0</v>
+      </c>
+      <c r="H205" s="39"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="39"/>
       <c r="B206" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="39"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="19">
+        <v>1</v>
+      </c>
+      <c r="G206" s="20">
+        <v>0</v>
+      </c>
+      <c r="H206" s="39"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="39"/>
       <c r="B207" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="39"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="19">
+        <v>1</v>
+      </c>
+      <c r="G207" s="20">
+        <v>0</v>
+      </c>
+      <c r="H207" s="39"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="39"/>
       <c r="B208" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="39"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="19">
+        <v>1</v>
+      </c>
+      <c r="G208" s="20">
+        <v>0</v>
+      </c>
+      <c r="H208" s="39"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="39"/>
       <c r="B209" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="39"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="19">
+        <v>1</v>
+      </c>
+      <c r="G209" s="20">
+        <v>0</v>
+      </c>
+      <c r="H209" s="39"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="39"/>
       <c r="B210" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="39"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="19">
+        <v>1</v>
+      </c>
+      <c r="G210" s="20">
+        <v>0</v>
+      </c>
+      <c r="H210" s="39"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="39"/>
       <c r="B211" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="39"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="19">
+        <v>1</v>
+      </c>
+      <c r="G211" s="20">
+        <v>0</v>
+      </c>
+      <c r="H211" s="39"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="39"/>
       <c r="B212" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
-    </row>
-    <row r="214" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="12"/>
-      <c r="C214" s="13"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C215" s="4" t="s">
+      <c r="D212" s="39"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="19">
+        <v>1</v>
+      </c>
+      <c r="G212" s="20">
+        <v>0</v>
+      </c>
+      <c r="H212" s="39"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="39"/>
+      <c r="B213" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213" s="39"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="19">
+        <v>1</v>
+      </c>
+      <c r="G213" s="20">
+        <v>0</v>
+      </c>
+      <c r="H213" s="39"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="39"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="39"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="39"/>
+    </row>
+    <row r="215" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="39"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="39"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="39"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="39"/>
+      <c r="B216" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="7" t="s">
+      <c r="D216" s="39"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="19">
+        <v>1</v>
+      </c>
+      <c r="G216" s="20">
+        <v>0</v>
+      </c>
+      <c r="H216" s="39"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="39"/>
+      <c r="B217" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C217" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
+      <c r="D217" s="39"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="19">
+        <v>1</v>
+      </c>
+      <c r="G217" s="20">
+        <v>0</v>
+      </c>
+      <c r="H217" s="39"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="39"/>
+      <c r="B218" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
+      <c r="D218" s="39"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="19">
+        <v>1</v>
+      </c>
+      <c r="G218" s="20">
+        <v>0</v>
+      </c>
+      <c r="H218" s="39"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="39"/>
+      <c r="B219" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="16" t="s">
+      <c r="D219" s="39"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="19">
+        <v>1</v>
+      </c>
+      <c r="G219" s="20">
+        <v>0</v>
+      </c>
+      <c r="H219" s="39"/>
+    </row>
+    <row r="220" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="41"/>
+      <c r="B220" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C220" s="14" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="16" t="s">
+      <c r="D220" s="41"/>
+      <c r="E220" s="35"/>
+      <c r="F220" s="19">
+        <v>1</v>
+      </c>
+      <c r="G220" s="20">
+        <v>0</v>
+      </c>
+      <c r="H220" s="41"/>
+    </row>
+    <row r="221" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="41"/>
+      <c r="B221" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C221" s="14" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="16" t="s">
+      <c r="D221" s="41"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="19">
+        <v>1</v>
+      </c>
+      <c r="G221" s="20">
+        <v>0</v>
+      </c>
+      <c r="H221" s="41"/>
+    </row>
+    <row r="222" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="41"/>
+      <c r="B222" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C222" s="14" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="16" t="s">
+      <c r="D222" s="41"/>
+      <c r="E222" s="35"/>
+      <c r="F222" s="19">
+        <v>1</v>
+      </c>
+      <c r="G222" s="20">
+        <v>0</v>
+      </c>
+      <c r="H222" s="41"/>
+    </row>
+    <row r="223" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="41"/>
+      <c r="B223" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C223" s="14" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
+      <c r="D223" s="41"/>
+      <c r="E223" s="35"/>
+      <c r="F223" s="19">
+        <v>1</v>
+      </c>
+      <c r="G223" s="20">
+        <v>0</v>
+      </c>
+      <c r="H223" s="41"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="39"/>
+      <c r="B224" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
+      <c r="D224" s="39"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="19">
+        <v>1</v>
+      </c>
+      <c r="G224" s="20">
+        <v>0</v>
+      </c>
+      <c r="H224" s="39"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="39"/>
+      <c r="B225" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
+      <c r="D225" s="39"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="19">
+        <v>1</v>
+      </c>
+      <c r="G225" s="20">
+        <v>0</v>
+      </c>
+      <c r="H225" s="39"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="39"/>
+      <c r="B226" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
+      <c r="D226" s="39"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="19">
+        <v>1</v>
+      </c>
+      <c r="G226" s="20">
+        <v>0</v>
+      </c>
+      <c r="H226" s="39"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="39"/>
+      <c r="B227" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C227" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
+      <c r="D227" s="39"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="19">
+        <v>1</v>
+      </c>
+      <c r="G227" s="20">
+        <v>0</v>
+      </c>
+      <c r="H227" s="39"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="39"/>
+      <c r="B228" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
+      <c r="D228" s="39"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="19">
+        <v>1</v>
+      </c>
+      <c r="G228" s="20">
+        <v>0</v>
+      </c>
+      <c r="H228" s="39"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="39"/>
+      <c r="B229" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C229" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
+      <c r="D229" s="39"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="19">
+        <v>1</v>
+      </c>
+      <c r="G229" s="20">
+        <v>0</v>
+      </c>
+      <c r="H229" s="39"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="39"/>
+      <c r="B230" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C230" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
+      <c r="D230" s="39"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="19">
+        <v>1</v>
+      </c>
+      <c r="G230" s="20">
+        <v>0</v>
+      </c>
+      <c r="H230" s="39"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="39"/>
+      <c r="B231" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C231" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
+      <c r="D231" s="39"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="19">
+        <v>1</v>
+      </c>
+      <c r="G231" s="20">
+        <v>0</v>
+      </c>
+      <c r="H231" s="39"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="39"/>
+      <c r="B232" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C232" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="8"/>
-      <c r="C232" s="6"/>
+      <c r="D232" s="39"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="19">
+        <v>1</v>
+      </c>
+      <c r="G232" s="20">
+        <v>0</v>
+      </c>
+      <c r="H232" s="39"/>
+    </row>
+    <row r="233" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="39"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="39"/>
+      <c r="E233" s="37"/>
+      <c r="F233" s="25"/>
+      <c r="G233" s="26"/>
+      <c r="H233" s="39"/>
+    </row>
+    <row r="234" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="39"/>
+      <c r="B234" s="42"/>
+      <c r="C234" s="43"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="44"/>
+      <c r="F234" s="45"/>
+      <c r="G234" s="45"/>
+      <c r="H234" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1570,18 +1570,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1627,6 +1615,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1635,15 +1644,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,7 +1955,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1964,7 @@
     <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
@@ -1972,169 +1972,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:8" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="49" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="17">
         <v>1</v>
       </c>
       <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="29">
+        <v>44188</v>
+      </c>
       <c r="F5" s="19">
         <v>1</v>
       </c>
       <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="29">
+        <v>44188</v>
+      </c>
       <c r="F6" s="19">
         <v>1</v>
       </c>
       <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="19">
         <v>1</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="33">
+      <c r="D12" s="35"/>
+      <c r="E12" s="29">
         <v>44187</v>
       </c>
       <c r="F12" s="19">
@@ -2143,18 +2147,18 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="7" t="s">
         <v>385</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="33">
+      <c r="D13" s="35"/>
+      <c r="E13" s="29">
         <v>44187</v>
       </c>
       <c r="F13" s="19">
@@ -2163,3777 +2167,3777 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="19">
         <v>1</v>
       </c>
       <c r="G16" s="20">
         <v>0</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
         <v>321</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="20">
         <v>0</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="7" t="s">
         <v>322</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="20">
         <v>0</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="7" t="s">
         <v>317</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="19">
         <v>1</v>
       </c>
       <c r="G19" s="20">
         <v>0</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="13" t="s">
         <v>365</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="19">
         <v>1</v>
       </c>
       <c r="G20" s="20">
         <v>0</v>
       </c>
-      <c r="H20" s="41"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="13" t="s">
         <v>366</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="19">
         <v>1</v>
       </c>
       <c r="G21" s="20">
         <v>0</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="13" t="s">
         <v>367</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="19">
         <v>1</v>
       </c>
       <c r="G22" s="20">
         <v>0</v>
       </c>
-      <c r="H22" s="41"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="13" t="s">
         <v>368</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="19">
         <v>1</v>
       </c>
       <c r="G23" s="20">
         <v>0</v>
       </c>
-      <c r="H23" s="41"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="7" t="s">
         <v>361</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="19">
         <v>1</v>
       </c>
       <c r="G24" s="20">
         <v>0</v>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="7" t="s">
         <v>360</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="19">
         <v>1</v>
       </c>
       <c r="G25" s="20">
         <v>0</v>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="7" t="s">
         <v>359</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="19">
         <v>1</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
         <v>343</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="19">
         <v>1</v>
       </c>
       <c r="G27" s="20">
         <v>0</v>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="7" t="s">
         <v>342</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="20">
         <v>0</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
         <v>341</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="20">
         <v>0</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="7" t="s">
         <v>339</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="33"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="19">
         <v>1</v>
       </c>
       <c r="G30" s="20">
         <v>0</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="7" t="s">
         <v>333</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="20">
         <v>0</v>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="20">
         <v>0</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="33"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="19"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="33"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="20">
         <v>0</v>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="7" t="s">
         <v>301</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="33"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="20">
         <v>0</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="7" t="s">
         <v>298</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="33"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="20">
         <v>0</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="33"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="19">
         <v>1</v>
       </c>
       <c r="G38" s="20">
         <v>0</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="7" t="s">
         <v>304</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="33"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="19">
         <v>1</v>
       </c>
       <c r="G39" s="20">
         <v>0</v>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="36"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="39"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="33"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="19">
         <v>1</v>
       </c>
       <c r="G41" s="20">
         <v>0</v>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="33"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="19">
         <v>1</v>
       </c>
       <c r="G42" s="20">
         <v>0</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
         <v>311</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="19">
         <v>1</v>
       </c>
       <c r="G43" s="20">
         <v>0</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="7" t="s">
         <v>313</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="19">
         <v>1</v>
       </c>
       <c r="G44" s="20">
         <v>0</v>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="33"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="19">
         <v>1</v>
       </c>
       <c r="G45" s="20">
         <v>0</v>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="19">
         <v>1</v>
       </c>
       <c r="G46" s="20">
         <v>0</v>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="33"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="19">
         <v>1</v>
       </c>
       <c r="G47" s="20">
         <v>0</v>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="33"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="19">
         <v>1</v>
       </c>
       <c r="G48" s="20">
         <v>0</v>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="33"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="19">
         <v>1</v>
       </c>
       <c r="G49" s="20">
         <v>0</v>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="33"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="19">
         <v>1</v>
       </c>
       <c r="G50" s="20">
         <v>0</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="33"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="19">
         <v>1</v>
       </c>
       <c r="G51" s="20">
         <v>0</v>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="33"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="19">
         <v>1</v>
       </c>
       <c r="G52" s="20">
         <v>0</v>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="33"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="19">
         <v>1</v>
       </c>
       <c r="G53" s="20">
         <v>0</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="33"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="19">
         <v>1</v>
       </c>
       <c r="G54" s="20">
         <v>0</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="33"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="19">
         <v>1</v>
       </c>
       <c r="G55" s="20">
         <v>0</v>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="33"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="19">
         <v>1</v>
       </c>
       <c r="G56" s="20">
         <v>0</v>
       </c>
-      <c r="H56" s="39"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="33"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="19">
         <v>1</v>
       </c>
       <c r="G57" s="20">
         <v>0</v>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="33"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="19">
         <v>1</v>
       </c>
       <c r="G58" s="20">
         <v>0</v>
       </c>
-      <c r="H58" s="39"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="33"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="19">
         <v>1</v>
       </c>
       <c r="G59" s="20">
         <v>0</v>
       </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="33"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="19">
         <v>1</v>
       </c>
       <c r="G60" s="20">
         <v>0</v>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="33"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="19">
         <v>1</v>
       </c>
       <c r="G61" s="20">
         <v>0</v>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="33"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="19">
         <v>1</v>
       </c>
       <c r="G62" s="20">
         <v>0</v>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="33"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="19">
         <v>1</v>
       </c>
       <c r="G63" s="20">
         <v>0</v>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="33"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="19">
         <v>1</v>
       </c>
       <c r="G64" s="20">
         <v>0</v>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="33"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="19">
         <v>1</v>
       </c>
       <c r="G65" s="20">
         <v>0</v>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="33"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="19">
         <v>1</v>
       </c>
       <c r="G66" s="20">
         <v>0</v>
       </c>
-      <c r="H66" s="39"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="33"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="19">
         <v>1</v>
       </c>
       <c r="G67" s="20">
         <v>0</v>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="33"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="19">
         <v>1</v>
       </c>
       <c r="G68" s="20">
         <v>0</v>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="33"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="19">
         <v>1</v>
       </c>
       <c r="G69" s="20">
         <v>0</v>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="33"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="19">
         <v>1</v>
       </c>
       <c r="G70" s="20">
         <v>0</v>
       </c>
-      <c r="H70" s="39"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="33"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="19">
         <v>1</v>
       </c>
       <c r="G71" s="20">
         <v>0</v>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="33"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="19">
         <v>1</v>
       </c>
       <c r="G72" s="20">
         <v>0</v>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="33"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="19">
         <v>1</v>
       </c>
       <c r="G73" s="20">
         <v>0</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="33"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="29"/>
       <c r="F74" s="19">
         <v>1</v>
       </c>
       <c r="G74" s="20">
         <v>0</v>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="33"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="19">
         <v>1</v>
       </c>
       <c r="G75" s="20">
         <v>0</v>
       </c>
-      <c r="H75" s="39"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="39"/>
-      <c r="E76" s="33"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="29"/>
       <c r="F76" s="19">
         <v>1</v>
       </c>
       <c r="G76" s="20">
         <v>0</v>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="36"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="39"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="33"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="29"/>
       <c r="F78" s="19">
         <v>1</v>
       </c>
       <c r="G78" s="20">
         <v>0</v>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="33"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="19">
         <v>1</v>
       </c>
       <c r="G79" s="20">
         <v>0</v>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="33"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="29"/>
       <c r="F80" s="19">
         <v>1</v>
       </c>
       <c r="G80" s="20">
         <v>0</v>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
         <v>237</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="33"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="29"/>
       <c r="F81" s="19">
         <v>1</v>
       </c>
       <c r="G81" s="20">
         <v>0</v>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="33"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="29"/>
       <c r="F82" s="19">
         <v>1</v>
       </c>
       <c r="G82" s="20">
         <v>0</v>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="36"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
-      <c r="H83" s="39"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="33"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="29"/>
       <c r="F84" s="19">
         <v>1</v>
       </c>
       <c r="G84" s="20">
         <v>0</v>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="33"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="19">
         <v>1</v>
       </c>
       <c r="G85" s="20">
         <v>0</v>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="33"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="29"/>
       <c r="F86" s="19">
         <v>1</v>
       </c>
       <c r="G86" s="20">
         <v>0</v>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="33"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="19">
         <v>1</v>
       </c>
       <c r="G87" s="20">
         <v>0</v>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="33"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="19">
         <v>1</v>
       </c>
       <c r="G88" s="20">
         <v>0</v>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="36"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
-      <c r="H89" s="39"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="33"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="19">
         <v>1</v>
       </c>
       <c r="G90" s="20">
         <v>0</v>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="36"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="32"/>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
-      <c r="H91" s="39"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="33"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="29"/>
       <c r="F92" s="19">
         <v>1</v>
       </c>
       <c r="G92" s="20">
         <v>0</v>
       </c>
-      <c r="H92" s="39"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="33"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="29"/>
       <c r="F93" s="19">
         <v>1</v>
       </c>
       <c r="G93" s="20">
         <v>0</v>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="36"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="32"/>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
-      <c r="H94" s="39"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="33"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="19">
         <v>1</v>
       </c>
       <c r="G95" s="20">
         <v>0</v>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="36"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="32"/>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
-      <c r="H96" s="39"/>
+      <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="33"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="29"/>
       <c r="F97" s="19">
         <v>1</v>
       </c>
       <c r="G97" s="20">
         <v>0</v>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="33"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="29"/>
       <c r="F98" s="19">
         <v>1</v>
       </c>
       <c r="G98" s="20">
         <v>0</v>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
         <v>249</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="33"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="19">
         <v>1</v>
       </c>
       <c r="G99" s="20">
         <v>0</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="33"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="29"/>
       <c r="F100" s="19">
         <v>1</v>
       </c>
       <c r="G100" s="20">
         <v>0</v>
       </c>
-      <c r="H100" s="39"/>
+      <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="33"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="19">
         <v>1</v>
       </c>
       <c r="G101" s="20">
         <v>0</v>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="33"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="19">
         <v>1</v>
       </c>
       <c r="G102" s="20">
         <v>0</v>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="33"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="19">
         <v>1</v>
       </c>
       <c r="G103" s="20">
         <v>0</v>
       </c>
-      <c r="H103" s="39"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="33"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="29"/>
       <c r="F104" s="19">
         <v>1</v>
       </c>
       <c r="G104" s="20">
         <v>0</v>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
         <v>255</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="33"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="29"/>
       <c r="F105" s="19">
         <v>1</v>
       </c>
       <c r="G105" s="20">
         <v>0</v>
       </c>
-      <c r="H105" s="39"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
         <v>257</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="33"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="29"/>
       <c r="F106" s="19">
         <v>1</v>
       </c>
       <c r="G106" s="20">
         <v>0</v>
       </c>
-      <c r="H106" s="39"/>
+      <c r="H106" s="35"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="33"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="29"/>
       <c r="F107" s="19">
         <v>1</v>
       </c>
       <c r="G107" s="20">
         <v>0</v>
       </c>
-      <c r="H107" s="39"/>
+      <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="33"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="19">
         <v>1</v>
       </c>
       <c r="G108" s="20">
         <v>0</v>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="35"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
         <v>261</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="33"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="19">
         <v>1</v>
       </c>
       <c r="G109" s="20">
         <v>0</v>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="33"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="29"/>
       <c r="F110" s="19">
         <v>1</v>
       </c>
       <c r="G110" s="20">
         <v>0</v>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
         <v>267</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="33"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="29"/>
       <c r="F111" s="19">
         <v>1</v>
       </c>
       <c r="G111" s="20">
         <v>0</v>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="35"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="33"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="29"/>
       <c r="F112" s="19">
         <v>1</v>
       </c>
       <c r="G112" s="20">
         <v>0</v>
       </c>
-      <c r="H112" s="39"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
         <v>269</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D113" s="39"/>
-      <c r="E113" s="33"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="29"/>
       <c r="F113" s="19">
         <v>1</v>
       </c>
       <c r="G113" s="20">
         <v>0</v>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D114" s="39"/>
-      <c r="E114" s="33"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="29"/>
       <c r="F114" s="19">
         <v>1</v>
       </c>
       <c r="G114" s="20">
         <v>0</v>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="33"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="29"/>
       <c r="F115" s="19">
         <v>1</v>
       </c>
       <c r="G115" s="20">
         <v>0</v>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="33"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="29"/>
       <c r="F116" s="19">
         <v>1</v>
       </c>
       <c r="G116" s="20">
         <v>0</v>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="33"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="29"/>
       <c r="F117" s="19">
         <v>1</v>
       </c>
       <c r="G117" s="20">
         <v>0</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="36"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="32"/>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
-      <c r="H118" s="39"/>
+      <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="33"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="29"/>
       <c r="F119" s="19">
         <v>1</v>
       </c>
       <c r="G119" s="20">
         <v>0</v>
       </c>
-      <c r="H119" s="39"/>
+      <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D120" s="39"/>
-      <c r="E120" s="33"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="29"/>
       <c r="F120" s="19">
         <v>1</v>
       </c>
       <c r="G120" s="20">
         <v>0</v>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="11"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="36"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="33"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="29"/>
       <c r="F122" s="19">
         <v>1</v>
       </c>
       <c r="G122" s="20">
         <v>0</v>
       </c>
-      <c r="H122" s="39"/>
+      <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
         <v>289</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D123" s="39"/>
-      <c r="E123" s="33"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="29"/>
       <c r="F123" s="19">
         <v>1</v>
       </c>
       <c r="G123" s="20">
         <v>0</v>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="35"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
         <v>291</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D124" s="39"/>
-      <c r="E124" s="33"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="29"/>
       <c r="F124" s="19">
         <v>1</v>
       </c>
       <c r="G124" s="20">
         <v>0</v>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="35"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="7" t="s">
         <v>292</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="33"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="29"/>
       <c r="F125" s="19">
         <v>1</v>
       </c>
       <c r="G125" s="20">
         <v>0</v>
       </c>
-      <c r="H125" s="39"/>
+      <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
         <v>294</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="33"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="29"/>
       <c r="F126" s="19">
         <v>1</v>
       </c>
       <c r="G126" s="20">
         <v>0</v>
       </c>
-      <c r="H126" s="39"/>
+      <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="7"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="33"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="29"/>
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
-      <c r="H127" s="39"/>
+      <c r="H127" s="35"/>
     </row>
     <row r="128" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="34"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="30"/>
       <c r="F128" s="21"/>
       <c r="G128" s="22"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="33"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="29"/>
       <c r="F129" s="19">
         <v>1</v>
       </c>
       <c r="G129" s="20">
         <v>0</v>
       </c>
-      <c r="H129" s="39"/>
+      <c r="H129" s="35"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="33"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="29"/>
       <c r="F130" s="19">
         <v>1</v>
       </c>
       <c r="G130" s="20">
         <v>0</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="35"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="33"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="29"/>
       <c r="F131" s="19">
         <v>1</v>
       </c>
       <c r="G131" s="20">
         <v>0</v>
       </c>
-      <c r="H131" s="39"/>
+      <c r="H131" s="35"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="33"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="29"/>
       <c r="F132" s="19">
         <v>1</v>
       </c>
       <c r="G132" s="20">
         <v>0</v>
       </c>
-      <c r="H132" s="39"/>
+      <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="33"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="29"/>
       <c r="F133" s="19">
         <v>1</v>
       </c>
       <c r="G133" s="20">
         <v>0</v>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="35"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="33"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="29"/>
       <c r="F134" s="19">
         <v>1</v>
       </c>
       <c r="G134" s="20">
         <v>0</v>
       </c>
-      <c r="H134" s="39"/>
+      <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="33"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="29"/>
       <c r="F135" s="19">
         <v>1</v>
       </c>
       <c r="G135" s="20">
         <v>0</v>
       </c>
-      <c r="H135" s="39"/>
+      <c r="H135" s="35"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D136" s="39"/>
-      <c r="E136" s="33"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="29"/>
       <c r="F136" s="19">
         <v>1</v>
       </c>
       <c r="G136" s="20">
         <v>0</v>
       </c>
-      <c r="H136" s="39"/>
+      <c r="H136" s="35"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D137" s="39"/>
-      <c r="E137" s="33"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="29"/>
       <c r="F137" s="19">
         <v>1</v>
       </c>
       <c r="G137" s="20">
         <v>0</v>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
+      <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D138" s="39"/>
-      <c r="E138" s="33"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="29"/>
       <c r="F138" s="19">
         <v>1</v>
       </c>
       <c r="G138" s="20">
         <v>0</v>
       </c>
-      <c r="H138" s="39"/>
+      <c r="H138" s="35"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D139" s="39"/>
-      <c r="E139" s="33"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="29"/>
       <c r="F139" s="19">
         <v>1</v>
       </c>
       <c r="G139" s="20">
         <v>0</v>
       </c>
-      <c r="H139" s="39"/>
+      <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D140" s="39"/>
-      <c r="E140" s="33"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="29"/>
       <c r="F140" s="19">
         <v>1</v>
       </c>
       <c r="G140" s="20">
         <v>0</v>
       </c>
-      <c r="H140" s="39"/>
+      <c r="H140" s="35"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="33"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="29"/>
       <c r="F141" s="19">
         <v>1</v>
       </c>
       <c r="G141" s="20">
         <v>0</v>
       </c>
-      <c r="H141" s="39"/>
+      <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D142" s="39"/>
-      <c r="E142" s="33"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="29"/>
       <c r="F142" s="19">
         <v>1</v>
       </c>
       <c r="G142" s="20">
         <v>0</v>
       </c>
-      <c r="H142" s="39"/>
+      <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
+      <c r="A143" s="35"/>
       <c r="B143" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D143" s="39"/>
-      <c r="E143" s="33"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="29"/>
       <c r="F143" s="19">
         <v>1</v>
       </c>
       <c r="G143" s="20">
         <v>0</v>
       </c>
-      <c r="H143" s="39"/>
+      <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="33"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="29"/>
       <c r="F144" s="19">
         <v>1</v>
       </c>
       <c r="G144" s="20">
         <v>0</v>
       </c>
-      <c r="H144" s="39"/>
+      <c r="H144" s="35"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="33"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="29"/>
       <c r="F145" s="19">
         <v>1</v>
       </c>
       <c r="G145" s="20">
         <v>0</v>
       </c>
-      <c r="H145" s="39"/>
+      <c r="H145" s="35"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="33"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="29"/>
       <c r="F146" s="19">
         <v>1</v>
       </c>
       <c r="G146" s="20">
         <v>0</v>
       </c>
-      <c r="H146" s="39"/>
+      <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
+      <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="33"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="29"/>
       <c r="F147" s="19">
         <v>1</v>
       </c>
       <c r="G147" s="20">
         <v>0</v>
       </c>
-      <c r="H147" s="39"/>
+      <c r="H147" s="35"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
+      <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="33"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="29"/>
       <c r="F148" s="19">
         <v>1</v>
       </c>
       <c r="G148" s="20">
         <v>0</v>
       </c>
-      <c r="H148" s="39"/>
+      <c r="H148" s="35"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="7"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="33"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="29"/>
       <c r="F149" s="19"/>
       <c r="G149" s="20"/>
-      <c r="H149" s="39"/>
+      <c r="H149" s="35"/>
     </row>
     <row r="150" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="34"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="30"/>
       <c r="F150" s="21"/>
       <c r="G150" s="22"/>
-      <c r="H150" s="39"/>
+      <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
+      <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="33"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="29"/>
       <c r="F151" s="19">
         <v>1</v>
       </c>
       <c r="G151" s="20">
         <v>0</v>
       </c>
-      <c r="H151" s="39"/>
+      <c r="H151" s="35"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
+      <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D152" s="39"/>
-      <c r="E152" s="33"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="29"/>
       <c r="F152" s="19">
         <v>1</v>
       </c>
       <c r="G152" s="20">
         <v>0</v>
       </c>
-      <c r="H152" s="39"/>
+      <c r="H152" s="35"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
+      <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="33"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="29"/>
       <c r="F153" s="19">
         <v>1</v>
       </c>
       <c r="G153" s="20">
         <v>0</v>
       </c>
-      <c r="H153" s="39"/>
+      <c r="H153" s="35"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
+      <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="33"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="29"/>
       <c r="F154" s="19">
         <v>1</v>
       </c>
       <c r="G154" s="20">
         <v>0</v>
       </c>
-      <c r="H154" s="39"/>
+      <c r="H154" s="35"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
+      <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="33"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="29"/>
       <c r="F155" s="19">
         <v>1</v>
       </c>
       <c r="G155" s="20">
         <v>0</v>
       </c>
-      <c r="H155" s="39"/>
+      <c r="H155" s="35"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
+      <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D156" s="39"/>
-      <c r="E156" s="33"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="29"/>
       <c r="F156" s="19">
         <v>1</v>
       </c>
       <c r="G156" s="20">
         <v>0</v>
       </c>
-      <c r="H156" s="39"/>
+      <c r="H156" s="35"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
+      <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D157" s="39"/>
-      <c r="E157" s="33"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="29"/>
       <c r="F157" s="19">
         <v>1</v>
       </c>
       <c r="G157" s="20">
         <v>0</v>
       </c>
-      <c r="H157" s="39"/>
+      <c r="H157" s="35"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
+      <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D158" s="39"/>
-      <c r="E158" s="33"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="29"/>
       <c r="F158" s="19">
         <v>1</v>
       </c>
       <c r="G158" s="20">
         <v>0</v>
       </c>
-      <c r="H158" s="39"/>
+      <c r="H158" s="35"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
+      <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="33"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="29"/>
       <c r="F159" s="19">
         <v>1</v>
       </c>
       <c r="G159" s="20">
         <v>0</v>
       </c>
-      <c r="H159" s="39"/>
+      <c r="H159" s="35"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
+      <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D160" s="39"/>
-      <c r="E160" s="33"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="29"/>
       <c r="F160" s="19">
         <v>1</v>
       </c>
       <c r="G160" s="20">
         <v>0</v>
       </c>
-      <c r="H160" s="39"/>
+      <c r="H160" s="35"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
+      <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="33"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="29"/>
       <c r="F161" s="19">
         <v>1</v>
       </c>
       <c r="G161" s="20">
         <v>0</v>
       </c>
-      <c r="H161" s="39"/>
+      <c r="H161" s="35"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
+      <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D162" s="39"/>
-      <c r="E162" s="33"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="29"/>
       <c r="F162" s="19">
         <v>1</v>
       </c>
       <c r="G162" s="20">
         <v>0</v>
       </c>
-      <c r="H162" s="39"/>
+      <c r="H162" s="35"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
+      <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="33"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="29"/>
       <c r="F163" s="19">
         <v>1</v>
       </c>
       <c r="G163" s="20">
         <v>0</v>
       </c>
-      <c r="H163" s="39"/>
+      <c r="H163" s="35"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
+      <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="33"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="29"/>
       <c r="F164" s="19">
         <v>1</v>
       </c>
       <c r="G164" s="20">
         <v>0</v>
       </c>
-      <c r="H164" s="39"/>
+      <c r="H164" s="35"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
+      <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="33"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="29"/>
       <c r="F165" s="19">
         <v>1</v>
       </c>
       <c r="G165" s="20">
         <v>0</v>
       </c>
-      <c r="H165" s="39"/>
+      <c r="H165" s="35"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
+      <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="33"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="29"/>
       <c r="F166" s="19">
         <v>1</v>
       </c>
       <c r="G166" s="20">
         <v>0</v>
       </c>
-      <c r="H166" s="39"/>
+      <c r="H166" s="35"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
+      <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="33"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="29"/>
       <c r="F167" s="19">
         <v>1</v>
       </c>
       <c r="G167" s="20">
         <v>0</v>
       </c>
-      <c r="H167" s="39"/>
+      <c r="H167" s="35"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
+      <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="33"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="29"/>
       <c r="F168" s="19">
         <v>1</v>
       </c>
       <c r="G168" s="20">
         <v>0</v>
       </c>
-      <c r="H168" s="39"/>
+      <c r="H168" s="35"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
+      <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D169" s="39"/>
-      <c r="E169" s="33"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="29"/>
       <c r="F169" s="19">
         <v>1</v>
       </c>
       <c r="G169" s="20">
         <v>0</v>
       </c>
-      <c r="H169" s="39"/>
+      <c r="H169" s="35"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
+      <c r="A170" s="35"/>
       <c r="B170" s="7"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="33"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="29"/>
       <c r="F170" s="19"/>
       <c r="G170" s="20"/>
-      <c r="H170" s="39"/>
+      <c r="H170" s="35"/>
     </row>
     <row r="171" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
+      <c r="A171" s="35"/>
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="34"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="30"/>
       <c r="F171" s="21"/>
       <c r="G171" s="22"/>
-      <c r="H171" s="39"/>
+      <c r="H171" s="35"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
+      <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
         <v>309</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="39"/>
-      <c r="E172" s="33"/>
+      <c r="D172" s="35"/>
+      <c r="E172" s="29"/>
       <c r="F172" s="19">
         <v>1</v>
       </c>
       <c r="G172" s="20">
         <v>0</v>
       </c>
-      <c r="H172" s="39"/>
+      <c r="H172" s="35"/>
     </row>
     <row r="173" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
+      <c r="A173" s="35"/>
       <c r="B173" s="11"/>
       <c r="C173" s="12"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="36"/>
+      <c r="D173" s="35"/>
+      <c r="E173" s="32"/>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
-      <c r="H173" s="39"/>
+      <c r="H173" s="35"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
+      <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D174" s="39"/>
-      <c r="E174" s="33"/>
+      <c r="D174" s="35"/>
+      <c r="E174" s="29"/>
       <c r="F174" s="19">
         <v>1</v>
       </c>
       <c r="G174" s="20">
         <v>0</v>
       </c>
-      <c r="H174" s="39"/>
+      <c r="H174" s="35"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
+      <c r="A175" s="35"/>
       <c r="B175" s="7"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="33"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="29"/>
       <c r="F175" s="19"/>
       <c r="G175" s="20"/>
-      <c r="H175" s="39"/>
+      <c r="H175" s="35"/>
     </row>
     <row r="176" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
+      <c r="A176" s="35"/>
       <c r="B176" s="9"/>
       <c r="C176" s="10"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="34"/>
+      <c r="D176" s="35"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="21"/>
       <c r="G176" s="22"/>
-      <c r="H176" s="39"/>
+      <c r="H176" s="35"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
+      <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D177" s="39"/>
-      <c r="E177" s="33"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="29"/>
       <c r="F177" s="19">
         <v>1</v>
       </c>
       <c r="G177" s="20">
         <v>0</v>
       </c>
-      <c r="H177" s="39"/>
+      <c r="H177" s="35"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
+      <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D178" s="39"/>
-      <c r="E178" s="33"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="29"/>
       <c r="F178" s="19">
         <v>1</v>
       </c>
       <c r="G178" s="20">
         <v>0</v>
       </c>
-      <c r="H178" s="39"/>
+      <c r="H178" s="35"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
+      <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
         <v>315</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D179" s="39"/>
-      <c r="E179" s="33"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="29"/>
       <c r="F179" s="19">
         <v>1</v>
       </c>
       <c r="G179" s="20">
         <v>0</v>
       </c>
-      <c r="H179" s="39"/>
+      <c r="H179" s="35"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
+      <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D180" s="39"/>
-      <c r="E180" s="33"/>
+      <c r="D180" s="35"/>
+      <c r="E180" s="29"/>
       <c r="F180" s="19">
         <v>1</v>
       </c>
       <c r="G180" s="20">
         <v>0</v>
       </c>
-      <c r="H180" s="39"/>
+      <c r="H180" s="35"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
+      <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D181" s="39"/>
-      <c r="E181" s="33"/>
+      <c r="D181" s="35"/>
+      <c r="E181" s="29"/>
       <c r="F181" s="19">
         <v>1</v>
       </c>
       <c r="G181" s="20">
         <v>0</v>
       </c>
-      <c r="H181" s="39"/>
+      <c r="H181" s="35"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="39"/>
+      <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D182" s="39"/>
-      <c r="E182" s="33"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="29"/>
       <c r="F182" s="19">
         <v>1</v>
       </c>
       <c r="G182" s="20">
         <v>0</v>
       </c>
-      <c r="H182" s="39"/>
+      <c r="H182" s="35"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
+      <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D183" s="39"/>
-      <c r="E183" s="33"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="29"/>
       <c r="F183" s="19">
         <v>1</v>
       </c>
       <c r="G183" s="20">
         <v>0</v>
       </c>
-      <c r="H183" s="39"/>
+      <c r="H183" s="35"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
+      <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D184" s="39"/>
-      <c r="E184" s="33"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="29"/>
       <c r="F184" s="19">
         <v>1</v>
       </c>
       <c r="G184" s="20">
         <v>0</v>
       </c>
-      <c r="H184" s="39"/>
+      <c r="H184" s="35"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
+      <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D185" s="39"/>
-      <c r="E185" s="33"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="29"/>
       <c r="F185" s="19">
         <v>1</v>
       </c>
       <c r="G185" s="20">
         <v>0</v>
       </c>
-      <c r="H185" s="39"/>
+      <c r="H185" s="35"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
+      <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D186" s="39"/>
-      <c r="E186" s="33"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="29"/>
       <c r="F186" s="19">
         <v>1</v>
       </c>
       <c r="G186" s="20">
         <v>0</v>
       </c>
-      <c r="H186" s="39"/>
+      <c r="H186" s="35"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
+      <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D187" s="39"/>
-      <c r="E187" s="33"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="29"/>
       <c r="F187" s="19">
         <v>1</v>
       </c>
       <c r="G187" s="20">
         <v>0</v>
       </c>
-      <c r="H187" s="39"/>
+      <c r="H187" s="35"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
+      <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D188" s="39"/>
-      <c r="E188" s="33"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="29"/>
       <c r="F188" s="19">
         <v>1</v>
       </c>
       <c r="G188" s="20">
         <v>0</v>
       </c>
-      <c r="H188" s="39"/>
+      <c r="H188" s="35"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
+      <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D189" s="39"/>
-      <c r="E189" s="33"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="29"/>
       <c r="F189" s="19">
         <v>1</v>
       </c>
       <c r="G189" s="20">
         <v>0</v>
       </c>
-      <c r="H189" s="39"/>
+      <c r="H189" s="35"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
+      <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D190" s="39"/>
-      <c r="E190" s="33"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="29"/>
       <c r="F190" s="19">
         <v>1</v>
       </c>
       <c r="G190" s="20">
         <v>0</v>
       </c>
-      <c r="H190" s="39"/>
+      <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
+      <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D191" s="39"/>
-      <c r="E191" s="33"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="29"/>
       <c r="F191" s="19">
         <v>1</v>
       </c>
       <c r="G191" s="20">
         <v>0</v>
       </c>
-      <c r="H191" s="39"/>
+      <c r="H191" s="35"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D192" s="39"/>
-      <c r="E192" s="33"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="29"/>
       <c r="F192" s="19">
         <v>1</v>
       </c>
       <c r="G192" s="20">
         <v>0</v>
       </c>
-      <c r="H192" s="39"/>
+      <c r="H192" s="35"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="39"/>
+      <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D193" s="39"/>
-      <c r="E193" s="33"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="29"/>
       <c r="F193" s="19">
         <v>1</v>
       </c>
       <c r="G193" s="20">
         <v>0</v>
       </c>
-      <c r="H193" s="39"/>
+      <c r="H193" s="35"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
+      <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D194" s="39"/>
-      <c r="E194" s="33"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="29"/>
       <c r="F194" s="19">
         <v>1</v>
       </c>
       <c r="G194" s="20">
         <v>0</v>
       </c>
-      <c r="H194" s="39"/>
+      <c r="H194" s="35"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
+      <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D195" s="39"/>
-      <c r="E195" s="33"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="29"/>
       <c r="F195" s="19">
         <v>1</v>
       </c>
       <c r="G195" s="20">
         <v>0</v>
       </c>
-      <c r="H195" s="39"/>
+      <c r="H195" s="35"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
+      <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D196" s="39"/>
-      <c r="E196" s="33"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="29"/>
       <c r="F196" s="19">
         <v>1</v>
       </c>
       <c r="G196" s="20">
         <v>0</v>
       </c>
-      <c r="H196" s="39"/>
+      <c r="H196" s="35"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D197" s="39"/>
-      <c r="E197" s="33"/>
+      <c r="D197" s="35"/>
+      <c r="E197" s="29"/>
       <c r="F197" s="19">
         <v>1</v>
       </c>
       <c r="G197" s="20">
         <v>0</v>
       </c>
-      <c r="H197" s="39"/>
+      <c r="H197" s="35"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="39"/>
+      <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D198" s="39"/>
-      <c r="E198" s="33"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="29"/>
       <c r="F198" s="19">
         <v>1</v>
       </c>
       <c r="G198" s="20">
         <v>0</v>
       </c>
-      <c r="H198" s="39"/>
+      <c r="H198" s="35"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
+      <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D199" s="39"/>
-      <c r="E199" s="33"/>
+      <c r="D199" s="35"/>
+      <c r="E199" s="29"/>
       <c r="F199" s="19">
         <v>1</v>
       </c>
       <c r="G199" s="20">
         <v>0</v>
       </c>
-      <c r="H199" s="39"/>
+      <c r="H199" s="35"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
+      <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D200" s="39"/>
-      <c r="E200" s="33"/>
+      <c r="D200" s="35"/>
+      <c r="E200" s="29"/>
       <c r="F200" s="19">
         <v>1</v>
       </c>
       <c r="G200" s="20">
         <v>0</v>
       </c>
-      <c r="H200" s="39"/>
+      <c r="H200" s="35"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
+      <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D201" s="39"/>
-      <c r="E201" s="33"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="29"/>
       <c r="F201" s="19">
         <v>1</v>
       </c>
       <c r="G201" s="20">
         <v>0</v>
       </c>
-      <c r="H201" s="39"/>
+      <c r="H201" s="35"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
+      <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D202" s="39"/>
-      <c r="E202" s="33"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="29"/>
       <c r="F202" s="19">
         <v>1</v>
       </c>
       <c r="G202" s="20">
         <v>0</v>
       </c>
-      <c r="H202" s="39"/>
+      <c r="H202" s="35"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="39"/>
+      <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D203" s="39"/>
-      <c r="E203" s="33"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="29"/>
       <c r="F203" s="19">
         <v>1</v>
       </c>
       <c r="G203" s="20">
         <v>0</v>
       </c>
-      <c r="H203" s="39"/>
+      <c r="H203" s="35"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
+      <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D204" s="39"/>
-      <c r="E204" s="33"/>
+      <c r="D204" s="35"/>
+      <c r="E204" s="29"/>
       <c r="F204" s="19">
         <v>1</v>
       </c>
       <c r="G204" s="20">
         <v>0</v>
       </c>
-      <c r="H204" s="39"/>
+      <c r="H204" s="35"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
+      <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="33"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="29"/>
       <c r="F205" s="19">
         <v>1</v>
       </c>
       <c r="G205" s="20">
         <v>0</v>
       </c>
-      <c r="H205" s="39"/>
+      <c r="H205" s="35"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
+      <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D206" s="39"/>
-      <c r="E206" s="33"/>
+      <c r="D206" s="35"/>
+      <c r="E206" s="29"/>
       <c r="F206" s="19">
         <v>1</v>
       </c>
       <c r="G206" s="20">
         <v>0</v>
       </c>
-      <c r="H206" s="39"/>
+      <c r="H206" s="35"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="39"/>
+      <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D207" s="39"/>
-      <c r="E207" s="33"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="29"/>
       <c r="F207" s="19">
         <v>1</v>
       </c>
       <c r="G207" s="20">
         <v>0</v>
       </c>
-      <c r="H207" s="39"/>
+      <c r="H207" s="35"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
+      <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D208" s="39"/>
-      <c r="E208" s="33"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="29"/>
       <c r="F208" s="19">
         <v>1</v>
       </c>
       <c r="G208" s="20">
         <v>0</v>
       </c>
-      <c r="H208" s="39"/>
+      <c r="H208" s="35"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
+      <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D209" s="39"/>
-      <c r="E209" s="33"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="29"/>
       <c r="F209" s="19">
         <v>1</v>
       </c>
       <c r="G209" s="20">
         <v>0</v>
       </c>
-      <c r="H209" s="39"/>
+      <c r="H209" s="35"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
+      <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="39"/>
-      <c r="E210" s="33"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="29"/>
       <c r="F210" s="19">
         <v>1</v>
       </c>
       <c r="G210" s="20">
         <v>0</v>
       </c>
-      <c r="H210" s="39"/>
+      <c r="H210" s="35"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
+      <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D211" s="39"/>
-      <c r="E211" s="33"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="29"/>
       <c r="F211" s="19">
         <v>1</v>
       </c>
       <c r="G211" s="20">
         <v>0</v>
       </c>
-      <c r="H211" s="39"/>
+      <c r="H211" s="35"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="39"/>
+      <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="33"/>
+      <c r="D212" s="35"/>
+      <c r="E212" s="29"/>
       <c r="F212" s="19">
         <v>1</v>
       </c>
       <c r="G212" s="20">
         <v>0</v>
       </c>
-      <c r="H212" s="39"/>
+      <c r="H212" s="35"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="39"/>
+      <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D213" s="39"/>
-      <c r="E213" s="33"/>
+      <c r="D213" s="35"/>
+      <c r="E213" s="29"/>
       <c r="F213" s="19">
         <v>1</v>
       </c>
       <c r="G213" s="20">
         <v>0</v>
       </c>
-      <c r="H213" s="39"/>
+      <c r="H213" s="35"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
+      <c r="A214" s="35"/>
       <c r="B214" s="7"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="33"/>
+      <c r="D214" s="35"/>
+      <c r="E214" s="29"/>
       <c r="F214" s="19"/>
       <c r="G214" s="20"/>
-      <c r="H214" s="39"/>
+      <c r="H214" s="35"/>
     </row>
     <row r="215" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
+      <c r="A215" s="35"/>
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="34"/>
+      <c r="D215" s="35"/>
+      <c r="E215" s="30"/>
       <c r="F215" s="21"/>
       <c r="G215" s="22"/>
-      <c r="H215" s="39"/>
+      <c r="H215" s="35"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
+      <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D216" s="39"/>
-      <c r="E216" s="33"/>
+      <c r="D216" s="35"/>
+      <c r="E216" s="29"/>
       <c r="F216" s="19">
         <v>1</v>
       </c>
       <c r="G216" s="20">
         <v>0</v>
       </c>
-      <c r="H216" s="39"/>
+      <c r="H216" s="35"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="39"/>
+      <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
         <v>325</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D217" s="39"/>
-      <c r="E217" s="33"/>
+      <c r="D217" s="35"/>
+      <c r="E217" s="29"/>
       <c r="F217" s="19">
         <v>1</v>
       </c>
       <c r="G217" s="20">
         <v>0</v>
       </c>
-      <c r="H217" s="39"/>
+      <c r="H217" s="35"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="39"/>
+      <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
         <v>326</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D218" s="39"/>
-      <c r="E218" s="33"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="29"/>
       <c r="F218" s="19">
         <v>1</v>
       </c>
       <c r="G218" s="20">
         <v>0</v>
       </c>
-      <c r="H218" s="39"/>
+      <c r="H218" s="35"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
+      <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
         <v>319</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D219" s="39"/>
-      <c r="E219" s="33"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="29"/>
       <c r="F219" s="19">
         <v>1</v>
       </c>
       <c r="G219" s="20">
         <v>0</v>
       </c>
-      <c r="H219" s="39"/>
+      <c r="H219" s="35"/>
     </row>
     <row r="220" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="41"/>
+      <c r="A220" s="37"/>
       <c r="B220" s="13" t="s">
         <v>369</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D220" s="41"/>
-      <c r="E220" s="35"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="31"/>
       <c r="F220" s="19">
         <v>1</v>
       </c>
       <c r="G220" s="20">
         <v>0</v>
       </c>
-      <c r="H220" s="41"/>
+      <c r="H220" s="37"/>
     </row>
     <row r="221" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="41"/>
+      <c r="A221" s="37"/>
       <c r="B221" s="13" t="s">
         <v>370</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D221" s="41"/>
-      <c r="E221" s="35"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="31"/>
       <c r="F221" s="19">
         <v>1</v>
       </c>
       <c r="G221" s="20">
         <v>0</v>
       </c>
-      <c r="H221" s="41"/>
+      <c r="H221" s="37"/>
     </row>
     <row r="222" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="41"/>
+      <c r="A222" s="37"/>
       <c r="B222" s="13" t="s">
         <v>371</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D222" s="41"/>
-      <c r="E222" s="35"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="31"/>
       <c r="F222" s="19">
         <v>1</v>
       </c>
       <c r="G222" s="20">
         <v>0</v>
       </c>
-      <c r="H222" s="41"/>
+      <c r="H222" s="37"/>
     </row>
     <row r="223" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="41"/>
+      <c r="A223" s="37"/>
       <c r="B223" s="13" t="s">
         <v>372</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D223" s="41"/>
-      <c r="E223" s="35"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="31"/>
       <c r="F223" s="19">
         <v>1</v>
       </c>
       <c r="G223" s="20">
         <v>0</v>
       </c>
-      <c r="H223" s="41"/>
+      <c r="H223" s="37"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
+      <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
         <v>353</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D224" s="39"/>
-      <c r="E224" s="33"/>
+      <c r="D224" s="35"/>
+      <c r="E224" s="29"/>
       <c r="F224" s="19">
         <v>1</v>
       </c>
       <c r="G224" s="20">
         <v>0</v>
       </c>
-      <c r="H224" s="39"/>
+      <c r="H224" s="35"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
+      <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
         <v>354</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D225" s="39"/>
-      <c r="E225" s="33"/>
+      <c r="D225" s="35"/>
+      <c r="E225" s="29"/>
       <c r="F225" s="19">
         <v>1</v>
       </c>
       <c r="G225" s="20">
         <v>0</v>
       </c>
-      <c r="H225" s="39"/>
+      <c r="H225" s="35"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
+      <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
         <v>355</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D226" s="39"/>
-      <c r="E226" s="33"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="29"/>
       <c r="F226" s="19">
         <v>1</v>
       </c>
       <c r="G226" s="20">
         <v>0</v>
       </c>
-      <c r="H226" s="39"/>
+      <c r="H226" s="35"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="39"/>
+      <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
         <v>349</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D227" s="39"/>
-      <c r="E227" s="33"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="29"/>
       <c r="F227" s="19">
         <v>1</v>
       </c>
       <c r="G227" s="20">
         <v>0</v>
       </c>
-      <c r="H227" s="39"/>
+      <c r="H227" s="35"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
+      <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
         <v>348</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D228" s="39"/>
-      <c r="E228" s="33"/>
+      <c r="D228" s="35"/>
+      <c r="E228" s="29"/>
       <c r="F228" s="19">
         <v>1</v>
       </c>
       <c r="G228" s="20">
         <v>0</v>
       </c>
-      <c r="H228" s="39"/>
+      <c r="H228" s="35"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
+      <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
         <v>347</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D229" s="39"/>
-      <c r="E229" s="33"/>
+      <c r="D229" s="35"/>
+      <c r="E229" s="29"/>
       <c r="F229" s="19">
         <v>1</v>
       </c>
       <c r="G229" s="20">
         <v>0</v>
       </c>
-      <c r="H229" s="39"/>
+      <c r="H229" s="35"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
+      <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
         <v>337</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D230" s="39"/>
-      <c r="E230" s="33"/>
+      <c r="D230" s="35"/>
+      <c r="E230" s="29"/>
       <c r="F230" s="19">
         <v>1</v>
       </c>
       <c r="G230" s="20">
         <v>0</v>
       </c>
-      <c r="H230" s="39"/>
+      <c r="H230" s="35"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
+      <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
         <v>335</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D231" s="39"/>
-      <c r="E231" s="33"/>
+      <c r="D231" s="35"/>
+      <c r="E231" s="29"/>
       <c r="F231" s="19">
         <v>1</v>
       </c>
       <c r="G231" s="20">
         <v>0</v>
       </c>
-      <c r="H231" s="39"/>
+      <c r="H231" s="35"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
+      <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D232" s="39"/>
-      <c r="E232" s="33"/>
+      <c r="D232" s="35"/>
+      <c r="E232" s="29"/>
       <c r="F232" s="19">
         <v>1</v>
       </c>
       <c r="G232" s="20">
         <v>0</v>
       </c>
-      <c r="H232" s="39"/>
+      <c r="H232" s="35"/>
     </row>
     <row r="233" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="39"/>
+      <c r="A233" s="35"/>
       <c r="B233" s="8"/>
       <c r="C233" s="6"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="37"/>
+      <c r="D233" s="35"/>
+      <c r="E233" s="33"/>
       <c r="F233" s="25"/>
       <c r="G233" s="26"/>
-      <c r="H233" s="39"/>
+      <c r="H233" s="35"/>
     </row>
     <row r="234" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
-      <c r="B234" s="42"/>
-      <c r="C234" s="43"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="44"/>
-      <c r="F234" s="45"/>
-      <c r="G234" s="45"/>
-      <c r="H234" s="39"/>
+      <c r="A234" s="35"/>
+      <c r="B234" s="38"/>
+      <c r="C234" s="39"/>
+      <c r="D234" s="35"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="41"/>
+      <c r="G234" s="41"/>
+      <c r="H234" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1952,10 +1952,10 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3282,12 +3282,14 @@
         <v>242</v>
       </c>
       <c r="D78" s="35"/>
-      <c r="E78" s="29"/>
+      <c r="E78" s="29">
+        <v>44188</v>
+      </c>
       <c r="F78" s="19">
         <v>1</v>
       </c>
       <c r="G78" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="35"/>
     </row>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1952,10 +1952,10 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2022,12 +2022,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="35"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="28">
+        <v>44189</v>
+      </c>
       <c r="F4" s="17">
         <v>1</v>
       </c>
       <c r="G4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="35"/>
     </row>
@@ -2198,7 +2200,9 @@
         <v>308</v>
       </c>
       <c r="D16" s="35"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="29">
+        <v>44189</v>
+      </c>
       <c r="F16" s="19">
         <v>1</v>
       </c>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="396">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1190,6 +1190,18 @@
   </si>
   <si>
     <t>REVISION</t>
+  </si>
+  <si>
+    <t>instruction.device.fingerprintAttendance.ALBox.FP800.getDataAttendance</t>
+  </si>
+  <si>
+    <t>Menginstruksikan kepada Alat Sidik Jari Kehadiran ALBox FP800 untuk memberikan semua data absensi</t>
+  </si>
+  <si>
+    <t>Menginstruksikan kepada Alat Sidik Jari Kehadiran Solution X601 untuk memberikan semua data absensi</t>
+  </si>
+  <si>
+    <t>instruction.device.fingerprintAttendance.Solution.x601.getDataAttendance</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,6 +1254,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1490,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1644,6 +1669,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1949,13 +1980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2133,9 @@
         <v>2</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="29">
+        <v>44127</v>
+      </c>
       <c r="F9" s="19">
         <v>1</v>
       </c>
@@ -2141,7 +2174,7 @@
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="29">
-        <v>44187</v>
+        <v>44201</v>
       </c>
       <c r="F12" s="19">
         <v>1</v>
@@ -2161,7 +2194,7 @@
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="29">
-        <v>44187</v>
+        <v>44201</v>
       </c>
       <c r="F13" s="19">
         <v>1</v>
@@ -2194,14 +2227,14 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="7" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="29">
-        <v>44189</v>
+        <v>44209</v>
       </c>
       <c r="F16" s="19">
         <v>1</v>
@@ -2214,13 +2247,15 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="D17" s="35"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="29">
+        <v>44208</v>
+      </c>
       <c r="F17" s="19">
         <v>1</v>
       </c>
@@ -2231,373 +2266,379 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="35"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="29">
+        <v>44200</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="13" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="29">
+        <v>44204</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="13" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="29">
+        <v>44204</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="13" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="29">
+        <v>44204</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="13" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="29">
+        <v>44204</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="29"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="29">
+        <v>44207</v>
+      </c>
       <c r="F27" s="19">
         <v>1</v>
       </c>
       <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="29">
+        <v>44207</v>
+      </c>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D29" s="35"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29">
+        <v>44207</v>
+      </c>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="7" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D30" s="35"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29">
+        <v>44207</v>
+      </c>
       <c r="F30" s="19">
         <v>1</v>
       </c>
       <c r="G30" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D31" s="35"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="29">
+        <v>44207</v>
+      </c>
       <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D32" s="35"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="29">
+        <v>44207</v>
+      </c>
       <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="D33" s="35"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="D34" s="35"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="E34" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
       <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="D35" s="35"/>
-      <c r="E35" s="29"/>
+      <c r="E35" s="29">
+        <v>44207</v>
+      </c>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="7" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="D36" s="35"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29">
+        <v>44207</v>
+      </c>
       <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>299</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="35"/>
       <c r="E37" s="29"/>
-      <c r="F37" s="19">
-        <v>1</v>
-      </c>
-      <c r="G37" s="20">
-        <v>0</v>
-      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="19">
-        <v>1</v>
-      </c>
-      <c r="G38" s="20">
-        <v>0</v>
-      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="29"/>
@@ -2609,23 +2650,31 @@
       </c>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="D40" s="35"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="19">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
       <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="29"/>
@@ -2640,10 +2689,10 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="29"/>
@@ -2658,10 +2707,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="29"/>
@@ -2673,31 +2722,23 @@
       </c>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="35"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="19">
-        <v>1</v>
-      </c>
-      <c r="G44" s="20">
-        <v>0</v>
-      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="29"/>
@@ -2712,10 +2753,10 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="29"/>
@@ -2730,10 +2771,10 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="7" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="29"/>
@@ -2748,10 +2789,10 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="29"/>
@@ -2766,10 +2807,10 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="29"/>
@@ -2784,10 +2825,10 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="29"/>
@@ -2802,10 +2843,10 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="29"/>
@@ -2820,10 +2861,10 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
@@ -2838,10 +2879,10 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
@@ -2856,10 +2897,10 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="29"/>
@@ -2874,10 +2915,10 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>384</v>
+        <v>101</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="29"/>
@@ -2892,10 +2933,10 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>114</v>
+        <v>381</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="29"/>
@@ -2910,10 +2951,10 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
@@ -2928,10 +2969,10 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="29"/>
@@ -2946,10 +2987,10 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="29"/>
@@ -2964,10 +3005,10 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
@@ -2982,10 +3023,10 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="29"/>
@@ -3000,10 +3041,10 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3018,10 +3059,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3036,10 +3077,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3054,10 +3095,10 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -3072,10 +3113,10 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3090,10 +3131,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="29"/>
@@ -3108,10 +3149,10 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3126,10 +3167,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3144,10 +3185,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3162,10 +3203,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3180,10 +3221,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3198,10 +3239,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3216,10 +3257,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3234,10 +3275,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3252,10 +3293,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3267,43 +3308,49 @@
       </c>
       <c r="H76" s="35"/>
     </row>
-    <row r="77" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
+      <c r="B77" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="D77" s="35"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="19">
+        <v>1</v>
+      </c>
+      <c r="G77" s="20">
+        <v>0</v>
+      </c>
       <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D78" s="35"/>
-      <c r="E78" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E78" s="29"/>
       <c r="F78" s="19">
         <v>1</v>
       </c>
       <c r="G78" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3318,10 +3365,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3333,59 +3380,61 @@
       </c>
       <c r="H80" s="35"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
-      <c r="B81" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="35"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="19">
-        <v>1</v>
-      </c>
-      <c r="G81" s="20">
-        <v>0</v>
-      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
       <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="35"/>
-      <c r="E82" s="29"/>
+      <c r="E82" s="29">
+        <v>44188</v>
+      </c>
       <c r="F82" s="19">
         <v>1</v>
       </c>
       <c r="G82" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="35"/>
     </row>
-    <row r="83" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
+      <c r="B83" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="D83" s="35"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="19">
+        <v>1</v>
+      </c>
+      <c r="G83" s="20">
+        <v>0</v>
+      </c>
       <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3400,10 +3449,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3418,10 +3467,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3433,31 +3482,23 @@
       </c>
       <c r="H86" s="35"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
-      <c r="B87" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="35"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="19">
-        <v>1</v>
-      </c>
-      <c r="G87" s="20">
-        <v>0</v>
-      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
       <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3469,23 +3510,31 @@
       </c>
       <c r="H88" s="35"/>
     </row>
-    <row r="89" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
+      <c r="B89" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D89" s="35"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="19">
+        <v>1</v>
+      </c>
+      <c r="G89" s="20">
+        <v>0</v>
+      </c>
       <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="29"/>
@@ -3497,23 +3546,31 @@
       </c>
       <c r="H90" s="35"/>
     </row>
-    <row r="91" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
+      <c r="B91" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="D91" s="35"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="24"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="19">
+        <v>1</v>
+      </c>
+      <c r="G91" s="20">
+        <v>0</v>
+      </c>
       <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3525,69 +3582,69 @@
       </c>
       <c r="H92" s="35"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
-      <c r="B93" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="35"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="19">
-        <v>1</v>
-      </c>
-      <c r="G93" s="20">
-        <v>0</v>
-      </c>
+      <c r="E93" s="32"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="35"/>
     </row>
-    <row r="94" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
+      <c r="B94" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="D94" s="35"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="19">
+        <v>1</v>
+      </c>
+      <c r="G94" s="20">
+        <v>0</v>
+      </c>
       <c r="H94" s="35"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
-      <c r="B95" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="35"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="19">
-        <v>1</v>
-      </c>
-      <c r="G95" s="20">
-        <v>0</v>
-      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="35"/>
     </row>
-    <row r="96" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+      <c r="B96" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D96" s="35"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="19">
+        <v>1</v>
+      </c>
+      <c r="G96" s="20">
+        <v>0</v>
+      </c>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3599,31 +3656,23 @@
       </c>
       <c r="H97" s="35"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
-      <c r="B98" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="35"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="19">
-        <v>1</v>
-      </c>
-      <c r="G98" s="20">
-        <v>0</v>
-      </c>
+      <c r="E98" s="32"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="29"/>
@@ -3635,31 +3684,23 @@
       </c>
       <c r="H99" s="35"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
-      <c r="B100" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="35"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="19">
-        <v>1</v>
-      </c>
-      <c r="G100" s="20">
-        <v>0</v>
-      </c>
+      <c r="E100" s="32"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="24"/>
       <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="29"/>
@@ -3674,10 +3715,10 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
       <c r="B102" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="29"/>
@@ -3692,10 +3733,10 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="29"/>
@@ -3710,10 +3751,10 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
       <c r="B104" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="29"/>
@@ -3728,10 +3769,10 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29"/>
@@ -3746,10 +3787,10 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29"/>
@@ -3764,10 +3805,10 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="29"/>
@@ -3782,10 +3823,10 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29"/>
@@ -3800,10 +3841,10 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="29"/>
@@ -3818,10 +3859,10 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29"/>
@@ -3836,10 +3877,10 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29"/>
@@ -3854,10 +3895,10 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29"/>
@@ -3872,10 +3913,10 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29"/>
@@ -3890,10 +3931,10 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="29"/>
@@ -3908,10 +3949,10 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29"/>
@@ -3926,10 +3967,10 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29"/>
@@ -3944,10 +3985,10 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29"/>
@@ -3959,23 +4000,31 @@
       </c>
       <c r="H117" s="35"/>
     </row>
-    <row r="118" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
+      <c r="B118" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D118" s="35"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="24"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="19">
+        <v>1</v>
+      </c>
+      <c r="G118" s="20">
+        <v>0</v>
+      </c>
       <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29"/>
@@ -3990,10 +4039,10 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29"/>
@@ -4005,41 +4054,41 @@
       </c>
       <c r="H120" s="35"/>
     </row>
-    <row r="121" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
+      <c r="B121" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D121" s="35"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="24"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="19">
+        <v>1</v>
+      </c>
+      <c r="G121" s="20">
+        <v>0</v>
+      </c>
       <c r="H121" s="35"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
-      <c r="B122" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="35"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="19">
-        <v>1</v>
-      </c>
-      <c r="G122" s="20">
-        <v>0</v>
-      </c>
+      <c r="E122" s="32"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="24"/>
       <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29"/>
@@ -4054,10 +4103,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29"/>
@@ -4069,31 +4118,23 @@
       </c>
       <c r="H124" s="35"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>293</v>
-      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="35"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="19">
-        <v>1</v>
-      </c>
-      <c r="G125" s="20">
-        <v>0</v>
-      </c>
+      <c r="E125" s="32"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="24"/>
       <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29"/>
@@ -4107,31 +4148,47 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="4"/>
+      <c r="B127" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="20"/>
+      <c r="F127" s="19">
+        <v>1</v>
+      </c>
+      <c r="G127" s="20">
+        <v>0</v>
+      </c>
       <c r="H127" s="35"/>
     </row>
-    <row r="128" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="10"/>
+      <c r="B128" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D128" s="35"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="22"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="19">
+        <v>1</v>
+      </c>
+      <c r="G128" s="20">
+        <v>0</v>
+      </c>
       <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29"/>
@@ -4146,10 +4203,10 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29"/>
@@ -4163,65 +4220,51 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="4"/>
       <c r="D131" s="35"/>
       <c r="E131" s="29"/>
-      <c r="F131" s="19">
-        <v>1</v>
-      </c>
-      <c r="G131" s="20">
-        <v>0</v>
-      </c>
+      <c r="F131" s="19"/>
+      <c r="G131" s="20"/>
       <c r="H131" s="35"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
-      <c r="B132" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
       <c r="D132" s="35"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="19">
-        <v>1</v>
-      </c>
-      <c r="G132" s="20">
-        <v>0</v>
-      </c>
+      <c r="E132" s="30"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="22"/>
       <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D133" s="35"/>
-      <c r="E133" s="29"/>
+      <c r="E133" s="29">
+        <v>44207</v>
+      </c>
       <c r="F133" s="19">
         <v>1</v>
       </c>
       <c r="G133" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="35"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29"/>
@@ -4236,10 +4279,10 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29"/>
@@ -4254,10 +4297,10 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="29"/>
@@ -4272,10 +4315,10 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="29"/>
@@ -4290,10 +4333,10 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29"/>
@@ -4308,10 +4351,10 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="29"/>
@@ -4326,10 +4369,10 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29"/>
@@ -4344,10 +4387,10 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29"/>
@@ -4362,10 +4405,10 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29"/>
@@ -4380,10 +4423,10 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
       <c r="B143" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="29"/>
@@ -4398,10 +4441,10 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29"/>
@@ -4416,10 +4459,10 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29"/>
@@ -4434,10 +4477,10 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="29"/>
@@ -4452,10 +4495,10 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29"/>
@@ -4470,10 +4513,10 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29"/>
@@ -4487,31 +4530,47 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="4"/>
+      <c r="B149" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="20"/>
+      <c r="F149" s="19">
+        <v>1</v>
+      </c>
+      <c r="G149" s="20">
+        <v>0</v>
+      </c>
       <c r="H149" s="35"/>
     </row>
-    <row r="150" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="10"/>
+      <c r="B150" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="22"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="19">
+        <v>1</v>
+      </c>
+      <c r="G150" s="20">
+        <v>0</v>
+      </c>
       <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29"/>
@@ -4526,10 +4585,10 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29"/>
@@ -4543,47 +4602,31 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="35"/>
       <c r="E153" s="29"/>
-      <c r="F153" s="19">
-        <v>1</v>
-      </c>
-      <c r="G153" s="20">
-        <v>0</v>
-      </c>
+      <c r="F153" s="19"/>
+      <c r="G153" s="20"/>
       <c r="H153" s="35"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="10"/>
       <c r="D154" s="35"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="19">
-        <v>1</v>
-      </c>
-      <c r="G154" s="20">
-        <v>0</v>
-      </c>
+      <c r="E154" s="30"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="22"/>
       <c r="H154" s="35"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29"/>
@@ -4598,10 +4641,10 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29"/>
@@ -4616,10 +4659,10 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29"/>
@@ -4634,10 +4677,10 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29"/>
@@ -4652,10 +4695,10 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29"/>
@@ -4670,10 +4713,10 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29"/>
@@ -4688,10 +4731,10 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29"/>
@@ -4706,10 +4749,10 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29"/>
@@ -4724,10 +4767,10 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29"/>
@@ -4742,10 +4785,10 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29"/>
@@ -4760,10 +4803,10 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29"/>
@@ -4778,10 +4821,10 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29"/>
@@ -4796,10 +4839,10 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29"/>
@@ -4814,10 +4857,10 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29"/>
@@ -4832,10 +4875,10 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29"/>
@@ -4849,31 +4892,47 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="20"/>
+      <c r="F170" s="19">
+        <v>1</v>
+      </c>
+      <c r="G170" s="20">
+        <v>0</v>
+      </c>
       <c r="H170" s="35"/>
     </row>
-    <row r="171" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="10"/>
+      <c r="B171" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D171" s="35"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="22"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="19">
+        <v>1</v>
+      </c>
+      <c r="G171" s="20">
+        <v>0</v>
+      </c>
       <c r="H171" s="35"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29"/>
@@ -4885,79 +4944,79 @@
       </c>
       <c r="H172" s="35"/>
     </row>
-    <row r="173" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
+      <c r="B173" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D173" s="35"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="24"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="19">
+        <v>1</v>
+      </c>
+      <c r="G173" s="20">
+        <v>0</v>
+      </c>
       <c r="H173" s="35"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
-      <c r="B174" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
-      <c r="F174" s="19">
-        <v>1</v>
-      </c>
-      <c r="G174" s="20">
-        <v>0</v>
-      </c>
+      <c r="F174" s="19"/>
+      <c r="G174" s="20"/>
       <c r="H174" s="35"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="10"/>
       <c r="D175" s="35"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="20"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="22"/>
       <c r="H175" s="35"/>
     </row>
-    <row r="176" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="10"/>
+      <c r="B176" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D176" s="35"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="22"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="19">
+        <v>1</v>
+      </c>
+      <c r="G176" s="20">
+        <v>0</v>
+      </c>
       <c r="H176" s="35"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
-      <c r="B177" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="35"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="19">
-        <v>1</v>
-      </c>
-      <c r="G177" s="20">
-        <v>0</v>
-      </c>
+      <c r="E177" s="32"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="24"/>
       <c r="H177" s="35"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -4971,47 +5030,31 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
-      <c r="B179" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="4"/>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
-      <c r="F179" s="19">
-        <v>1</v>
-      </c>
-      <c r="G179" s="20">
-        <v>0</v>
-      </c>
+      <c r="F179" s="19"/>
+      <c r="G179" s="20"/>
       <c r="H179" s="35"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
-      <c r="B180" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="10"/>
       <c r="D180" s="35"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="19">
-        <v>1</v>
-      </c>
-      <c r="G180" s="20">
-        <v>0</v>
-      </c>
+      <c r="E180" s="30"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="22"/>
       <c r="H180" s="35"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5026,10 +5069,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5044,10 +5087,10 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
@@ -5062,10 +5105,10 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29"/>
@@ -5080,10 +5123,10 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5098,10 +5141,10 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29"/>
@@ -5116,10 +5159,10 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29"/>
@@ -5134,10 +5177,10 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
@@ -5152,10 +5195,10 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29"/>
@@ -5170,10 +5213,10 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29"/>
@@ -5188,10 +5231,10 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
@@ -5206,10 +5249,10 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29"/>
@@ -5224,10 +5267,10 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
@@ -5242,10 +5285,10 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
@@ -5260,10 +5303,10 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29"/>
@@ -5278,10 +5321,10 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
@@ -5296,10 +5339,10 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29"/>
@@ -5314,10 +5357,10 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
@@ -5332,10 +5375,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
@@ -5350,10 +5393,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29"/>
@@ -5368,7 +5411,7 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>163</v>
@@ -5386,7 +5429,7 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>163</v>
@@ -5404,7 +5447,7 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>163</v>
@@ -5422,7 +5465,7 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>163</v>
@@ -5440,7 +5483,7 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>163</v>
@@ -5458,7 +5501,7 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>163</v>
@@ -5476,7 +5519,7 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>163</v>
@@ -5494,7 +5537,7 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>163</v>
@@ -5512,7 +5555,7 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>163</v>
@@ -5530,7 +5573,7 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>163</v>
@@ -5548,7 +5591,7 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>163</v>
@@ -5566,7 +5609,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>163</v>
@@ -5584,7 +5627,7 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>163</v>
@@ -5601,31 +5644,47 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="4"/>
+      <c r="B214" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="20"/>
+      <c r="F214" s="19">
+        <v>1</v>
+      </c>
+      <c r="G214" s="20">
+        <v>0</v>
+      </c>
       <c r="H214" s="35"/>
     </row>
-    <row r="215" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="10"/>
+      <c r="B215" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D215" s="35"/>
-      <c r="E215" s="30"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="22"/>
+      <c r="E215" s="29"/>
+      <c r="F215" s="19">
+        <v>1</v>
+      </c>
+      <c r="G215" s="20">
+        <v>0</v>
+      </c>
       <c r="H215" s="35"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5640,10 +5699,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5657,191 +5716,175 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
-      <c r="B218" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="B218" s="7"/>
+      <c r="C218" s="4"/>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="19">
-        <v>1</v>
-      </c>
-      <c r="G218" s="20">
-        <v>0</v>
-      </c>
+      <c r="F218" s="19"/>
+      <c r="G218" s="20"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="9"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="35"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="35"/>
+      <c r="B220" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D220" s="35"/>
+      <c r="E220" s="29"/>
+      <c r="F220" s="19">
+        <v>1</v>
+      </c>
+      <c r="G220" s="20">
+        <v>0</v>
+      </c>
+      <c r="H220" s="35"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="35"/>
+      <c r="B221" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D221" s="35"/>
+      <c r="E221" s="29"/>
+      <c r="F221" s="19">
+        <v>1</v>
+      </c>
+      <c r="G221" s="20">
+        <v>0</v>
+      </c>
+      <c r="H221" s="35"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="35"/>
+      <c r="B222" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D222" s="35"/>
+      <c r="E222" s="29"/>
+      <c r="F222" s="19">
+        <v>1</v>
+      </c>
+      <c r="G222" s="20">
+        <v>0</v>
+      </c>
+      <c r="H222" s="35"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="35"/>
+      <c r="B223" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C223" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D219" s="35"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="19">
-        <v>1</v>
-      </c>
-      <c r="G219" s="20">
-        <v>0</v>
-      </c>
-      <c r="H219" s="35"/>
-    </row>
-    <row r="220" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="37"/>
-      <c r="B220" s="13" t="s">
+      <c r="D223" s="35"/>
+      <c r="E223" s="29"/>
+      <c r="F223" s="19">
+        <v>1</v>
+      </c>
+      <c r="G223" s="20">
+        <v>0</v>
+      </c>
+      <c r="H223" s="35"/>
+    </row>
+    <row r="224" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="37"/>
+      <c r="B224" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C220" s="14" t="s">
+      <c r="C224" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D220" s="37"/>
-      <c r="E220" s="31"/>
-      <c r="F220" s="19">
-        <v>1</v>
-      </c>
-      <c r="G220" s="20">
-        <v>0</v>
-      </c>
-      <c r="H220" s="37"/>
-    </row>
-    <row r="221" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="37"/>
-      <c r="B221" s="13" t="s">
+      <c r="D224" s="37"/>
+      <c r="E224" s="31"/>
+      <c r="F224" s="19">
+        <v>1</v>
+      </c>
+      <c r="G224" s="20">
+        <v>0</v>
+      </c>
+      <c r="H224" s="37"/>
+    </row>
+    <row r="225" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="37"/>
+      <c r="B225" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C225" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D221" s="37"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="19">
-        <v>1</v>
-      </c>
-      <c r="G221" s="20">
-        <v>0</v>
-      </c>
-      <c r="H221" s="37"/>
-    </row>
-    <row r="222" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="37"/>
-      <c r="B222" s="13" t="s">
+      <c r="D225" s="37"/>
+      <c r="E225" s="31"/>
+      <c r="F225" s="19">
+        <v>1</v>
+      </c>
+      <c r="G225" s="20">
+        <v>0</v>
+      </c>
+      <c r="H225" s="37"/>
+    </row>
+    <row r="226" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="37"/>
+      <c r="B226" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="C226" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D222" s="37"/>
-      <c r="E222" s="31"/>
-      <c r="F222" s="19">
-        <v>1</v>
-      </c>
-      <c r="G222" s="20">
-        <v>0</v>
-      </c>
-      <c r="H222" s="37"/>
-    </row>
-    <row r="223" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="37"/>
-      <c r="B223" s="13" t="s">
+      <c r="D226" s="37"/>
+      <c r="E226" s="31"/>
+      <c r="F226" s="19">
+        <v>1</v>
+      </c>
+      <c r="G226" s="20">
+        <v>0</v>
+      </c>
+      <c r="H226" s="37"/>
+    </row>
+    <row r="227" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="37"/>
+      <c r="B227" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="C227" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D223" s="37"/>
-      <c r="E223" s="31"/>
-      <c r="F223" s="19">
-        <v>1</v>
-      </c>
-      <c r="G223" s="20">
-        <v>0</v>
-      </c>
-      <c r="H223" s="37"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="35"/>
-      <c r="B224" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D224" s="35"/>
-      <c r="E224" s="29"/>
-      <c r="F224" s="19">
-        <v>1</v>
-      </c>
-      <c r="G224" s="20">
-        <v>0</v>
-      </c>
-      <c r="H224" s="35"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="35"/>
-      <c r="B225" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D225" s="35"/>
-      <c r="E225" s="29"/>
-      <c r="F225" s="19">
-        <v>1</v>
-      </c>
-      <c r="G225" s="20">
-        <v>0</v>
-      </c>
-      <c r="H225" s="35"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="35"/>
-      <c r="B226" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D226" s="35"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="19">
-        <v>1</v>
-      </c>
-      <c r="G226" s="20">
-        <v>0</v>
-      </c>
-      <c r="H226" s="35"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="35"/>
-      <c r="B227" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D227" s="35"/>
-      <c r="E227" s="29"/>
+      <c r="D227" s="37"/>
+      <c r="E227" s="31"/>
       <c r="F227" s="19">
         <v>1</v>
       </c>
       <c r="G227" s="20">
         <v>0</v>
       </c>
-      <c r="H227" s="35"/>
+      <c r="H227" s="37"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -5856,10 +5899,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -5874,10 +5917,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -5892,10 +5935,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -5910,10 +5953,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -5925,25 +5968,97 @@
       </c>
       <c r="H232" s="35"/>
     </row>
-    <row r="233" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="6"/>
+      <c r="B233" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="D233" s="35"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="25"/>
-      <c r="G233" s="26"/>
+      <c r="E233" s="29"/>
+      <c r="F233" s="19">
+        <v>1</v>
+      </c>
+      <c r="G233" s="20">
+        <v>0</v>
+      </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
-      <c r="B234" s="38"/>
-      <c r="C234" s="39"/>
+      <c r="B234" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D234" s="35"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="41"/>
-      <c r="G234" s="41"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="19">
+        <v>1</v>
+      </c>
+      <c r="G234" s="20">
+        <v>0</v>
+      </c>
       <c r="H234" s="35"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="35"/>
+      <c r="B235" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D235" s="35"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="19">
+        <v>1</v>
+      </c>
+      <c r="G235" s="20">
+        <v>0</v>
+      </c>
+      <c r="H235" s="35"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="35"/>
+      <c r="B236" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D236" s="35"/>
+      <c r="E236" s="29"/>
+      <c r="F236" s="19">
+        <v>1</v>
+      </c>
+      <c r="G236" s="20">
+        <v>0</v>
+      </c>
+      <c r="H236" s="35"/>
+    </row>
+    <row r="237" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="35"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="35"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="25"/>
+      <c r="G237" s="26"/>
+      <c r="H237" s="35"/>
+    </row>
+    <row r="238" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="35"/>
+      <c r="B238" s="38"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="35"/>
+      <c r="E238" s="40"/>
+      <c r="F238" s="41"/>
+      <c r="G238" s="41"/>
+      <c r="H238" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1649,6 +1649,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,12 +1675,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,10 +1983,10 @@
   <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2014,24 +2014,24 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="35"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="36"/>
       <c r="E3" s="42" t="s">
         <v>390</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="46" t="s">
         <v>323</v>
       </c>
       <c r="D21" s="35"/>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="46" t="s">
         <v>324</v>
       </c>
       <c r="D22" s="35"/>
@@ -4267,7 +4267,9 @@
         <v>55</v>
       </c>
       <c r="D134" s="35"/>
-      <c r="E134" s="29"/>
+      <c r="E134" s="29">
+        <v>44211</v>
+      </c>
       <c r="F134" s="19">
         <v>1</v>
       </c>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1983,10 +1983,10 @@
   <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E135" sqref="E135"/>
+      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="35"/>
     </row>
@@ -4287,12 +4287,14 @@
         <v>56</v>
       </c>
       <c r="D135" s="35"/>
-      <c r="E135" s="29"/>
+      <c r="E135" s="29">
+        <v>44211</v>
+      </c>
       <c r="F135" s="19">
         <v>1</v>
       </c>
       <c r="G135" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="35"/>
     </row>
@@ -4305,12 +4307,14 @@
         <v>59</v>
       </c>
       <c r="D136" s="35"/>
-      <c r="E136" s="29"/>
+      <c r="E136" s="29">
+        <v>44211</v>
+      </c>
       <c r="F136" s="19">
         <v>1</v>
       </c>
       <c r="G136" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="35"/>
     </row>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1986,7 +1986,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomRight" activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4327,12 +4327,14 @@
         <v>65</v>
       </c>
       <c r="D137" s="35"/>
-      <c r="E137" s="29"/>
+      <c r="E137" s="29">
+        <v>44211</v>
+      </c>
       <c r="F137" s="19">
         <v>1</v>
       </c>
       <c r="G137" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="35"/>
     </row>
@@ -4345,12 +4347,14 @@
         <v>64</v>
       </c>
       <c r="D138" s="35"/>
-      <c r="E138" s="29"/>
+      <c r="E138" s="29">
+        <v>44211</v>
+      </c>
       <c r="F138" s="19">
         <v>1</v>
       </c>
       <c r="G138" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="35"/>
     </row>
@@ -4363,12 +4367,14 @@
         <v>67</v>
       </c>
       <c r="D139" s="35"/>
-      <c r="E139" s="29"/>
+      <c r="E139" s="29">
+        <v>44211</v>
+      </c>
       <c r="F139" s="19">
         <v>1</v>
       </c>
       <c r="G139" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="35"/>
     </row>
@@ -4381,12 +4387,14 @@
         <v>66</v>
       </c>
       <c r="D140" s="35"/>
-      <c r="E140" s="29"/>
+      <c r="E140" s="29">
+        <v>44211</v>
+      </c>
       <c r="F140" s="19">
         <v>1</v>
       </c>
       <c r="G140" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" s="35"/>
     </row>
@@ -4399,12 +4407,14 @@
         <v>80</v>
       </c>
       <c r="D141" s="35"/>
-      <c r="E141" s="29"/>
+      <c r="E141" s="29">
+        <v>44211</v>
+      </c>
       <c r="F141" s="19">
         <v>1</v>
       </c>
       <c r="G141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="35"/>
     </row>
@@ -4417,12 +4427,14 @@
         <v>81</v>
       </c>
       <c r="D142" s="35"/>
-      <c r="E142" s="29"/>
+      <c r="E142" s="29">
+        <v>44211</v>
+      </c>
       <c r="F142" s="19">
         <v>1</v>
       </c>
       <c r="G142" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" s="35"/>
     </row>
@@ -4435,12 +4447,14 @@
         <v>82</v>
       </c>
       <c r="D143" s="35"/>
-      <c r="E143" s="29"/>
+      <c r="E143" s="29">
+        <v>44211</v>
+      </c>
       <c r="F143" s="19">
         <v>1</v>
       </c>
       <c r="G143" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" s="35"/>
     </row>
@@ -4453,12 +4467,14 @@
         <v>83</v>
       </c>
       <c r="D144" s="35"/>
-      <c r="E144" s="29"/>
+      <c r="E144" s="29">
+        <v>44211</v>
+      </c>
       <c r="F144" s="19">
         <v>1</v>
       </c>
       <c r="G144" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" s="35"/>
     </row>
@@ -4471,12 +4487,14 @@
         <v>84</v>
       </c>
       <c r="D145" s="35"/>
-      <c r="E145" s="29"/>
+      <c r="E145" s="29">
+        <v>44211</v>
+      </c>
       <c r="F145" s="19">
         <v>1</v>
       </c>
       <c r="G145" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" s="35"/>
     </row>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -1983,10 +1983,10 @@
   <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E145" sqref="E145"/>
+      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4507,12 +4507,14 @@
         <v>86</v>
       </c>
       <c r="D146" s="35"/>
-      <c r="E146" s="29"/>
+      <c r="E146" s="29">
+        <v>44211</v>
+      </c>
       <c r="F146" s="19">
         <v>1</v>
       </c>
       <c r="G146" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" s="35"/>
     </row>
@@ -4525,12 +4527,14 @@
         <v>87</v>
       </c>
       <c r="D147" s="35"/>
-      <c r="E147" s="29"/>
+      <c r="E147" s="29">
+        <v>44211</v>
+      </c>
       <c r="F147" s="19">
         <v>1</v>
       </c>
       <c r="G147" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" s="35"/>
     </row>
@@ -4543,12 +4547,14 @@
         <v>207</v>
       </c>
       <c r="D148" s="35"/>
-      <c r="E148" s="29"/>
+      <c r="E148" s="29">
+        <v>44211</v>
+      </c>
       <c r="F148" s="19">
         <v>1</v>
       </c>
       <c r="G148" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" s="35"/>
     </row>
@@ -4561,12 +4567,14 @@
         <v>88</v>
       </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="29"/>
+      <c r="E149" s="29">
+        <v>44211</v>
+      </c>
       <c r="F149" s="19">
         <v>1</v>
       </c>
       <c r="G149" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="35"/>
     </row>
@@ -4579,12 +4587,14 @@
         <v>89</v>
       </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="29"/>
+      <c r="E150" s="29">
+        <v>44211</v>
+      </c>
       <c r="F150" s="19">
         <v>1</v>
       </c>
       <c r="G150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" s="35"/>
     </row>
@@ -4597,12 +4607,14 @@
         <v>90</v>
       </c>
       <c r="D151" s="35"/>
-      <c r="E151" s="29"/>
+      <c r="E151" s="29">
+        <v>44211</v>
+      </c>
       <c r="F151" s="19">
         <v>1</v>
       </c>
       <c r="G151" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="35"/>
     </row>
@@ -4615,12 +4627,14 @@
         <v>91</v>
       </c>
       <c r="D152" s="35"/>
-      <c r="E152" s="29"/>
+      <c r="E152" s="29">
+        <v>44211</v>
+      </c>
       <c r="F152" s="19">
         <v>1</v>
       </c>
       <c r="G152" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="35"/>
     </row>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="410">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1202,6 +1202,48 @@
   </si>
   <si>
     <t>instruction.device.fingerprintAttendance.Solution.x601.getDataAttendance</t>
+  </si>
+  <si>
+    <t>scheduler.everyDay.system.setJobs</t>
+  </si>
+  <si>
+    <t>scheduler.everyHour.system.setJobs</t>
+  </si>
+  <si>
+    <t>scheduler.everyMinute.system.setJobs</t>
+  </si>
+  <si>
+    <t>scheduler.everyMonth.system.setJobs</t>
+  </si>
+  <si>
+    <t>scheduler.everyTwoHours.system.setJobs</t>
+  </si>
+  <si>
+    <t>scheduler.everyWeek.system.setJobs</t>
+  </si>
+  <si>
+    <t>scheduler.everyYear.system.setJobs</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler harian</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler jaman</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler menitan</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler bulanan</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler dua jaman</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler mingguan</t>
+  </si>
+  <si>
+    <t>Mengeset Jobs pada Scheduler tahunan</t>
   </si>
 </sst>
 </file>
@@ -1980,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2287,30 +2329,24 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="7" t="s">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="D20" s="35"/>
-      <c r="E20" s="29">
-        <v>44200</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>323</v>
+      <c r="B21" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="29"/>
@@ -2320,11 +2356,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>324</v>
+      <c r="B22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="29"/>
@@ -2335,134 +2371,90 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="7" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="D23" s="35"/>
-      <c r="E23" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
-      <c r="B28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20">
-        <v>1</v>
-      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="29">
-        <v>44207</v>
+        <v>44200</v>
       </c>
       <c r="F29" s="19">
         <v>1</v>
@@ -2474,55 +2466,43 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>364</v>
+      <c r="B30" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>323</v>
       </c>
       <c r="D30" s="35"/>
-      <c r="E30" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20">
-        <v>1</v>
-      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
-      <c r="B31" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>344</v>
+      <c r="B31" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>324</v>
       </c>
       <c r="D31" s="35"/>
-      <c r="E31" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="7" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F32" s="19">
         <v>1</v>
@@ -2532,17 +2512,17 @@
       </c>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D33" s="35"/>
+    <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" s="37"/>
       <c r="E33" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F33" s="19">
         <v>1</v>
@@ -2550,19 +2530,19 @@
       <c r="G33" s="20">
         <v>1</v>
       </c>
-      <c r="H33" s="35"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D34" s="35"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" s="37"/>
       <c r="E34" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F34" s="19">
         <v>1</v>
@@ -2570,19 +2550,19 @@
       <c r="G34" s="20">
         <v>1</v>
       </c>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D35" s="35"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" s="37"/>
       <c r="E35" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
@@ -2590,17 +2570,17 @@
       <c r="G35" s="20">
         <v>1</v>
       </c>
-      <c r="H35" s="35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="35"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="37"/>
       <c r="E36" s="29">
         <v>44207</v>
       </c>
@@ -2610,189 +2590,215 @@
       <c r="G36" s="20">
         <v>1</v>
       </c>
-      <c r="H36" s="35"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" s="35"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1</v>
+      </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="E38" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F38" s="19">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
       <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="7" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="D39" s="35"/>
-      <c r="E39" s="29"/>
+      <c r="E39" s="29">
+        <v>44207</v>
+      </c>
       <c r="F39" s="19">
         <v>1</v>
       </c>
       <c r="G39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="7" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="D40" s="35"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="29">
+        <v>44207</v>
+      </c>
       <c r="F40" s="19">
         <v>1</v>
       </c>
       <c r="G40" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="D41" s="35"/>
-      <c r="E41" s="29"/>
+      <c r="E41" s="29">
+        <v>44207</v>
+      </c>
       <c r="F41" s="19">
         <v>1</v>
       </c>
       <c r="G41" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="D42" s="35"/>
-      <c r="E42" s="29"/>
+      <c r="E42" s="29">
+        <v>44207</v>
+      </c>
       <c r="F42" s="19">
         <v>1</v>
       </c>
       <c r="G42" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="D43" s="35"/>
-      <c r="E43" s="29"/>
+      <c r="E43" s="29">
+        <v>44207</v>
+      </c>
       <c r="F43" s="19">
         <v>1</v>
       </c>
       <c r="G43" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
+      <c r="B44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D44" s="35"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
+      <c r="E44" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F44" s="19">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
       <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="D45" s="35"/>
-      <c r="E45" s="29"/>
+      <c r="E45" s="29">
+        <v>44207</v>
+      </c>
       <c r="F45" s="19">
         <v>1</v>
       </c>
       <c r="G45" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="35"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="19">
-        <v>1</v>
-      </c>
-      <c r="G46" s="20">
-        <v>0</v>
-      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="35"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="19">
-        <v>1</v>
-      </c>
-      <c r="G47" s="20">
-        <v>0</v>
-      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="29"/>
@@ -2807,10 +2813,10 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="7" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="29"/>
@@ -2825,10 +2831,10 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="29"/>
@@ -2843,10 +2849,10 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="7" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="29"/>
@@ -2861,10 +2867,10 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="7" t="s">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
@@ -2876,31 +2882,23 @@
       </c>
       <c r="H52" s="35"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="35"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="19">
-        <v>1</v>
-      </c>
-      <c r="G53" s="20">
-        <v>0</v>
-      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="7" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="29"/>
@@ -2915,10 +2913,10 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="29"/>
@@ -2933,10 +2931,10 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="7" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="29"/>
@@ -2951,10 +2949,10 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
@@ -2969,10 +2967,10 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>383</v>
+        <v>99</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="29"/>
@@ -2987,10 +2985,10 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="29"/>
@@ -3005,10 +3003,10 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
@@ -3023,10 +3021,10 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="29"/>
@@ -3041,10 +3039,10 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3059,10 +3057,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3077,10 +3075,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3095,10 +3093,10 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -3113,10 +3111,10 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3131,10 +3129,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="29"/>
@@ -3149,10 +3147,10 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3167,10 +3165,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3185,10 +3183,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3203,10 +3201,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3221,10 +3219,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3239,10 +3237,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3257,10 +3255,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3275,10 +3273,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3293,10 +3291,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3311,10 +3309,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="29"/>
@@ -3329,10 +3327,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="29"/>
@@ -3347,10 +3345,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3365,10 +3363,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3380,43 +3378,49 @@
       </c>
       <c r="H80" s="35"/>
     </row>
-    <row r="81" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
+      <c r="B81" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D81" s="35"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="24"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="19">
+        <v>1</v>
+      </c>
+      <c r="G81" s="20">
+        <v>0</v>
+      </c>
       <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="D82" s="35"/>
-      <c r="E82" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E82" s="29"/>
       <c r="F82" s="19">
         <v>1</v>
       </c>
       <c r="G82" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29"/>
@@ -3431,10 +3435,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3449,10 +3453,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3467,10 +3471,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3482,23 +3486,31 @@
       </c>
       <c r="H86" s="35"/>
     </row>
-    <row r="87" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
+      <c r="B87" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="D87" s="35"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="24"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="19">
+        <v>1</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0</v>
+      </c>
       <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3513,10 +3525,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="7" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29"/>
@@ -3528,49 +3540,43 @@
       </c>
       <c r="H89" s="35"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
-      <c r="B90" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="35"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="19">
-        <v>1</v>
-      </c>
-      <c r="G90" s="20">
-        <v>0</v>
-      </c>
+      <c r="E90" s="32"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
       <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D91" s="35"/>
-      <c r="E91" s="29"/>
+      <c r="E91" s="29">
+        <v>44188</v>
+      </c>
       <c r="F91" s="19">
         <v>1</v>
       </c>
       <c r="G91" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3582,23 +3588,31 @@
       </c>
       <c r="H92" s="35"/>
     </row>
-    <row r="93" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
+      <c r="B93" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="D93" s="35"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="19">
+        <v>1</v>
+      </c>
+      <c r="G93" s="20">
+        <v>0</v>
+      </c>
       <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="29"/>
@@ -3610,41 +3624,41 @@
       </c>
       <c r="H94" s="35"/>
     </row>
-    <row r="95" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
+      <c r="B95" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="D95" s="35"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="24"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="19">
+        <v>1</v>
+      </c>
+      <c r="G95" s="20">
+        <v>0</v>
+      </c>
       <c r="H95" s="35"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
-      <c r="B96" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="35"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="19">
-        <v>1</v>
-      </c>
-      <c r="G96" s="20">
-        <v>0</v>
-      </c>
+      <c r="E96" s="32"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3656,23 +3670,31 @@
       </c>
       <c r="H97" s="35"/>
     </row>
-    <row r="98" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+      <c r="B98" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D98" s="35"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="19">
+        <v>1</v>
+      </c>
+      <c r="G98" s="20">
+        <v>0</v>
+      </c>
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="29"/>
@@ -3684,23 +3706,31 @@
       </c>
       <c r="H99" s="35"/>
     </row>
-    <row r="100" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
+      <c r="B100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="D100" s="35"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="24"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="19">
+        <v>1</v>
+      </c>
+      <c r="G100" s="20">
+        <v>0</v>
+      </c>
       <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="29"/>
@@ -3712,31 +3742,23 @@
       </c>
       <c r="H101" s="35"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
-      <c r="B102" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="35"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="19">
-        <v>1</v>
-      </c>
-      <c r="G102" s="20">
-        <v>0</v>
-      </c>
+      <c r="E102" s="32"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="24"/>
       <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="29"/>
@@ -3748,31 +3770,23 @@
       </c>
       <c r="H103" s="35"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="35"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="19">
-        <v>1</v>
-      </c>
-      <c r="G104" s="20">
-        <v>0</v>
-      </c>
+      <c r="E104" s="32"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="24"/>
       <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29"/>
@@ -3787,10 +3801,10 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29"/>
@@ -3802,31 +3816,23 @@
       </c>
       <c r="H106" s="35"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
-      <c r="B107" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="35"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="19">
-        <v>1</v>
-      </c>
-      <c r="G107" s="20">
-        <v>0</v>
-      </c>
+      <c r="E107" s="32"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="24"/>
       <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29"/>
@@ -3838,31 +3844,23 @@
       </c>
       <c r="H108" s="35"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
-      <c r="B109" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="35"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="19">
-        <v>1</v>
-      </c>
-      <c r="G109" s="20">
-        <v>0</v>
-      </c>
+      <c r="E109" s="32"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="24"/>
       <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29"/>
@@ -3877,10 +3875,10 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29"/>
@@ -3895,10 +3893,10 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29"/>
@@ -3913,10 +3911,10 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29"/>
@@ -3931,10 +3929,10 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="29"/>
@@ -3949,10 +3947,10 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29"/>
@@ -3967,10 +3965,10 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29"/>
@@ -3985,10 +3983,10 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29"/>
@@ -4003,10 +4001,10 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29"/>
@@ -4021,10 +4019,10 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29"/>
@@ -4039,10 +4037,10 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29"/>
@@ -4057,10 +4055,10 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29"/>
@@ -4072,23 +4070,31 @@
       </c>
       <c r="H121" s="35"/>
     </row>
-    <row r="122" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
+      <c r="B122" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="D122" s="35"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="24"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="19">
+        <v>1</v>
+      </c>
+      <c r="G122" s="20">
+        <v>0</v>
+      </c>
       <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29"/>
@@ -4103,10 +4109,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29"/>
@@ -4118,23 +4124,31 @@
       </c>
       <c r="H124" s="35"/>
     </row>
-    <row r="125" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
+      <c r="B125" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="D125" s="35"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="24"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="19">
+        <v>1</v>
+      </c>
+      <c r="G125" s="20">
+        <v>0</v>
+      </c>
       <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29"/>
@@ -4149,10 +4163,10 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29"/>
@@ -4167,10 +4181,10 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29"/>
@@ -4185,10 +4199,10 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29"/>
@@ -4203,10 +4217,10 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29"/>
@@ -4218,217 +4232,183 @@
       </c>
       <c r="H130" s="35"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="4"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="35"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="20"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="24"/>
       <c r="H131" s="35"/>
     </row>
-    <row r="132" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="10"/>
+      <c r="B132" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="D132" s="35"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="22"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="19">
+        <v>1</v>
+      </c>
+      <c r="G132" s="20">
+        <v>0</v>
+      </c>
       <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="D133" s="35"/>
-      <c r="E133" s="29">
-        <v>44207</v>
-      </c>
+      <c r="E133" s="29"/>
       <c r="F133" s="19">
         <v>1</v>
       </c>
       <c r="G133" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="35"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
-      <c r="B134" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="35"/>
-      <c r="E134" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F134" s="19">
-        <v>1</v>
-      </c>
-      <c r="G134" s="20">
-        <v>1</v>
-      </c>
+      <c r="E134" s="32"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="24"/>
       <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="D135" s="35"/>
-      <c r="E135" s="29">
-        <v>44211</v>
-      </c>
+      <c r="E135" s="29"/>
       <c r="F135" s="19">
         <v>1</v>
       </c>
       <c r="G135" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="35"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="D136" s="35"/>
-      <c r="E136" s="29">
-        <v>44211</v>
-      </c>
+      <c r="E136" s="29"/>
       <c r="F136" s="19">
         <v>1</v>
       </c>
       <c r="G136" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="35"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="D137" s="35"/>
-      <c r="E137" s="29">
-        <v>44211</v>
-      </c>
+      <c r="E137" s="29"/>
       <c r="F137" s="19">
         <v>1</v>
       </c>
       <c r="G137" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="D138" s="35"/>
-      <c r="E138" s="29">
-        <v>44211</v>
-      </c>
+      <c r="E138" s="29"/>
       <c r="F138" s="19">
         <v>1</v>
       </c>
       <c r="G138" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" s="35"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="D139" s="35"/>
-      <c r="E139" s="29">
-        <v>44211</v>
-      </c>
+      <c r="E139" s="29"/>
       <c r="F139" s="19">
         <v>1</v>
       </c>
       <c r="G139" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
-      <c r="B140" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="35"/>
-      <c r="E140" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F140" s="19">
-        <v>1</v>
-      </c>
-      <c r="G140" s="20">
-        <v>1</v>
-      </c>
+      <c r="E140" s="29"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="20"/>
       <c r="H140" s="35"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
-      <c r="B141" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
       <c r="D141" s="35"/>
-      <c r="E141" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F141" s="19">
-        <v>1</v>
-      </c>
-      <c r="G141" s="20">
-        <v>1</v>
-      </c>
+      <c r="E141" s="30"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="22"/>
       <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="F142" s="19">
         <v>1</v>
@@ -4441,10 +4421,10 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
       <c r="B143" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="29">
@@ -4461,10 +4441,10 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29">
@@ -4481,10 +4461,10 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29">
@@ -4501,10 +4481,10 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="29">
@@ -4521,10 +4501,10 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
@@ -4541,10 +4521,10 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
@@ -4561,10 +4541,10 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29">
@@ -4581,10 +4561,10 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D150" s="35"/>
       <c r="E150" s="29">
@@ -4601,10 +4581,10 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29">
@@ -4621,10 +4601,10 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
@@ -4640,193 +4620,211 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="4"/>
+      <c r="B153" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D153" s="35"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="20"/>
+      <c r="E153" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F153" s="19">
+        <v>1</v>
+      </c>
+      <c r="G153" s="20">
+        <v>1</v>
+      </c>
       <c r="H153" s="35"/>
     </row>
-    <row r="154" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="10"/>
+      <c r="B154" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D154" s="35"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="22"/>
+      <c r="E154" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F154" s="19">
+        <v>1</v>
+      </c>
+      <c r="G154" s="20">
+        <v>1</v>
+      </c>
       <c r="H154" s="35"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D155" s="35"/>
-      <c r="E155" s="29"/>
+      <c r="E155" s="29">
+        <v>44211</v>
+      </c>
       <c r="F155" s="19">
         <v>1</v>
       </c>
       <c r="G155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" s="35"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D156" s="35"/>
-      <c r="E156" s="29"/>
+      <c r="E156" s="29">
+        <v>44211</v>
+      </c>
       <c r="F156" s="19">
         <v>1</v>
       </c>
       <c r="G156" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" s="35"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="D157" s="35"/>
-      <c r="E157" s="29"/>
+      <c r="E157" s="29">
+        <v>44211</v>
+      </c>
       <c r="F157" s="19">
         <v>1</v>
       </c>
       <c r="G157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" s="35"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D158" s="35"/>
-      <c r="E158" s="29"/>
+      <c r="E158" s="29">
+        <v>44211</v>
+      </c>
       <c r="F158" s="19">
         <v>1</v>
       </c>
       <c r="G158" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" s="35"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D159" s="35"/>
-      <c r="E159" s="29"/>
+      <c r="E159" s="29">
+        <v>44211</v>
+      </c>
       <c r="F159" s="19">
         <v>1</v>
       </c>
       <c r="G159" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="35"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D160" s="35"/>
-      <c r="E160" s="29"/>
+      <c r="E160" s="29">
+        <v>44211</v>
+      </c>
       <c r="F160" s="19">
         <v>1</v>
       </c>
       <c r="G160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="35"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D161" s="35"/>
-      <c r="E161" s="29"/>
+      <c r="E161" s="29">
+        <v>44211</v>
+      </c>
       <c r="F161" s="19">
         <v>1</v>
       </c>
       <c r="G161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="35"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
-      <c r="B162" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="35"/>
       <c r="E162" s="29"/>
-      <c r="F162" s="19">
-        <v>1</v>
-      </c>
-      <c r="G162" s="20">
-        <v>0</v>
-      </c>
+      <c r="F162" s="19"/>
+      <c r="G162" s="20"/>
       <c r="H162" s="35"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
-      <c r="B163" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="10"/>
       <c r="D163" s="35"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="19">
-        <v>1</v>
-      </c>
-      <c r="G163" s="20">
-        <v>0</v>
-      </c>
+      <c r="E163" s="30"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="22"/>
       <c r="H163" s="35"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29"/>
@@ -4841,10 +4839,10 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29"/>
@@ -4859,10 +4857,10 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29"/>
@@ -4877,10 +4875,10 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29"/>
@@ -4895,10 +4893,10 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29"/>
@@ -4913,10 +4911,10 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29"/>
@@ -4931,10 +4929,10 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29"/>
@@ -4949,10 +4947,10 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29"/>
@@ -4967,10 +4965,10 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29"/>
@@ -4985,10 +4983,10 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29"/>
@@ -5002,31 +5000,47 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="20"/>
+      <c r="F174" s="19">
+        <v>1</v>
+      </c>
+      <c r="G174" s="20">
+        <v>0</v>
+      </c>
       <c r="H174" s="35"/>
     </row>
-    <row r="175" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="10"/>
+      <c r="B175" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D175" s="35"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="22"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="19">
+        <v>1</v>
+      </c>
+      <c r="G175" s="20">
+        <v>0</v>
+      </c>
       <c r="H175" s="35"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29"/>
@@ -5038,23 +5052,31 @@
       </c>
       <c r="H176" s="35"/>
     </row>
-    <row r="177" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
+      <c r="B177" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D177" s="35"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="24"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="19">
+        <v>1</v>
+      </c>
+      <c r="G177" s="20">
+        <v>0</v>
+      </c>
       <c r="H177" s="35"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -5068,31 +5090,47 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="4"/>
+      <c r="B179" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="20"/>
+      <c r="F179" s="19">
+        <v>1</v>
+      </c>
+      <c r="G179" s="20">
+        <v>0</v>
+      </c>
       <c r="H179" s="35"/>
     </row>
-    <row r="180" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="10"/>
+      <c r="B180" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D180" s="35"/>
-      <c r="E180" s="30"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="22"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="19">
+        <v>1</v>
+      </c>
+      <c r="G180" s="20">
+        <v>0</v>
+      </c>
       <c r="H180" s="35"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5107,10 +5145,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5124,47 +5162,31 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
-      <c r="B183" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="4"/>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
-      <c r="F183" s="19">
-        <v>1</v>
-      </c>
-      <c r="G183" s="20">
-        <v>0</v>
-      </c>
+      <c r="F183" s="19"/>
+      <c r="G183" s="20"/>
       <c r="H183" s="35"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
-      <c r="B184" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B184" s="9"/>
+      <c r="C184" s="10"/>
       <c r="D184" s="35"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="19">
-        <v>1</v>
-      </c>
-      <c r="G184" s="20">
-        <v>0</v>
-      </c>
+      <c r="E184" s="30"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="22"/>
       <c r="H184" s="35"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5176,31 +5198,23 @@
       </c>
       <c r="H185" s="35"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
-      <c r="B186" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="B186" s="11"/>
+      <c r="C186" s="12"/>
       <c r="D186" s="35"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="19">
-        <v>1</v>
-      </c>
-      <c r="G186" s="20">
-        <v>0</v>
-      </c>
+      <c r="E186" s="32"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="24"/>
       <c r="H186" s="35"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29"/>
@@ -5214,47 +5228,31 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
-      <c r="B188" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
-      <c r="F188" s="19">
-        <v>1</v>
-      </c>
-      <c r="G188" s="20">
-        <v>0</v>
-      </c>
+      <c r="F188" s="19"/>
+      <c r="G188" s="20"/>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="10"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="19">
-        <v>1</v>
-      </c>
-      <c r="G189" s="20">
-        <v>0</v>
-      </c>
+      <c r="E189" s="30"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="22"/>
       <c r="H189" s="35"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29"/>
@@ -5269,10 +5267,10 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
@@ -5287,10 +5285,10 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29"/>
@@ -5305,10 +5303,10 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
@@ -5323,10 +5321,10 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
@@ -5341,10 +5339,10 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29"/>
@@ -5359,10 +5357,10 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
@@ -5377,10 +5375,10 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29"/>
@@ -5395,10 +5393,10 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
@@ -5413,10 +5411,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
@@ -5431,10 +5429,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29"/>
@@ -5449,10 +5447,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5467,10 +5465,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29"/>
@@ -5485,10 +5483,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5503,10 +5501,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
@@ -5521,10 +5519,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5539,10 +5537,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5557,10 +5555,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5575,10 +5573,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5593,10 +5591,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5611,7 +5609,7 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>163</v>
@@ -5629,7 +5627,7 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>163</v>
@@ -5647,7 +5645,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>163</v>
@@ -5665,7 +5663,7 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>163</v>
@@ -5683,7 +5681,7 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>163</v>
@@ -5701,7 +5699,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>163</v>
@@ -5719,7 +5717,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>163</v>
@@ -5737,7 +5735,7 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>163</v>
@@ -5754,31 +5752,47 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="4"/>
+      <c r="B218" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="20"/>
+      <c r="F218" s="19">
+        <v>1</v>
+      </c>
+      <c r="G218" s="20">
+        <v>0</v>
+      </c>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="10"/>
+      <c r="B219" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D219" s="35"/>
-      <c r="E219" s="30"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="22"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="19">
+        <v>1</v>
+      </c>
+      <c r="G219" s="20">
+        <v>0</v>
+      </c>
       <c r="H219" s="35"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5793,10 +5807,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5811,10 +5825,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>326</v>
+        <v>194</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5829,10 +5843,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -5844,103 +5858,87 @@
       </c>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
-      <c r="B224" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D224" s="37"/>
-      <c r="E224" s="31"/>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="35"/>
+      <c r="B224" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D224" s="35"/>
+      <c r="E224" s="29"/>
       <c r="F224" s="19">
         <v>1</v>
       </c>
       <c r="G224" s="20">
         <v>0</v>
       </c>
-      <c r="H224" s="37"/>
-    </row>
-    <row r="225" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="37"/>
-      <c r="B225" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C225" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D225" s="37"/>
-      <c r="E225" s="31"/>
+      <c r="H224" s="35"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="35"/>
+      <c r="B225" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D225" s="35"/>
+      <c r="E225" s="29"/>
       <c r="F225" s="19">
         <v>1</v>
       </c>
       <c r="G225" s="20">
         <v>0</v>
       </c>
-      <c r="H225" s="37"/>
-    </row>
-    <row r="226" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="37"/>
-      <c r="B226" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C226" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D226" s="37"/>
-      <c r="E226" s="31"/>
+      <c r="H225" s="35"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="35"/>
+      <c r="B226" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D226" s="35"/>
+      <c r="E226" s="29"/>
       <c r="F226" s="19">
         <v>1</v>
       </c>
       <c r="G226" s="20">
         <v>0</v>
       </c>
-      <c r="H226" s="37"/>
-    </row>
-    <row r="227" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="37"/>
-      <c r="B227" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C227" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D227" s="37"/>
-      <c r="E227" s="31"/>
-      <c r="F227" s="19">
-        <v>1</v>
-      </c>
-      <c r="G227" s="20">
-        <v>0</v>
-      </c>
-      <c r="H227" s="37"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H226" s="35"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="35"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="35"/>
+    </row>
+    <row r="228" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
-      <c r="B228" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>357</v>
-      </c>
+      <c r="B228" s="9"/>
+      <c r="C228" s="10"/>
       <c r="D228" s="35"/>
-      <c r="E228" s="29"/>
-      <c r="F228" s="19">
-        <v>1</v>
-      </c>
-      <c r="G228" s="20">
-        <v>0</v>
-      </c>
+      <c r="E228" s="30"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="22"/>
       <c r="H228" s="35"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -5955,10 +5953,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -5973,10 +5971,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -5991,10 +5989,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6006,97 +6004,259 @@
       </c>
       <c r="H232" s="35"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="35"/>
-      <c r="B233" s="7" t="s">
+    <row r="233" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="37"/>
+      <c r="B233" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D233" s="37"/>
+      <c r="E233" s="31"/>
+      <c r="F233" s="19">
+        <v>1</v>
+      </c>
+      <c r="G233" s="20">
+        <v>0</v>
+      </c>
+      <c r="H233" s="37"/>
+    </row>
+    <row r="234" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="37"/>
+      <c r="B234" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D234" s="37"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="19">
+        <v>1</v>
+      </c>
+      <c r="G234" s="20">
+        <v>0</v>
+      </c>
+      <c r="H234" s="37"/>
+    </row>
+    <row r="235" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="37"/>
+      <c r="B235" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D235" s="37"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="19">
+        <v>1</v>
+      </c>
+      <c r="G235" s="20">
+        <v>0</v>
+      </c>
+      <c r="H235" s="37"/>
+    </row>
+    <row r="236" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="37"/>
+      <c r="B236" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D236" s="37"/>
+      <c r="E236" s="31"/>
+      <c r="F236" s="19">
+        <v>1</v>
+      </c>
+      <c r="G236" s="20">
+        <v>0</v>
+      </c>
+      <c r="H236" s="37"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="35"/>
+      <c r="B237" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D237" s="35"/>
+      <c r="E237" s="29"/>
+      <c r="F237" s="19">
+        <v>1</v>
+      </c>
+      <c r="G237" s="20">
+        <v>0</v>
+      </c>
+      <c r="H237" s="35"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="35"/>
+      <c r="B238" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D238" s="35"/>
+      <c r="E238" s="29"/>
+      <c r="F238" s="19">
+        <v>1</v>
+      </c>
+      <c r="G238" s="20">
+        <v>0</v>
+      </c>
+      <c r="H238" s="35"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="35"/>
+      <c r="B239" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D239" s="35"/>
+      <c r="E239" s="29"/>
+      <c r="F239" s="19">
+        <v>1</v>
+      </c>
+      <c r="G239" s="20">
+        <v>0</v>
+      </c>
+      <c r="H239" s="35"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="35"/>
+      <c r="B240" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D240" s="35"/>
+      <c r="E240" s="29"/>
+      <c r="F240" s="19">
+        <v>1</v>
+      </c>
+      <c r="G240" s="20">
+        <v>0</v>
+      </c>
+      <c r="H240" s="35"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="35"/>
+      <c r="B241" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D241" s="35"/>
+      <c r="E241" s="29"/>
+      <c r="F241" s="19">
+        <v>1</v>
+      </c>
+      <c r="G241" s="20">
+        <v>0</v>
+      </c>
+      <c r="H241" s="35"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="35"/>
+      <c r="B242" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C242" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D233" s="35"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="19">
-        <v>1</v>
-      </c>
-      <c r="G233" s="20">
-        <v>0</v>
-      </c>
-      <c r="H233" s="35"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="35"/>
-      <c r="B234" s="7" t="s">
+      <c r="D242" s="35"/>
+      <c r="E242" s="29"/>
+      <c r="F242" s="19">
+        <v>1</v>
+      </c>
+      <c r="G242" s="20">
+        <v>0</v>
+      </c>
+      <c r="H242" s="35"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="35"/>
+      <c r="B243" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C243" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D234" s="35"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="19">
-        <v>1</v>
-      </c>
-      <c r="G234" s="20">
-        <v>0</v>
-      </c>
-      <c r="H234" s="35"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="35"/>
-      <c r="B235" s="7" t="s">
+      <c r="D243" s="35"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="19">
+        <v>1</v>
+      </c>
+      <c r="G243" s="20">
+        <v>0</v>
+      </c>
+      <c r="H243" s="35"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="35"/>
+      <c r="B244" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C244" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D235" s="35"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="19">
-        <v>1</v>
-      </c>
-      <c r="G235" s="20">
-        <v>0</v>
-      </c>
-      <c r="H235" s="35"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="35"/>
-      <c r="B236" s="7" t="s">
+      <c r="D244" s="35"/>
+      <c r="E244" s="29"/>
+      <c r="F244" s="19">
+        <v>1</v>
+      </c>
+      <c r="G244" s="20">
+        <v>0</v>
+      </c>
+      <c r="H244" s="35"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="35"/>
+      <c r="B245" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C245" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D236" s="35"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="19">
-        <v>1</v>
-      </c>
-      <c r="G236" s="20">
-        <v>0</v>
-      </c>
-      <c r="H236" s="35"/>
-    </row>
-    <row r="237" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="35"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="35"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="25"/>
-      <c r="G237" s="26"/>
-      <c r="H237" s="35"/>
-    </row>
-    <row r="238" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="35"/>
-      <c r="B238" s="38"/>
-      <c r="C238" s="39"/>
-      <c r="D238" s="35"/>
-      <c r="E238" s="40"/>
-      <c r="F238" s="41"/>
-      <c r="G238" s="41"/>
-      <c r="H238" s="35"/>
+      <c r="D245" s="35"/>
+      <c r="E245" s="29"/>
+      <c r="F245" s="19">
+        <v>1</v>
+      </c>
+      <c r="G245" s="20">
+        <v>0</v>
+      </c>
+      <c r="H245" s="35"/>
+    </row>
+    <row r="246" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="35"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="35"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="25"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="35"/>
+    </row>
+    <row r="247" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="35"/>
+      <c r="B247" s="38"/>
+      <c r="C247" s="39"/>
+      <c r="D247" s="35"/>
+      <c r="E247" s="40"/>
+      <c r="F247" s="41"/>
+      <c r="G247" s="41"/>
+      <c r="H247" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="414">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1244,6 +1244,18 @@
   </si>
   <si>
     <t>Mengeset Jobs pada Scheduler tahunan</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.master.setCurrencyExchangeRateTax</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Kurs Pajak</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.sysConfig.setLog_Device_PersonAccess</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Device - Akses Orang</t>
   </si>
 </sst>
 </file>
@@ -2022,13 +2034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5198,61 +5210,69 @@
       </c>
       <c r="H185" s="35"/>
     </row>
-    <row r="186" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
+      <c r="B186" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D186" s="35"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="24"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="19">
+        <v>1</v>
+      </c>
+      <c r="G186" s="20">
+        <v>0</v>
+      </c>
       <c r="H186" s="35"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
-      <c r="B187" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="35"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="19">
-        <v>1</v>
-      </c>
-      <c r="G187" s="20">
-        <v>0</v>
-      </c>
+      <c r="E187" s="32"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="24"/>
       <c r="H187" s="35"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="20"/>
+      <c r="F188" s="19">
+        <v>1</v>
+      </c>
+      <c r="G188" s="20">
+        <v>0</v>
+      </c>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="10"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="30"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="22"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="24"/>
       <c r="H189" s="35"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>51</v>
+        <v>412</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>93</v>
+        <v>413</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29"/>
@@ -5266,47 +5286,31 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
-      <c r="B191" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
-      <c r="F191" s="19">
-        <v>1</v>
-      </c>
-      <c r="G191" s="20">
-        <v>0</v>
-      </c>
+      <c r="F191" s="19"/>
+      <c r="G191" s="20"/>
       <c r="H191" s="35"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
-      <c r="B192" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="10"/>
       <c r="D192" s="35"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="19">
-        <v>1</v>
-      </c>
-      <c r="G192" s="20">
-        <v>0</v>
-      </c>
+      <c r="E192" s="30"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="22"/>
       <c r="H192" s="35"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
@@ -5321,10 +5325,10 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
@@ -5339,10 +5343,10 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29"/>
@@ -5357,10 +5361,10 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
@@ -5375,10 +5379,10 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29"/>
@@ -5393,10 +5397,10 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
@@ -5411,10 +5415,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
@@ -5429,10 +5433,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29"/>
@@ -5447,10 +5451,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5465,10 +5469,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29"/>
@@ -5483,10 +5487,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5501,10 +5505,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
@@ -5519,10 +5523,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5537,10 +5541,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5555,10 +5559,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5573,10 +5577,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5591,10 +5595,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5609,10 +5613,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5627,10 +5631,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
@@ -5645,10 +5649,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
@@ -5663,7 +5667,7 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>163</v>
@@ -5681,7 +5685,7 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>163</v>
@@ -5699,7 +5703,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>163</v>
@@ -5717,7 +5721,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>163</v>
@@ -5735,7 +5739,7 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>163</v>
@@ -5753,7 +5757,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>163</v>
@@ -5771,7 +5775,7 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>163</v>
@@ -5789,7 +5793,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>163</v>
@@ -5807,7 +5811,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>163</v>
@@ -5825,7 +5829,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>163</v>
@@ -5843,7 +5847,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>163</v>
@@ -5861,7 +5865,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>163</v>
@@ -5879,7 +5883,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>163</v>
@@ -5897,7 +5901,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>163</v>
@@ -5914,31 +5918,47 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="4"/>
+      <c r="B227" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="20"/>
+      <c r="F227" s="19">
+        <v>1</v>
+      </c>
+      <c r="G227" s="20">
+        <v>0</v>
+      </c>
       <c r="H227" s="35"/>
     </row>
-    <row r="228" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="10"/>
+      <c r="B228" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D228" s="35"/>
-      <c r="E228" s="30"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="22"/>
+      <c r="E228" s="29"/>
+      <c r="F228" s="19">
+        <v>1</v>
+      </c>
+      <c r="G228" s="20">
+        <v>0</v>
+      </c>
       <c r="H228" s="35"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -5952,47 +5972,31 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
-      <c r="B230" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B230" s="7"/>
+      <c r="C230" s="4"/>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
-      <c r="F230" s="19">
-        <v>1</v>
-      </c>
-      <c r="G230" s="20">
-        <v>0</v>
-      </c>
+      <c r="F230" s="19"/>
+      <c r="G230" s="20"/>
       <c r="H230" s="35"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
-      <c r="B231" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
       <c r="D231" s="35"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="19">
-        <v>1</v>
-      </c>
-      <c r="G231" s="20">
-        <v>0</v>
-      </c>
+      <c r="E231" s="30"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="22"/>
       <c r="H231" s="35"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6004,67 +6008,67 @@
       </c>
       <c r="H232" s="35"/>
     </row>
-    <row r="233" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
-      <c r="B233" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C233" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D233" s="37"/>
-      <c r="E233" s="31"/>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="35"/>
+      <c r="B233" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D233" s="35"/>
+      <c r="E233" s="29"/>
       <c r="F233" s="19">
         <v>1</v>
       </c>
       <c r="G233" s="20">
         <v>0</v>
       </c>
-      <c r="H233" s="37"/>
-    </row>
-    <row r="234" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="37"/>
-      <c r="B234" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D234" s="37"/>
-      <c r="E234" s="31"/>
+      <c r="H233" s="35"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="35"/>
+      <c r="B234" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D234" s="35"/>
+      <c r="E234" s="29"/>
       <c r="F234" s="19">
         <v>1</v>
       </c>
       <c r="G234" s="20">
         <v>0</v>
       </c>
-      <c r="H234" s="37"/>
-    </row>
-    <row r="235" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="37"/>
-      <c r="B235" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D235" s="37"/>
-      <c r="E235" s="31"/>
+      <c r="H234" s="35"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="35"/>
+      <c r="B235" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D235" s="35"/>
+      <c r="E235" s="29"/>
       <c r="F235" s="19">
         <v>1</v>
       </c>
       <c r="G235" s="20">
         <v>0</v>
       </c>
-      <c r="H235" s="37"/>
+      <c r="H235" s="35"/>
     </row>
     <row r="236" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37"/>
       <c r="B236" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D236" s="37"/>
       <c r="E236" s="31"/>
@@ -6076,67 +6080,67 @@
       </c>
       <c r="H236" s="37"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="35"/>
-      <c r="B237" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D237" s="35"/>
-      <c r="E237" s="29"/>
+    <row r="237" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="37"/>
+      <c r="B237" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D237" s="37"/>
+      <c r="E237" s="31"/>
       <c r="F237" s="19">
         <v>1</v>
       </c>
       <c r="G237" s="20">
         <v>0</v>
       </c>
-      <c r="H237" s="35"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="35"/>
-      <c r="B238" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D238" s="35"/>
-      <c r="E238" s="29"/>
+      <c r="H237" s="37"/>
+    </row>
+    <row r="238" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="37"/>
+      <c r="B238" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D238" s="37"/>
+      <c r="E238" s="31"/>
       <c r="F238" s="19">
         <v>1</v>
       </c>
       <c r="G238" s="20">
         <v>0</v>
       </c>
-      <c r="H238" s="35"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="35"/>
-      <c r="B239" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D239" s="35"/>
-      <c r="E239" s="29"/>
+      <c r="H238" s="37"/>
+    </row>
+    <row r="239" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="37"/>
+      <c r="B239" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D239" s="37"/>
+      <c r="E239" s="31"/>
       <c r="F239" s="19">
         <v>1</v>
       </c>
       <c r="G239" s="20">
         <v>0</v>
       </c>
-      <c r="H239" s="35"/>
+      <c r="H239" s="37"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29"/>
@@ -6151,10 +6155,10 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29"/>
@@ -6169,10 +6173,10 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29"/>
@@ -6187,10 +6191,10 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29"/>
@@ -6205,10 +6209,10 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29"/>
@@ -6223,10 +6227,10 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29"/>
@@ -6238,25 +6242,79 @@
       </c>
       <c r="H245" s="35"/>
     </row>
-    <row r="246" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="6"/>
+      <c r="B246" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D246" s="35"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="25"/>
-      <c r="G246" s="26"/>
+      <c r="E246" s="29"/>
+      <c r="F246" s="19">
+        <v>1</v>
+      </c>
+      <c r="G246" s="20">
+        <v>0</v>
+      </c>
       <c r="H246" s="35"/>
     </row>
-    <row r="247" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
-      <c r="B247" s="38"/>
-      <c r="C247" s="39"/>
+      <c r="B247" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D247" s="35"/>
-      <c r="E247" s="40"/>
-      <c r="F247" s="41"/>
-      <c r="G247" s="41"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="19">
+        <v>1</v>
+      </c>
+      <c r="G247" s="20">
+        <v>0</v>
+      </c>
       <c r="H247" s="35"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="35"/>
+      <c r="B248" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D248" s="35"/>
+      <c r="E248" s="29"/>
+      <c r="F248" s="19">
+        <v>1</v>
+      </c>
+      <c r="G248" s="20">
+        <v>0</v>
+      </c>
+      <c r="H248" s="35"/>
+    </row>
+    <row r="249" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="35"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="35"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="25"/>
+      <c r="G249" s="26"/>
+      <c r="H249" s="35"/>
+    </row>
+    <row r="250" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="35"/>
+      <c r="B250" s="38"/>
+      <c r="C250" s="39"/>
+      <c r="D250" s="35"/>
+      <c r="E250" s="40"/>
+      <c r="F250" s="41"/>
+      <c r="G250" s="41"/>
+      <c r="H250" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>API ini hanya boleh dijalankan melalui instance class, tidak melalui Call API (karena akan menghasilkan error disebabkan tidak dikenalnya APIWebToken)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="418">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1256,6 +1280,39 @@
   </si>
   <si>
     <t>Menyinkronkan Data Device - Akses Orang</t>
+  </si>
+  <si>
+    <t>environment.general.session.setUserSessionSysEngine</t>
+  </si>
+  <si>
+    <t>Mengeset User Session untuk SysEngine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Menginstruksikan Server Web Back End : Web Site Scraper pada situs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>fiskal.kemenkeu.go.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> untuk mendapatkan data Kurs Pajak</t>
+    </r>
+  </si>
+  <si>
+    <t>instruction.server.internal.webBackEnd.webSiteScraper.fiskal_kemenkeu_go_id.getDataExhangeRate</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1323,6 +1380,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2033,21 +2097,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C190" sqref="C190"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="16" bestFit="1" customWidth="1"/>
@@ -2260,55 +2324,49 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="D14" s="35"/>
       <c r="E14" s="29"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="35"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
-      <c r="B16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>393</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="29">
-        <v>44209</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="29">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -2320,31 +2378,41 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="D18" s="35"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="E18" s="29">
+        <v>44208</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
       <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="35"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="29"/>
@@ -2354,39 +2422,31 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>404</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="35"/>
       <c r="E21" s="29"/>
       <c r="F21" s="19"/>
       <c r="G21" s="20"/>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>405</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="29"/>
@@ -2397,10 +2457,10 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="29"/>
@@ -2411,10 +2471,10 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="29"/>
@@ -2425,10 +2485,10 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="29"/>
@@ -2438,83 +2498,77 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D27" s="35"/>
       <c r="E27" s="29"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="35"/>
     </row>
-    <row r="28" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="D29" s="35"/>
-      <c r="E29" s="29">
-        <v>44200</v>
-      </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>323</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="35"/>
       <c r="E30" s="29"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
       <c r="H30" s="35"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
-      <c r="B31" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>324</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="7" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="29">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="F32" s="19">
         <v>1</v>
@@ -2524,55 +2578,43 @@
       </c>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20">
-        <v>1</v>
-      </c>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1</v>
-      </c>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D35" s="37"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="35"/>
       <c r="E35" s="29">
         <v>44204</v>
       </c>
@@ -2582,19 +2624,19 @@
       <c r="G35" s="20">
         <v>1</v>
       </c>
-      <c r="H35" s="37"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F36" s="19">
         <v>1</v>
@@ -2604,17 +2646,17 @@
       </c>
       <c r="H36" s="37"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D37" s="35"/>
+    <row r="37" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="37"/>
       <c r="E37" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F37" s="19">
         <v>1</v>
@@ -2622,19 +2664,19 @@
       <c r="G37" s="20">
         <v>1</v>
       </c>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D38" s="35"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="37"/>
       <c r="E38" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F38" s="19">
         <v>1</v>
@@ -2642,17 +2684,17 @@
       <c r="G38" s="20">
         <v>1</v>
       </c>
-      <c r="H38" s="35"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D39" s="35"/>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" s="37"/>
       <c r="E39" s="29">
         <v>44207</v>
       </c>
@@ -2662,15 +2704,15 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="29">
@@ -2687,10 +2729,10 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="29">
@@ -2707,10 +2749,10 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="29">
@@ -2727,10 +2769,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="29">
@@ -2747,10 +2789,10 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="29">
@@ -2767,10 +2809,10 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="29">
@@ -2786,85 +2828,91 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="D46" s="35"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
+      <c r="E46" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F46" s="19">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20">
+        <v>1</v>
+      </c>
       <c r="H46" s="35"/>
     </row>
-    <row r="47" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D47" s="35"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="E47" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1</v>
+      </c>
       <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="D48" s="35"/>
-      <c r="E48" s="29"/>
+      <c r="E48" s="29">
+        <v>44207</v>
+      </c>
       <c r="F48" s="19">
         <v>1</v>
       </c>
       <c r="G48" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
-      <c r="B49" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="35"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="19">
-        <v>1</v>
-      </c>
-      <c r="G49" s="20">
-        <v>0</v>
-      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="35"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
-      <c r="B50" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>299</v>
-      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="19">
-        <v>1</v>
-      </c>
-      <c r="G50" s="20">
-        <v>0</v>
-      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="29"/>
@@ -2879,10 +2927,10 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="29"/>
@@ -2894,23 +2942,31 @@
       </c>
       <c r="H52" s="35"/>
     </row>
-    <row r="53" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D53" s="35"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="19">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0</v>
+      </c>
       <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="7" t="s">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="29"/>
@@ -2925,10 +2981,10 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="7" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="29"/>
@@ -2940,31 +2996,23 @@
       </c>
       <c r="H55" s="35"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="35"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="20">
-        <v>0</v>
-      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
@@ -2979,10 +3027,10 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="29"/>
@@ -2997,10 +3045,10 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="7" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="29"/>
@@ -3015,10 +3063,10 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
@@ -3033,10 +3081,10 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="29"/>
@@ -3051,10 +3099,10 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3069,10 +3117,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3087,10 +3135,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3105,10 +3153,10 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -3123,10 +3171,10 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>382</v>
+        <v>128</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3141,10 +3189,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="29"/>
@@ -3159,10 +3207,10 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3177,10 +3225,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3195,10 +3243,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3213,10 +3261,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3231,10 +3279,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3249,10 +3297,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3267,10 +3315,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3285,10 +3333,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3303,10 +3351,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3321,10 +3369,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="29"/>
@@ -3339,10 +3387,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="29"/>
@@ -3357,10 +3405,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3375,10 +3423,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3393,10 +3441,10 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29"/>
@@ -3411,10 +3459,10 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29"/>
@@ -3429,10 +3477,10 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29"/>
@@ -3447,10 +3495,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3465,10 +3513,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3483,10 +3531,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3501,10 +3549,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="29"/>
@@ -3519,10 +3567,10 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3537,10 +3585,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29"/>
@@ -3552,43 +3600,49 @@
       </c>
       <c r="H89" s="35"/>
     </row>
-    <row r="90" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
+      <c r="B90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="D90" s="35"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="19">
+        <v>1</v>
+      </c>
+      <c r="G90" s="20">
+        <v>0</v>
+      </c>
       <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D91" s="35"/>
-      <c r="E91" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E91" s="29"/>
       <c r="F91" s="19">
         <v>1</v>
       </c>
       <c r="G91" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3600,49 +3654,43 @@
       </c>
       <c r="H92" s="35"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
-      <c r="B93" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="35"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="19">
-        <v>1</v>
-      </c>
-      <c r="G93" s="20">
-        <v>0</v>
-      </c>
+      <c r="E93" s="32"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D94" s="35"/>
-      <c r="E94" s="29"/>
+      <c r="E94" s="29">
+        <v>44188</v>
+      </c>
       <c r="F94" s="19">
         <v>1</v>
       </c>
       <c r="G94" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="29"/>
@@ -3654,23 +3702,31 @@
       </c>
       <c r="H95" s="35"/>
     </row>
-    <row r="96" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+      <c r="B96" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="D96" s="35"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="19">
+        <v>1</v>
+      </c>
+      <c r="G96" s="20">
+        <v>0</v>
+      </c>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3685,10 +3741,10 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="29"/>
@@ -3700,31 +3756,23 @@
       </c>
       <c r="H98" s="35"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
-      <c r="B99" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="35"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="19">
-        <v>1</v>
-      </c>
-      <c r="G99" s="20">
-        <v>0</v>
-      </c>
+      <c r="E99" s="32"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="24"/>
       <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="29"/>
@@ -3739,10 +3787,10 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="29"/>
@@ -3754,23 +3802,31 @@
       </c>
       <c r="H101" s="35"/>
     </row>
-    <row r="102" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
+      <c r="B102" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="D102" s="35"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="24"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="19">
+        <v>1</v>
+      </c>
+      <c r="G102" s="20">
+        <v>0</v>
+      </c>
       <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="29"/>
@@ -3782,41 +3838,41 @@
       </c>
       <c r="H103" s="35"/>
     </row>
-    <row r="104" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
+      <c r="B104" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="D104" s="35"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="24"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="19">
+        <v>1</v>
+      </c>
+      <c r="G104" s="20">
+        <v>0</v>
+      </c>
       <c r="H104" s="35"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
-      <c r="B105" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="35"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="19">
-        <v>1</v>
-      </c>
-      <c r="G105" s="20">
-        <v>0</v>
-      </c>
+      <c r="E105" s="32"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="24"/>
       <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29"/>
@@ -3841,10 +3897,10 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29"/>
@@ -3856,41 +3912,41 @@
       </c>
       <c r="H108" s="35"/>
     </row>
-    <row r="109" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
+      <c r="B109" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="D109" s="35"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="19">
+        <v>1</v>
+      </c>
+      <c r="G109" s="20">
+        <v>0</v>
+      </c>
       <c r="H109" s="35"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
-      <c r="B110" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="35"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="19">
-        <v>1</v>
-      </c>
-      <c r="G110" s="20">
-        <v>0</v>
-      </c>
+      <c r="E110" s="32"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="24"/>
       <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29"/>
@@ -3902,31 +3958,23 @@
       </c>
       <c r="H111" s="35"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
-      <c r="B112" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="35"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="19">
-        <v>1</v>
-      </c>
-      <c r="G112" s="20">
-        <v>0</v>
-      </c>
+      <c r="E112" s="32"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="24"/>
       <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29"/>
@@ -3941,10 +3989,10 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="29"/>
@@ -3959,10 +4007,10 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29"/>
@@ -3977,10 +4025,10 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29"/>
@@ -3995,10 +4043,10 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29"/>
@@ -4013,10 +4061,10 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29"/>
@@ -4031,10 +4079,10 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29"/>
@@ -4049,10 +4097,10 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29"/>
@@ -4067,10 +4115,10 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29"/>
@@ -4085,10 +4133,10 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29"/>
@@ -4103,10 +4151,10 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29"/>
@@ -4121,10 +4169,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29"/>
@@ -4139,10 +4187,10 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="29"/>
@@ -4157,10 +4205,10 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29"/>
@@ -4175,10 +4223,10 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29"/>
@@ -4193,10 +4241,10 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29"/>
@@ -4211,10 +4259,10 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29"/>
@@ -4229,10 +4277,10 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29"/>
@@ -4244,23 +4292,31 @@
       </c>
       <c r="H130" s="35"/>
     </row>
-    <row r="131" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
+      <c r="B131" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D131" s="35"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="24"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="19">
+        <v>1</v>
+      </c>
+      <c r="G131" s="20">
+        <v>0</v>
+      </c>
       <c r="H131" s="35"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29"/>
@@ -4275,10 +4331,10 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29"/>
@@ -4303,10 +4359,10 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29"/>
@@ -4321,10 +4377,10 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="29"/>
@@ -4336,31 +4392,23 @@
       </c>
       <c r="H136" s="35"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
-      <c r="B137" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="35"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="19">
-        <v>1</v>
-      </c>
-      <c r="G137" s="20">
-        <v>0</v>
-      </c>
+      <c r="E137" s="32"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="24"/>
       <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29"/>
@@ -4375,10 +4423,10 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="29"/>
@@ -4392,95 +4440,89 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="4"/>
+      <c r="B140" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="20"/>
+      <c r="F140" s="19">
+        <v>1</v>
+      </c>
+      <c r="G140" s="20">
+        <v>0</v>
+      </c>
       <c r="H140" s="35"/>
     </row>
-    <row r="141" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
+      <c r="B141" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D141" s="35"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="22"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="19">
+        <v>1</v>
+      </c>
+      <c r="G141" s="20">
+        <v>0</v>
+      </c>
       <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="D142" s="35"/>
-      <c r="E142" s="29">
-        <v>44207</v>
-      </c>
+      <c r="E142" s="29"/>
       <c r="F142" s="19">
         <v>1</v>
       </c>
       <c r="G142" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
-      <c r="B143" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="4"/>
       <c r="D143" s="35"/>
-      <c r="E143" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F143" s="19">
-        <v>1</v>
-      </c>
-      <c r="G143" s="20">
-        <v>1</v>
-      </c>
+      <c r="E143" s="29"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="20"/>
       <c r="H143" s="35"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
-      <c r="B144" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="10"/>
       <c r="D144" s="35"/>
-      <c r="E144" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F144" s="19">
-        <v>1</v>
-      </c>
-      <c r="G144" s="20">
-        <v>1</v>
-      </c>
+      <c r="E144" s="30"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="22"/>
       <c r="H144" s="35"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="F145" s="19">
         <v>1</v>
@@ -4493,10 +4535,10 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="29">
@@ -4513,10 +4555,10 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
@@ -4533,10 +4575,10 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
@@ -4553,10 +4595,10 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29">
@@ -4573,10 +4615,10 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D150" s="35"/>
       <c r="E150" s="29">
@@ -4593,10 +4635,10 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29">
@@ -4613,10 +4655,10 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
@@ -4633,10 +4675,10 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="29">
@@ -4653,10 +4695,10 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
@@ -4673,10 +4715,10 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29">
@@ -4693,10 +4735,10 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
@@ -4713,10 +4755,10 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
@@ -4733,10 +4775,10 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -4753,10 +4795,10 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -4773,10 +4815,10 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -4793,10 +4835,10 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -4812,85 +4854,91 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="4"/>
+      <c r="B162" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D162" s="35"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="20"/>
+      <c r="E162" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="20">
+        <v>1</v>
+      </c>
       <c r="H162" s="35"/>
     </row>
-    <row r="163" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="10"/>
+      <c r="B163" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D163" s="35"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="22"/>
+      <c r="E163" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F163" s="19">
+        <v>1</v>
+      </c>
+      <c r="G163" s="20">
+        <v>1</v>
+      </c>
       <c r="H163" s="35"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D164" s="35"/>
-      <c r="E164" s="29"/>
+      <c r="E164" s="29">
+        <v>44211</v>
+      </c>
       <c r="F164" s="19">
         <v>1</v>
       </c>
       <c r="G164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="35"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
-      <c r="B165" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="4"/>
       <c r="D165" s="35"/>
       <c r="E165" s="29"/>
-      <c r="F165" s="19">
-        <v>1</v>
-      </c>
-      <c r="G165" s="20">
-        <v>0</v>
-      </c>
+      <c r="F165" s="19"/>
+      <c r="G165" s="20"/>
       <c r="H165" s="35"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
-      <c r="B166" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="10"/>
       <c r="D166" s="35"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="19">
-        <v>1</v>
-      </c>
-      <c r="G166" s="20">
-        <v>0</v>
-      </c>
+      <c r="E166" s="30"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="22"/>
       <c r="H166" s="35"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29"/>
@@ -4905,10 +4953,10 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29"/>
@@ -4923,10 +4971,10 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29"/>
@@ -4941,10 +4989,10 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29"/>
@@ -4959,10 +5007,10 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29"/>
@@ -4977,10 +5025,10 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29"/>
@@ -4995,10 +5043,10 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29"/>
@@ -5013,10 +5061,10 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
@@ -5031,10 +5079,10 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29"/>
@@ -5049,10 +5097,10 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29"/>
@@ -5067,10 +5115,10 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29"/>
@@ -5085,10 +5133,10 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -5103,10 +5151,10 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
@@ -5121,10 +5169,10 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29"/>
@@ -5139,10 +5187,10 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5157,10 +5205,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5174,31 +5222,47 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="4"/>
+      <c r="B183" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="20"/>
+      <c r="F183" s="19">
+        <v>1</v>
+      </c>
+      <c r="G183" s="20">
+        <v>0</v>
+      </c>
       <c r="H183" s="35"/>
     </row>
-    <row r="184" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="10"/>
+      <c r="B184" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D184" s="35"/>
-      <c r="E184" s="30"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="22"/>
+      <c r="E184" s="29"/>
+      <c r="F184" s="19">
+        <v>1</v>
+      </c>
+      <c r="G184" s="20">
+        <v>0</v>
+      </c>
       <c r="H184" s="35"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>309</v>
+        <v>48</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5212,39 +5276,31 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
-      <c r="B186" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="35"/>
       <c r="E186" s="29"/>
-      <c r="F186" s="19">
-        <v>1</v>
-      </c>
-      <c r="G186" s="20">
-        <v>0</v>
-      </c>
+      <c r="F186" s="19"/>
+      <c r="G186" s="20"/>
       <c r="H186" s="35"/>
     </row>
-    <row r="187" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="12"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="10"/>
       <c r="D187" s="35"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="24"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="22"/>
       <c r="H187" s="35"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
@@ -5256,61 +5312,69 @@
       </c>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="12"/>
+      <c r="B189" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D189" s="35"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="24"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="19">
+        <v>1</v>
+      </c>
+      <c r="G189" s="20">
+        <v>0</v>
+      </c>
       <c r="H189" s="35"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
-      <c r="B190" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="B190" s="11"/>
+      <c r="C190" s="12"/>
       <c r="D190" s="35"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="19">
-        <v>1</v>
-      </c>
-      <c r="G190" s="20">
-        <v>0</v>
-      </c>
+      <c r="E190" s="32"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="24"/>
       <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="20"/>
+      <c r="F191" s="19">
+        <v>1</v>
+      </c>
+      <c r="G191" s="20">
+        <v>0</v>
+      </c>
       <c r="H191" s="35"/>
     </row>
-    <row r="192" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="10"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="35"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="22"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="24"/>
       <c r="H192" s="35"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>51</v>
+        <v>412</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>93</v>
+        <v>413</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
@@ -5324,47 +5388,31 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
-      <c r="B194" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
-      <c r="F194" s="19">
-        <v>1</v>
-      </c>
-      <c r="G194" s="20">
-        <v>0</v>
-      </c>
+      <c r="F194" s="19"/>
+      <c r="G194" s="20"/>
       <c r="H194" s="35"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
-      <c r="B195" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="B195" s="9"/>
+      <c r="C195" s="10"/>
       <c r="D195" s="35"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="19">
-        <v>1</v>
-      </c>
-      <c r="G195" s="20">
-        <v>0</v>
-      </c>
+      <c r="E195" s="30"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="22"/>
       <c r="H195" s="35"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
@@ -5379,10 +5427,10 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29"/>
@@ -5397,10 +5445,10 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
@@ -5415,10 +5463,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
@@ -5433,10 +5481,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29"/>
@@ -5451,10 +5499,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5469,10 +5517,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29"/>
@@ -5487,10 +5535,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5505,10 +5553,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
@@ -5523,10 +5571,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5541,10 +5589,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5559,10 +5607,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5577,10 +5625,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5595,10 +5643,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5613,10 +5661,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5631,10 +5679,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
@@ -5649,10 +5697,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
@@ -5667,10 +5715,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
@@ -5685,10 +5733,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5703,10 +5751,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5721,7 +5769,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>163</v>
@@ -5739,7 +5787,7 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>163</v>
@@ -5757,7 +5805,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>163</v>
@@ -5775,7 +5823,7 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>163</v>
@@ -5793,7 +5841,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>163</v>
@@ -5811,7 +5859,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>163</v>
@@ -5829,7 +5877,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>163</v>
@@ -5847,7 +5895,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>163</v>
@@ -5865,7 +5913,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>163</v>
@@ -5883,7 +5931,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>163</v>
@@ -5901,7 +5949,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>163</v>
@@ -5919,7 +5967,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>163</v>
@@ -5937,7 +5985,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>163</v>
@@ -5955,7 +6003,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>163</v>
@@ -5972,31 +6020,47 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="4"/>
+      <c r="B230" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="20"/>
+      <c r="F230" s="19">
+        <v>1</v>
+      </c>
+      <c r="G230" s="20">
+        <v>0</v>
+      </c>
       <c r="H230" s="35"/>
     </row>
-    <row r="231" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="10"/>
+      <c r="B231" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D231" s="35"/>
-      <c r="E231" s="30"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="22"/>
+      <c r="E231" s="29"/>
+      <c r="F231" s="19">
+        <v>1</v>
+      </c>
+      <c r="G231" s="20">
+        <v>0</v>
+      </c>
       <c r="H231" s="35"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6010,47 +6074,31 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
-      <c r="B233" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B233" s="7"/>
+      <c r="C233" s="4"/>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
-      <c r="F233" s="19">
-        <v>1</v>
-      </c>
-      <c r="G233" s="20">
-        <v>0</v>
-      </c>
+      <c r="F233" s="19"/>
+      <c r="G233" s="20"/>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
-      <c r="B234" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="B234" s="9"/>
+      <c r="C234" s="10"/>
       <c r="D234" s="35"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="19">
-        <v>1</v>
-      </c>
-      <c r="G234" s="20">
-        <v>0</v>
-      </c>
+      <c r="E234" s="30"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="22"/>
       <c r="H234" s="35"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
@@ -6062,67 +6110,67 @@
       </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="37"/>
-      <c r="B236" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D236" s="37"/>
-      <c r="E236" s="31"/>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="35"/>
+      <c r="B236" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D236" s="35"/>
+      <c r="E236" s="29"/>
       <c r="F236" s="19">
         <v>1</v>
       </c>
       <c r="G236" s="20">
         <v>0</v>
       </c>
-      <c r="H236" s="37"/>
-    </row>
-    <row r="237" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="37"/>
-      <c r="B237" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D237" s="37"/>
-      <c r="E237" s="31"/>
+      <c r="H236" s="35"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="35"/>
+      <c r="B237" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D237" s="35"/>
+      <c r="E237" s="29"/>
       <c r="F237" s="19">
         <v>1</v>
       </c>
       <c r="G237" s="20">
         <v>0</v>
       </c>
-      <c r="H237" s="37"/>
-    </row>
-    <row r="238" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
-      <c r="B238" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D238" s="37"/>
-      <c r="E238" s="31"/>
+      <c r="H237" s="35"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="35"/>
+      <c r="B238" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D238" s="35"/>
+      <c r="E238" s="29"/>
       <c r="F238" s="19">
         <v>1</v>
       </c>
       <c r="G238" s="20">
         <v>0</v>
       </c>
-      <c r="H238" s="37"/>
+      <c r="H238" s="35"/>
     </row>
     <row r="239" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37"/>
       <c r="B239" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D239" s="37"/>
       <c r="E239" s="31"/>
@@ -6134,67 +6182,67 @@
       </c>
       <c r="H239" s="37"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="35"/>
-      <c r="B240" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D240" s="35"/>
-      <c r="E240" s="29"/>
+    <row r="240" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="37"/>
+      <c r="B240" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D240" s="37"/>
+      <c r="E240" s="31"/>
       <c r="F240" s="19">
         <v>1</v>
       </c>
       <c r="G240" s="20">
         <v>0</v>
       </c>
-      <c r="H240" s="35"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="35"/>
-      <c r="B241" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D241" s="35"/>
-      <c r="E241" s="29"/>
+      <c r="H240" s="37"/>
+    </row>
+    <row r="241" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="37"/>
+      <c r="B241" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D241" s="37"/>
+      <c r="E241" s="31"/>
       <c r="F241" s="19">
         <v>1</v>
       </c>
       <c r="G241" s="20">
         <v>0</v>
       </c>
-      <c r="H241" s="35"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="35"/>
-      <c r="B242" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D242" s="35"/>
-      <c r="E242" s="29"/>
+      <c r="H241" s="37"/>
+    </row>
+    <row r="242" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="37"/>
+      <c r="B242" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D242" s="37"/>
+      <c r="E242" s="31"/>
       <c r="F242" s="19">
         <v>1</v>
       </c>
       <c r="G242" s="20">
         <v>0</v>
       </c>
-      <c r="H242" s="35"/>
+      <c r="H242" s="37"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29"/>
@@ -6209,10 +6257,10 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29"/>
@@ -6227,10 +6275,10 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29"/>
@@ -6245,10 +6293,10 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29"/>
@@ -6263,10 +6311,10 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29"/>
@@ -6281,10 +6329,10 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -6296,25 +6344,79 @@
       </c>
       <c r="H248" s="35"/>
     </row>
-    <row r="249" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="6"/>
+      <c r="B249" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D249" s="35"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="25"/>
-      <c r="G249" s="26"/>
+      <c r="E249" s="29"/>
+      <c r="F249" s="19">
+        <v>1</v>
+      </c>
+      <c r="G249" s="20">
+        <v>0</v>
+      </c>
       <c r="H249" s="35"/>
     </row>
-    <row r="250" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
-      <c r="B250" s="38"/>
-      <c r="C250" s="39"/>
+      <c r="B250" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D250" s="35"/>
-      <c r="E250" s="40"/>
-      <c r="F250" s="41"/>
-      <c r="G250" s="41"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="19">
+        <v>1</v>
+      </c>
+      <c r="G250" s="20">
+        <v>0</v>
+      </c>
       <c r="H250" s="35"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="35"/>
+      <c r="B251" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D251" s="35"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="19">
+        <v>1</v>
+      </c>
+      <c r="G251" s="20">
+        <v>0</v>
+      </c>
+      <c r="H251" s="35"/>
+    </row>
+    <row r="252" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="35"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="35"/>
+      <c r="E252" s="33"/>
+      <c r="F252" s="25"/>
+      <c r="G252" s="26"/>
+      <c r="H252" s="35"/>
+    </row>
+    <row r="253" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="35"/>
+      <c r="B253" s="38"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="35"/>
+      <c r="E253" s="40"/>
+      <c r="F253" s="41"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6324,5 +6426,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -2104,7 +2104,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="422">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1313,6 +1313,60 @@
   </si>
   <si>
     <t>instruction.server.internal.webBackEnd.webSiteScraper.fiskal_kemenkeu_go_id.getDataExhangeRate</t>
+  </si>
+  <si>
+    <t>instruction.server.internal.webBackEnd.webSiteScraper.www_bi_go_id.getDataCurrentExhangeRate</t>
+  </si>
+  <si>
+    <t>instruction.server.internal.webBackEnd.webSiteScraper.www_bi_go_id.getDataExchangeRateTimeSeriesFromOfflineFile</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Menginstruksikan Server Web Back End : Web Site Scraper pada situs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.bi.go.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> untuk mendapatkan data Kurs Bank Indonesia hari ini</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Menginstruksikan Server Web Back End : Web Site Scraper pada file downloadan offline situs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.bi.go.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> untuk mendapatkan data timeseries Kurs Bank Indonesia</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1633,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1793,6 +1847,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,13 +2155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2299,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="7" t="s">
         <v>1</v>
@@ -2408,11 +2465,11 @@
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
-      <c r="B20" s="7" t="s">
-        <v>417</v>
+      <c r="B20" s="54" t="s">
+        <v>418</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="29"/>
@@ -2420,61 +2477,61 @@
       <c r="G20" s="20"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D21" s="35"/>
       <c r="E21" s="29"/>
       <c r="F21" s="19"/>
       <c r="G21" s="20"/>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="D22" s="35"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>403</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="35"/>
       <c r="E23" s="29"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
-      <c r="B24" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>404</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="29"/>
@@ -2485,10 +2542,10 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="29"/>
@@ -2499,10 +2556,10 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="29"/>
@@ -2513,10 +2570,10 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="29"/>
@@ -2527,10 +2584,10 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="29"/>
@@ -2540,121 +2597,109 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D30" s="35"/>
       <c r="E30" s="29"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
       <c r="H30" s="35"/>
     </row>
-    <row r="31" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="D31" s="35"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
-      <c r="B32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="29">
-        <v>44200</v>
-      </c>
-      <c r="F32" s="19">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>323</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>324</v>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="D34" s="35"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
+      <c r="E34" s="29">
+        <v>44200</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
       <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20">
-        <v>1</v>
-      </c>
-      <c r="H35" s="35"/>
-    </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20">
-        <v>1</v>
-      </c>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="29">
         <v>44204</v>
       </c>
@@ -2664,15 +2709,15 @@
       <c r="G37" s="20">
         <v>1</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="29">
@@ -2689,14 +2734,14 @@
     <row r="39" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F39" s="19">
         <v>1</v>
@@ -2706,17 +2751,17 @@
       </c>
       <c r="H39" s="37"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D40" s="35"/>
+    <row r="40" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="37"/>
       <c r="E40" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F40" s="19">
         <v>1</v>
@@ -2724,17 +2769,17 @@
       <c r="G40" s="20">
         <v>1</v>
       </c>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D41" s="35"/>
+      <c r="H40" s="37"/>
+    </row>
+    <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" s="37"/>
       <c r="E41" s="29">
         <v>44207</v>
       </c>
@@ -2744,15 +2789,15 @@
       <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="35"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="29">
@@ -2769,10 +2814,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="29">
@@ -2789,10 +2834,10 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="29">
@@ -2809,10 +2854,10 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="29">
@@ -2829,10 +2874,10 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="29">
@@ -2849,10 +2894,10 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="29">
@@ -2869,10 +2914,10 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="29">
@@ -2888,67 +2933,71 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D49" s="35"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20"/>
+      <c r="E49" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20">
+        <v>1</v>
+      </c>
       <c r="H49" s="35"/>
     </row>
-    <row r="50" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D50" s="35"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="E50" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F50" s="19">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
       <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="35"/>
       <c r="E51" s="29"/>
-      <c r="F51" s="19">
-        <v>1</v>
-      </c>
-      <c r="G51" s="20">
-        <v>0</v>
-      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="35"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="19">
-        <v>1</v>
-      </c>
-      <c r="G52" s="20">
-        <v>0</v>
-      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="29"/>
@@ -2963,10 +3012,10 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="29"/>
@@ -2981,10 +3030,10 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="29"/>
@@ -2996,23 +3045,31 @@
       </c>
       <c r="H55" s="35"/>
     </row>
-    <row r="56" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D56" s="35"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
       <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
@@ -3024,31 +3081,23 @@
       </c>
       <c r="H57" s="35"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
-      <c r="B58" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="35"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="19">
-        <v>1</v>
-      </c>
-      <c r="G58" s="20">
-        <v>0</v>
-      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="7" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="29"/>
@@ -3063,10 +3112,10 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
@@ -3081,10 +3130,10 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="7" t="s">
-        <v>96</v>
+        <v>311</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="29"/>
@@ -3099,10 +3148,10 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3117,10 +3166,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3135,10 +3184,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3153,10 +3202,10 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -3171,10 +3220,10 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3189,10 +3238,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="29"/>
@@ -3207,10 +3256,10 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3225,10 +3274,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3243,10 +3292,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3261,10 +3310,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3279,10 +3328,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3297,10 +3346,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3315,10 +3364,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3333,10 +3382,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3351,10 +3400,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3369,10 +3418,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="29"/>
@@ -3387,10 +3436,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="29"/>
@@ -3405,10 +3454,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3423,10 +3472,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3441,10 +3490,10 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29"/>
@@ -3459,10 +3508,10 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29"/>
@@ -3477,10 +3526,10 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29"/>
@@ -3495,10 +3544,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3513,10 +3562,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3531,10 +3580,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3549,10 +3598,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="29"/>
@@ -3567,10 +3616,10 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3585,10 +3634,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29"/>
@@ -3603,10 +3652,10 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="29"/>
@@ -3621,10 +3670,10 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29"/>
@@ -3639,10 +3688,10 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3654,79 +3703,79 @@
       </c>
       <c r="H92" s="35"/>
     </row>
-    <row r="93" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
+      <c r="B93" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="D93" s="35"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="19">
+        <v>1</v>
+      </c>
+      <c r="G93" s="20">
+        <v>0</v>
+      </c>
       <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D94" s="35"/>
-      <c r="E94" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E94" s="29"/>
       <c r="F94" s="19">
         <v>1</v>
       </c>
       <c r="G94" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="35"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
-      <c r="B95" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="35"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="19">
-        <v>1</v>
-      </c>
-      <c r="G95" s="20">
-        <v>0</v>
-      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D96" s="35"/>
-      <c r="E96" s="29"/>
+      <c r="E96" s="29">
+        <v>44188</v>
+      </c>
       <c r="F96" s="19">
         <v>1</v>
       </c>
       <c r="G96" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3741,10 +3790,10 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="29"/>
@@ -3756,23 +3805,31 @@
       </c>
       <c r="H98" s="35"/>
     </row>
-    <row r="99" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
+      <c r="B99" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="D99" s="35"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="24"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="19">
+        <v>1</v>
+      </c>
+      <c r="G99" s="20">
+        <v>0</v>
+      </c>
       <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="29"/>
@@ -3784,31 +3841,23 @@
       </c>
       <c r="H100" s="35"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
-      <c r="B101" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="35"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="19">
-        <v>1</v>
-      </c>
-      <c r="G101" s="20">
-        <v>0</v>
-      </c>
+      <c r="E101" s="32"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="24"/>
       <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
       <c r="B102" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="29"/>
@@ -3823,10 +3872,10 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="29"/>
@@ -3841,10 +3890,10 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
       <c r="B104" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="29"/>
@@ -3856,23 +3905,31 @@
       </c>
       <c r="H104" s="35"/>
     </row>
-    <row r="105" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
+      <c r="B105" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="D105" s="35"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="24"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="19">
+        <v>1</v>
+      </c>
+      <c r="G105" s="20">
+        <v>0</v>
+      </c>
       <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29"/>
@@ -3897,10 +3954,10 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29"/>
@@ -3912,41 +3969,41 @@
       </c>
       <c r="H108" s="35"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
-      <c r="B109" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="35"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="19">
-        <v>1</v>
-      </c>
-      <c r="G109" s="20">
-        <v>0</v>
-      </c>
+      <c r="E109" s="32"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="24"/>
       <c r="H109" s="35"/>
     </row>
-    <row r="110" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
+      <c r="B110" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D110" s="35"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="24"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="19">
+        <v>1</v>
+      </c>
+      <c r="G110" s="20">
+        <v>0</v>
+      </c>
       <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29"/>
@@ -3971,10 +4028,10 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29"/>
@@ -3986,31 +4043,23 @@
       </c>
       <c r="H113" s="35"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
-      <c r="B114" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="35"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="19">
-        <v>1</v>
-      </c>
-      <c r="G114" s="20">
-        <v>0</v>
-      </c>
+      <c r="E114" s="32"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="24"/>
       <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29"/>
@@ -4025,10 +4074,10 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29"/>
@@ -4043,10 +4092,10 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29"/>
@@ -4061,10 +4110,10 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29"/>
@@ -4079,10 +4128,10 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29"/>
@@ -4097,10 +4146,10 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29"/>
@@ -4115,10 +4164,10 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29"/>
@@ -4133,10 +4182,10 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29"/>
@@ -4151,10 +4200,10 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29"/>
@@ -4169,10 +4218,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29"/>
@@ -4187,10 +4236,10 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="29"/>
@@ -4205,10 +4254,10 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29"/>
@@ -4223,10 +4272,10 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29"/>
@@ -4241,10 +4290,10 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29"/>
@@ -4259,10 +4308,10 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29"/>
@@ -4277,10 +4326,10 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29"/>
@@ -4295,10 +4344,10 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
       <c r="B131" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="29"/>
@@ -4313,10 +4362,10 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29"/>
@@ -4331,10 +4380,10 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29"/>
@@ -4346,23 +4395,31 @@
       </c>
       <c r="H133" s="35"/>
     </row>
-    <row r="134" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
+      <c r="B134" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="D134" s="35"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="24"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="19">
+        <v>1</v>
+      </c>
+      <c r="G134" s="20">
+        <v>0</v>
+      </c>
       <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29"/>
@@ -4374,41 +4431,41 @@
       </c>
       <c r="H135" s="35"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
-      <c r="B136" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="35"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="19">
-        <v>1</v>
-      </c>
-      <c r="G136" s="20">
-        <v>0</v>
-      </c>
+      <c r="E136" s="32"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="24"/>
       <c r="H136" s="35"/>
     </row>
-    <row r="137" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
+      <c r="B137" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="D137" s="35"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="24"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="19">
+        <v>1</v>
+      </c>
+      <c r="G137" s="20">
+        <v>0</v>
+      </c>
       <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29"/>
@@ -4420,31 +4477,23 @@
       </c>
       <c r="H138" s="35"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
-      <c r="B139" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="35"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="19">
-        <v>1</v>
-      </c>
-      <c r="G139" s="20">
-        <v>0</v>
-      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="24"/>
       <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29"/>
@@ -4459,10 +4508,10 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29"/>
@@ -4477,10 +4526,10 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29"/>
@@ -4494,75 +4543,71 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="4"/>
+      <c r="B143" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D143" s="35"/>
       <c r="E143" s="29"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="20"/>
+      <c r="F143" s="19">
+        <v>1</v>
+      </c>
+      <c r="G143" s="20">
+        <v>0</v>
+      </c>
       <c r="H143" s="35"/>
     </row>
-    <row r="144" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="10"/>
+      <c r="B144" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D144" s="35"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="22"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="19">
+        <v>1</v>
+      </c>
+      <c r="G144" s="20">
+        <v>0</v>
+      </c>
       <c r="H144" s="35"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
-      <c r="B145" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="4"/>
       <c r="D145" s="35"/>
-      <c r="E145" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F145" s="19">
-        <v>1</v>
-      </c>
-      <c r="G145" s="20">
-        <v>1</v>
-      </c>
+      <c r="E145" s="29"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="20"/>
       <c r="H145" s="35"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
-      <c r="B146" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="10"/>
       <c r="D146" s="35"/>
-      <c r="E146" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F146" s="19">
-        <v>1</v>
-      </c>
-      <c r="G146" s="20">
-        <v>1</v>
-      </c>
+      <c r="E146" s="30"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="22"/>
       <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="F147" s="19">
         <v>1</v>
@@ -4575,10 +4620,10 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
@@ -4595,10 +4640,10 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29">
@@ -4615,10 +4660,10 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D150" s="35"/>
       <c r="E150" s="29">
@@ -4635,10 +4680,10 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29">
@@ -4655,10 +4700,10 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
@@ -4675,10 +4720,10 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="29">
@@ -4695,10 +4740,10 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
@@ -4715,10 +4760,10 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29">
@@ -4735,10 +4780,10 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
@@ -4755,10 +4800,10 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
@@ -4775,10 +4820,10 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -4795,10 +4840,10 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -4815,10 +4860,10 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -4835,10 +4880,10 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -4855,10 +4900,10 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -4875,10 +4920,10 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -4895,10 +4940,10 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -4914,67 +4959,71 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="4"/>
+      <c r="B165" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D165" s="35"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="20"/>
+      <c r="E165" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F165" s="19">
+        <v>1</v>
+      </c>
+      <c r="G165" s="20">
+        <v>1</v>
+      </c>
       <c r="H165" s="35"/>
     </row>
-    <row r="166" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="10"/>
+      <c r="B166" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D166" s="35"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="22"/>
+      <c r="E166" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F166" s="19">
+        <v>1</v>
+      </c>
+      <c r="G166" s="20">
+        <v>1</v>
+      </c>
       <c r="H166" s="35"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
-      <c r="B167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="4"/>
       <c r="D167" s="35"/>
       <c r="E167" s="29"/>
-      <c r="F167" s="19">
-        <v>1</v>
-      </c>
-      <c r="G167" s="20">
-        <v>0</v>
-      </c>
+      <c r="F167" s="19"/>
+      <c r="G167" s="20"/>
       <c r="H167" s="35"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
-      <c r="B168" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="10"/>
       <c r="D168" s="35"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="19">
-        <v>1</v>
-      </c>
-      <c r="G168" s="20">
-        <v>0</v>
-      </c>
+      <c r="E168" s="30"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="22"/>
       <c r="H168" s="35"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29"/>
@@ -4989,10 +5038,10 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29"/>
@@ -5007,10 +5056,10 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29"/>
@@ -5025,10 +5074,10 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29"/>
@@ -5043,10 +5092,10 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29"/>
@@ -5061,10 +5110,10 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
@@ -5079,10 +5128,10 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29"/>
@@ -5097,10 +5146,10 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29"/>
@@ -5115,10 +5164,10 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29"/>
@@ -5133,10 +5182,10 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -5151,10 +5200,10 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
@@ -5169,10 +5218,10 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29"/>
@@ -5187,10 +5236,10 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5205,10 +5254,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5223,10 +5272,10 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
@@ -5241,10 +5290,10 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29"/>
@@ -5259,10 +5308,10 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5276,77 +5325,85 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="4"/>
+      <c r="B186" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="20"/>
+      <c r="F186" s="19">
+        <v>1</v>
+      </c>
+      <c r="G186" s="20">
+        <v>0</v>
+      </c>
       <c r="H186" s="35"/>
     </row>
-    <row r="187" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="10"/>
+      <c r="B187" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D187" s="35"/>
-      <c r="E187" s="30"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="22"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="19">
+        <v>1</v>
+      </c>
+      <c r="G187" s="20">
+        <v>0</v>
+      </c>
       <c r="H187" s="35"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
-      <c r="B188" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
-      <c r="F188" s="19">
-        <v>1</v>
-      </c>
-      <c r="G188" s="20">
-        <v>0</v>
-      </c>
+      <c r="F188" s="19"/>
+      <c r="G188" s="20"/>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="10"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="19">
-        <v>1</v>
-      </c>
-      <c r="G189" s="20">
-        <v>0</v>
-      </c>
+      <c r="E189" s="30"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="22"/>
       <c r="H189" s="35"/>
     </row>
-    <row r="190" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="12"/>
+      <c r="B190" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D190" s="35"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="24"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="20">
+        <v>0</v>
+      </c>
       <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
@@ -5371,10 +5428,10 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>412</v>
+        <v>102</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
@@ -5386,69 +5443,61 @@
       </c>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="4"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="12"/>
       <c r="D194" s="35"/>
-      <c r="E194" s="29"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="20"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
       <c r="H194" s="35"/>
     </row>
-    <row r="195" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="10"/>
+      <c r="B195" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D195" s="35"/>
-      <c r="E195" s="30"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="22"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="19">
+        <v>1</v>
+      </c>
+      <c r="G195" s="20">
+        <v>0</v>
+      </c>
       <c r="H195" s="35"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
-      <c r="B196" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
-      <c r="F196" s="19">
-        <v>1</v>
-      </c>
-      <c r="G196" s="20">
-        <v>0</v>
-      </c>
+      <c r="F196" s="19"/>
+      <c r="G196" s="20"/>
       <c r="H196" s="35"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
-      <c r="B197" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B197" s="9"/>
+      <c r="C197" s="10"/>
       <c r="D197" s="35"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="19">
-        <v>1</v>
-      </c>
-      <c r="G197" s="20">
-        <v>0</v>
-      </c>
+      <c r="E197" s="30"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="22"/>
       <c r="H197" s="35"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
@@ -5463,10 +5512,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
@@ -5481,10 +5530,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29"/>
@@ -5499,10 +5548,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5517,10 +5566,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29"/>
@@ -5535,10 +5584,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5553,10 +5602,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
@@ -5571,10 +5620,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5589,10 +5638,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5607,10 +5656,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5625,10 +5674,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5643,10 +5692,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5661,10 +5710,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5679,10 +5728,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
@@ -5697,10 +5746,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
@@ -5715,10 +5764,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
@@ -5733,10 +5782,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5751,10 +5800,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5769,10 +5818,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5787,10 +5836,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5805,7 +5854,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>163</v>
@@ -5823,7 +5872,7 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>163</v>
@@ -5841,7 +5890,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>163</v>
@@ -5859,7 +5908,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>163</v>
@@ -5877,7 +5926,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>163</v>
@@ -5895,7 +5944,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>163</v>
@@ -5913,7 +5962,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>163</v>
@@ -5931,7 +5980,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>163</v>
@@ -5949,7 +5998,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>163</v>
@@ -5967,7 +6016,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>163</v>
@@ -5985,7 +6034,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>163</v>
@@ -6003,7 +6052,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>163</v>
@@ -6021,7 +6070,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>163</v>
@@ -6039,7 +6088,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>163</v>
@@ -6057,7 +6106,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>163</v>
@@ -6074,67 +6123,67 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="4"/>
+      <c r="B233" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
-      <c r="F233" s="19"/>
-      <c r="G233" s="20"/>
+      <c r="F233" s="19">
+        <v>1</v>
+      </c>
+      <c r="G233" s="20">
+        <v>0</v>
+      </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="10"/>
+      <c r="B234" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D234" s="35"/>
-      <c r="E234" s="30"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="22"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="19">
+        <v>1</v>
+      </c>
+      <c r="G234" s="20">
+        <v>0</v>
+      </c>
       <c r="H234" s="35"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
-      <c r="B235" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B235" s="7"/>
+      <c r="C235" s="4"/>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
-      <c r="F235" s="19">
-        <v>1</v>
-      </c>
-      <c r="G235" s="20">
-        <v>0</v>
-      </c>
+      <c r="F235" s="19"/>
+      <c r="G235" s="20"/>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
-      <c r="B236" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B236" s="9"/>
+      <c r="C236" s="10"/>
       <c r="D236" s="35"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="19">
-        <v>1</v>
-      </c>
-      <c r="G236" s="20">
-        <v>0</v>
-      </c>
+      <c r="E236" s="30"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="22"/>
       <c r="H236" s="35"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29"/>
@@ -6149,10 +6198,10 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29"/>
@@ -6164,49 +6213,49 @@
       </c>
       <c r="H238" s="35"/>
     </row>
-    <row r="239" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
-      <c r="B239" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D239" s="37"/>
-      <c r="E239" s="31"/>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="35"/>
+      <c r="B239" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D239" s="35"/>
+      <c r="E239" s="29"/>
       <c r="F239" s="19">
         <v>1</v>
       </c>
       <c r="G239" s="20">
         <v>0</v>
       </c>
-      <c r="H239" s="37"/>
-    </row>
-    <row r="240" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
-      <c r="B240" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C240" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D240" s="37"/>
-      <c r="E240" s="31"/>
+      <c r="H239" s="35"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="35"/>
+      <c r="B240" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D240" s="35"/>
+      <c r="E240" s="29"/>
       <c r="F240" s="19">
         <v>1</v>
       </c>
       <c r="G240" s="20">
         <v>0</v>
       </c>
-      <c r="H240" s="37"/>
+      <c r="H240" s="35"/>
     </row>
     <row r="241" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37"/>
       <c r="B241" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D241" s="37"/>
       <c r="E241" s="31"/>
@@ -6221,10 +6270,10 @@
     <row r="242" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37"/>
       <c r="B242" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D242" s="37"/>
       <c r="E242" s="31"/>
@@ -6236,49 +6285,49 @@
       </c>
       <c r="H242" s="37"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="35"/>
-      <c r="B243" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D243" s="35"/>
-      <c r="E243" s="29"/>
+    <row r="243" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="37"/>
+      <c r="B243" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D243" s="37"/>
+      <c r="E243" s="31"/>
       <c r="F243" s="19">
         <v>1</v>
       </c>
       <c r="G243" s="20">
         <v>0</v>
       </c>
-      <c r="H243" s="35"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="35"/>
-      <c r="B244" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D244" s="35"/>
-      <c r="E244" s="29"/>
+      <c r="H243" s="37"/>
+    </row>
+    <row r="244" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="37"/>
+      <c r="B244" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D244" s="37"/>
+      <c r="E244" s="31"/>
       <c r="F244" s="19">
         <v>1</v>
       </c>
       <c r="G244" s="20">
         <v>0</v>
       </c>
-      <c r="H244" s="35"/>
+      <c r="H244" s="37"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29"/>
@@ -6293,10 +6342,10 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29"/>
@@ -6311,10 +6360,10 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29"/>
@@ -6329,10 +6378,10 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -6347,10 +6396,10 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29"/>
@@ -6365,10 +6414,10 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29"/>
@@ -6383,10 +6432,10 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29"/>
@@ -6398,25 +6447,61 @@
       </c>
       <c r="H251" s="35"/>
     </row>
-    <row r="252" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="6"/>
+      <c r="B252" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D252" s="35"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="26"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="19">
+        <v>1</v>
+      </c>
+      <c r="G252" s="20">
+        <v>0</v>
+      </c>
       <c r="H252" s="35"/>
     </row>
-    <row r="253" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
-      <c r="B253" s="38"/>
-      <c r="C253" s="39"/>
+      <c r="B253" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D253" s="35"/>
-      <c r="E253" s="40"/>
-      <c r="F253" s="41"/>
-      <c r="G253" s="41"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="19">
+        <v>1</v>
+      </c>
+      <c r="G253" s="20">
+        <v>0</v>
+      </c>
       <c r="H253" s="35"/>
+    </row>
+    <row r="254" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="35"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="35"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="25"/>
+      <c r="G254" s="26"/>
+      <c r="H254" s="35"/>
+    </row>
+    <row r="255" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="35"/>
+      <c r="B255" s="38"/>
+      <c r="C255" s="39"/>
+      <c r="D255" s="35"/>
+      <c r="E255" s="40"/>
+      <c r="F255" s="41"/>
+      <c r="G255" s="41"/>
+      <c r="H255" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="424">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1367,6 +1367,12 @@
       </rPr>
       <t xml:space="preserve"> untuk mendapatkan data timeseries Kurs Bank Indonesia</t>
     </r>
+  </si>
+  <si>
+    <t>transaction.read.master.getDataCurrencyExchangeCentralBankMiddleRateByCurrencyISOCode</t>
+  </si>
+  <si>
+    <t>Mendapatkan Kurs Tengah Bank Sentral (Bank Indonesia) untuk Mata Uang tertentu sesuai ISO Codenya</t>
   </si>
 </sst>
 </file>
@@ -1827,6 +1833,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,9 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2155,13 +2161,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2189,24 +2195,24 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="35"/>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="36"/>
       <c r="E3" s="42" t="s">
         <v>390</v>
@@ -2465,7 +2471,7 @@
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="47" t="s">
         <v>418</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2479,7 +2485,7 @@
     </row>
     <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="47" t="s">
         <v>419</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2493,7 +2499,7 @@
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="47" t="s">
         <v>417</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -5020,28 +5026,24 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>13</v>
+        <v>422</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>14</v>
+        <v>423</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29"/>
-      <c r="F169" s="19">
-        <v>1</v>
-      </c>
-      <c r="G169" s="20">
-        <v>0</v>
-      </c>
+      <c r="F169" s="19"/>
+      <c r="G169" s="20"/>
       <c r="H169" s="35"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29"/>
@@ -5056,10 +5058,10 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29"/>
@@ -5074,10 +5076,10 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29"/>
@@ -5092,10 +5094,10 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29"/>
@@ -5110,10 +5112,10 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
@@ -5128,10 +5130,10 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29"/>
@@ -5146,10 +5148,10 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29"/>
@@ -5164,10 +5166,10 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29"/>
@@ -5182,10 +5184,10 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -5200,10 +5202,10 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
@@ -5218,10 +5220,10 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29"/>
@@ -5236,10 +5238,10 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5254,10 +5256,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5272,10 +5274,10 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
@@ -5290,10 +5292,10 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29"/>
@@ -5308,10 +5310,10 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5326,10 +5328,10 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29"/>
@@ -5344,10 +5346,10 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29"/>
@@ -5361,49 +5363,49 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="20"/>
+      <c r="F188" s="19">
+        <v>1</v>
+      </c>
+      <c r="G188" s="20">
+        <v>0</v>
+      </c>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="10"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="30"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="22"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="20"/>
       <c r="H189" s="35"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
-      <c r="B190" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="10"/>
       <c r="D190" s="35"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="19">
-        <v>1</v>
-      </c>
-      <c r="G190" s="20">
-        <v>0</v>
-      </c>
+      <c r="E190" s="30"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="22"/>
       <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>410</v>
+        <v>309</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
@@ -5415,107 +5417,107 @@
       </c>
       <c r="H191" s="35"/>
     </row>
-    <row r="192" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
+      <c r="B192" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D192" s="35"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="24"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="19">
+        <v>1</v>
+      </c>
+      <c r="G192" s="20">
+        <v>0</v>
+      </c>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="11"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="35"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="35"/>
+      <c r="B194" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D193" s="35"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="19">
-        <v>1</v>
-      </c>
-      <c r="G193" s="20">
-        <v>0</v>
-      </c>
-      <c r="H193" s="35"/>
-    </row>
-    <row r="194" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="12"/>
       <c r="D194" s="35"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="24"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="19">
+        <v>1</v>
+      </c>
+      <c r="G194" s="20">
+        <v>0</v>
+      </c>
       <c r="H194" s="35"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
-      <c r="B195" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="B195" s="11"/>
+      <c r="C195" s="12"/>
       <c r="D195" s="35"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="19">
-        <v>1</v>
-      </c>
-      <c r="G195" s="20">
-        <v>0</v>
-      </c>
+      <c r="E195" s="32"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
       <c r="H195" s="35"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="4"/>
+      <c r="B196" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="20"/>
+      <c r="F196" s="19">
+        <v>1</v>
+      </c>
+      <c r="G196" s="20">
+        <v>0</v>
+      </c>
       <c r="H196" s="35"/>
     </row>
-    <row r="197" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="10"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="4"/>
       <c r="D197" s="35"/>
-      <c r="E197" s="30"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="22"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="20"/>
       <c r="H197" s="35"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
-      <c r="B198" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B198" s="9"/>
+      <c r="C198" s="10"/>
       <c r="D198" s="35"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="19">
-        <v>1</v>
-      </c>
-      <c r="G198" s="20">
-        <v>0</v>
-      </c>
+      <c r="E198" s="30"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="22"/>
       <c r="H198" s="35"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
@@ -5530,10 +5532,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29"/>
@@ -5548,10 +5550,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5566,10 +5568,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29"/>
@@ -5584,10 +5586,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5602,10 +5604,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
@@ -5620,10 +5622,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5638,10 +5640,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5656,10 +5658,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5674,10 +5676,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5692,10 +5694,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5710,10 +5712,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5728,10 +5730,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
@@ -5746,10 +5748,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
@@ -5764,10 +5766,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
@@ -5782,10 +5784,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5800,10 +5802,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5818,10 +5820,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5836,10 +5838,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5854,10 +5856,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5872,7 +5874,7 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>163</v>
@@ -5890,7 +5892,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>163</v>
@@ -5908,7 +5910,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>163</v>
@@ -5926,7 +5928,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>163</v>
@@ -5944,7 +5946,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>163</v>
@@ -5962,7 +5964,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>163</v>
@@ -5980,7 +5982,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>163</v>
@@ -5998,7 +6000,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>163</v>
@@ -6016,7 +6018,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>163</v>
@@ -6034,7 +6036,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>163</v>
@@ -6052,7 +6054,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>163</v>
@@ -6070,7 +6072,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>163</v>
@@ -6088,7 +6090,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>163</v>
@@ -6106,7 +6108,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>163</v>
@@ -6124,7 +6126,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>163</v>
@@ -6142,7 +6144,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>163</v>
@@ -6159,49 +6161,49 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="4"/>
+      <c r="B235" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="20"/>
+      <c r="F235" s="19">
+        <v>1</v>
+      </c>
+      <c r="G235" s="20">
+        <v>0</v>
+      </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="10"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="4"/>
       <c r="D236" s="35"/>
-      <c r="E236" s="30"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="22"/>
+      <c r="E236" s="29"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="20"/>
       <c r="H236" s="35"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
-      <c r="B237" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B237" s="9"/>
+      <c r="C237" s="10"/>
       <c r="D237" s="35"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="19">
-        <v>1</v>
-      </c>
-      <c r="G237" s="20">
-        <v>0</v>
-      </c>
+      <c r="E237" s="30"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="22"/>
       <c r="H237" s="35"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29"/>
@@ -6216,10 +6218,10 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29"/>
@@ -6234,10 +6236,10 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29"/>
@@ -6249,31 +6251,31 @@
       </c>
       <c r="H240" s="35"/>
     </row>
-    <row r="241" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="37"/>
-      <c r="B241" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D241" s="37"/>
-      <c r="E241" s="31"/>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="35"/>
+      <c r="B241" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D241" s="35"/>
+      <c r="E241" s="29"/>
       <c r="F241" s="19">
         <v>1</v>
       </c>
       <c r="G241" s="20">
         <v>0</v>
       </c>
-      <c r="H241" s="37"/>
+      <c r="H241" s="35"/>
     </row>
     <row r="242" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37"/>
       <c r="B242" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D242" s="37"/>
       <c r="E242" s="31"/>
@@ -6288,10 +6290,10 @@
     <row r="243" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37"/>
       <c r="B243" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D243" s="37"/>
       <c r="E243" s="31"/>
@@ -6306,10 +6308,10 @@
     <row r="244" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37"/>
       <c r="B244" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D244" s="37"/>
       <c r="E244" s="31"/>
@@ -6321,31 +6323,31 @@
       </c>
       <c r="H244" s="37"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="35"/>
-      <c r="B245" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D245" s="35"/>
-      <c r="E245" s="29"/>
+    <row r="245" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="37"/>
+      <c r="B245" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D245" s="37"/>
+      <c r="E245" s="31"/>
       <c r="F245" s="19">
         <v>1</v>
       </c>
       <c r="G245" s="20">
         <v>0</v>
       </c>
-      <c r="H245" s="35"/>
+      <c r="H245" s="37"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29"/>
@@ -6360,10 +6362,10 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29"/>
@@ -6378,10 +6380,10 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -6396,10 +6398,10 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29"/>
@@ -6414,10 +6416,10 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29"/>
@@ -6432,10 +6434,10 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29"/>
@@ -6450,10 +6452,10 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D252" s="35"/>
       <c r="E252" s="29"/>
@@ -6468,10 +6470,10 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29"/>
@@ -6483,25 +6485,43 @@
       </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="6"/>
+      <c r="B254" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="25"/>
-      <c r="G254" s="26"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="19">
+        <v>1</v>
+      </c>
+      <c r="G254" s="20">
+        <v>0</v>
+      </c>
       <c r="H254" s="35"/>
     </row>
-    <row r="255" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="35"/>
-      <c r="B255" s="38"/>
-      <c r="C255" s="39"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="6"/>
       <c r="D255" s="35"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="41"/>
-      <c r="G255" s="41"/>
+      <c r="E255" s="33"/>
+      <c r="F255" s="25"/>
+      <c r="G255" s="26"/>
       <c r="H255" s="35"/>
+    </row>
+    <row r="256" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="35"/>
+      <c r="B256" s="38"/>
+      <c r="C256" s="39"/>
+      <c r="D256" s="35"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="41"/>
+      <c r="G256" s="41"/>
+      <c r="H256" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="426">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1373,6 +1373,12 @@
   </si>
   <si>
     <t>Mendapatkan Kurs Tengah Bank Sentral (Bank Indonesia) untuk Mata Uang tertentu sesuai ISO Codenya</t>
+  </si>
+  <si>
+    <t>transaction.read.customerRelation.getDataListCustomer</t>
+  </si>
+  <si>
+    <t>Mendapatkan Daftar Pelanggan</t>
   </si>
 </sst>
 </file>
@@ -2161,13 +2167,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C169" sqref="C169"/>
+      <selection pane="bottomRight" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5379,79 +5385,75 @@
       </c>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="20"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="24"/>
       <c r="H189" s="35"/>
     </row>
-    <row r="190" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="10"/>
+      <c r="B190" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="D190" s="35"/>
-      <c r="E190" s="30"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="22"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="20"/>
       <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
-      <c r="B191" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
-      <c r="F191" s="19">
-        <v>1</v>
-      </c>
-      <c r="G191" s="20">
-        <v>0</v>
-      </c>
+      <c r="F191" s="19"/>
+      <c r="G191" s="20"/>
       <c r="H191" s="35"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
-      <c r="B192" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="10"/>
       <c r="D192" s="35"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="19">
-        <v>1</v>
-      </c>
-      <c r="G192" s="20">
-        <v>0</v>
-      </c>
+      <c r="E192" s="30"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="22"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="12"/>
+      <c r="B193" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D193" s="35"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="24"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="19">
+        <v>1</v>
+      </c>
+      <c r="G193" s="20">
+        <v>0</v>
+      </c>
       <c r="H193" s="35"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
@@ -5476,10 +5478,10 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>412</v>
+        <v>102</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
@@ -5491,69 +5493,61 @@
       </c>
       <c r="H196" s="35"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="4"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="35"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="20"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="24"/>
       <c r="H197" s="35"/>
     </row>
-    <row r="198" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="10"/>
+      <c r="B198" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D198" s="35"/>
-      <c r="E198" s="30"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="22"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="19">
+        <v>1</v>
+      </c>
+      <c r="G198" s="20">
+        <v>0</v>
+      </c>
       <c r="H198" s="35"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
-      <c r="B199" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
-      <c r="F199" s="19">
-        <v>1</v>
-      </c>
-      <c r="G199" s="20">
-        <v>0</v>
-      </c>
+      <c r="F199" s="19"/>
+      <c r="G199" s="20"/>
       <c r="H199" s="35"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
-      <c r="B200" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B200" s="9"/>
+      <c r="C200" s="10"/>
       <c r="D200" s="35"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="19">
-        <v>1</v>
-      </c>
-      <c r="G200" s="20">
-        <v>0</v>
-      </c>
+      <c r="E200" s="30"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="22"/>
       <c r="H200" s="35"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5568,10 +5562,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29"/>
@@ -5586,10 +5580,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5604,10 +5598,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
@@ -5622,10 +5616,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5640,10 +5634,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5658,10 +5652,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5676,10 +5670,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5694,10 +5688,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5712,10 +5706,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5730,10 +5724,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
@@ -5748,10 +5742,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
@@ -5766,10 +5760,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
@@ -5784,10 +5778,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5802,10 +5796,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5820,10 +5814,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5838,10 +5832,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5856,10 +5850,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5874,10 +5868,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5892,10 +5886,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5910,7 +5904,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>163</v>
@@ -5928,7 +5922,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>163</v>
@@ -5946,7 +5940,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>163</v>
@@ -5964,7 +5958,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>163</v>
@@ -5982,7 +5976,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>163</v>
@@ -6000,7 +5994,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>163</v>
@@ -6018,7 +6012,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>163</v>
@@ -6036,7 +6030,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>163</v>
@@ -6054,7 +6048,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>163</v>
@@ -6072,7 +6066,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>163</v>
@@ -6090,7 +6084,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>163</v>
@@ -6108,7 +6102,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>163</v>
@@ -6126,7 +6120,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>163</v>
@@ -6144,7 +6138,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>163</v>
@@ -6162,7 +6156,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>163</v>
@@ -6179,67 +6173,67 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="4"/>
+      <c r="B236" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="20"/>
+      <c r="F236" s="19">
+        <v>1</v>
+      </c>
+      <c r="G236" s="20">
+        <v>0</v>
+      </c>
       <c r="H236" s="35"/>
     </row>
-    <row r="237" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="10"/>
+      <c r="B237" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D237" s="35"/>
-      <c r="E237" s="30"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="22"/>
+      <c r="E237" s="29"/>
+      <c r="F237" s="19">
+        <v>1</v>
+      </c>
+      <c r="G237" s="20">
+        <v>0</v>
+      </c>
       <c r="H237" s="35"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
-      <c r="B238" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="4"/>
       <c r="D238" s="35"/>
       <c r="E238" s="29"/>
-      <c r="F238" s="19">
-        <v>1</v>
-      </c>
-      <c r="G238" s="20">
-        <v>0</v>
-      </c>
+      <c r="F238" s="19"/>
+      <c r="G238" s="20"/>
       <c r="H238" s="35"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
-      <c r="B239" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="10"/>
       <c r="D239" s="35"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="19">
-        <v>1</v>
-      </c>
-      <c r="G239" s="20">
-        <v>0</v>
-      </c>
+      <c r="E239" s="30"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="22"/>
       <c r="H239" s="35"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29"/>
@@ -6254,10 +6248,10 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29"/>
@@ -6269,49 +6263,49 @@
       </c>
       <c r="H241" s="35"/>
     </row>
-    <row r="242" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="37"/>
-      <c r="B242" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D242" s="37"/>
-      <c r="E242" s="31"/>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="35"/>
+      <c r="B242" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D242" s="35"/>
+      <c r="E242" s="29"/>
       <c r="F242" s="19">
         <v>1</v>
       </c>
       <c r="G242" s="20">
         <v>0</v>
       </c>
-      <c r="H242" s="37"/>
-    </row>
-    <row r="243" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="37"/>
-      <c r="B243" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D243" s="37"/>
-      <c r="E243" s="31"/>
+      <c r="H242" s="35"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="35"/>
+      <c r="B243" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D243" s="35"/>
+      <c r="E243" s="29"/>
       <c r="F243" s="19">
         <v>1</v>
       </c>
       <c r="G243" s="20">
         <v>0</v>
       </c>
-      <c r="H243" s="37"/>
+      <c r="H243" s="35"/>
     </row>
     <row r="244" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37"/>
       <c r="B244" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D244" s="37"/>
       <c r="E244" s="31"/>
@@ -6326,10 +6320,10 @@
     <row r="245" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37"/>
       <c r="B245" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D245" s="37"/>
       <c r="E245" s="31"/>
@@ -6341,49 +6335,49 @@
       </c>
       <c r="H245" s="37"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="35"/>
-      <c r="B246" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D246" s="35"/>
-      <c r="E246" s="29"/>
+    <row r="246" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="37"/>
+      <c r="B246" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D246" s="37"/>
+      <c r="E246" s="31"/>
       <c r="F246" s="19">
         <v>1</v>
       </c>
       <c r="G246" s="20">
         <v>0</v>
       </c>
-      <c r="H246" s="35"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="35"/>
-      <c r="B247" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D247" s="35"/>
-      <c r="E247" s="29"/>
+      <c r="H246" s="37"/>
+    </row>
+    <row r="247" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="37"/>
+      <c r="B247" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D247" s="37"/>
+      <c r="E247" s="31"/>
       <c r="F247" s="19">
         <v>1</v>
       </c>
       <c r="G247" s="20">
         <v>0</v>
       </c>
-      <c r="H247" s="35"/>
+      <c r="H247" s="37"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -6398,10 +6392,10 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29"/>
@@ -6416,10 +6410,10 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29"/>
@@ -6434,10 +6428,10 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29"/>
@@ -6452,10 +6446,10 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D252" s="35"/>
       <c r="E252" s="29"/>
@@ -6470,10 +6464,10 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29"/>
@@ -6488,10 +6482,10 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29"/>
@@ -6503,25 +6497,61 @@
       </c>
       <c r="H254" s="35"/>
     </row>
-    <row r="255" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="6"/>
+      <c r="B255" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D255" s="35"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="25"/>
-      <c r="G255" s="26"/>
+      <c r="E255" s="29"/>
+      <c r="F255" s="19">
+        <v>1</v>
+      </c>
+      <c r="G255" s="20">
+        <v>0</v>
+      </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
-      <c r="B256" s="38"/>
-      <c r="C256" s="39"/>
+      <c r="B256" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D256" s="35"/>
-      <c r="E256" s="40"/>
-      <c r="F256" s="41"/>
-      <c r="G256" s="41"/>
+      <c r="E256" s="29"/>
+      <c r="F256" s="19">
+        <v>1</v>
+      </c>
+      <c r="G256" s="20">
+        <v>0</v>
+      </c>
       <c r="H256" s="35"/>
+    </row>
+    <row r="257" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="35"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="35"/>
+      <c r="E257" s="33"/>
+      <c r="F257" s="25"/>
+      <c r="G257" s="26"/>
+      <c r="H257" s="35"/>
+    </row>
+    <row r="258" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="35"/>
+      <c r="B258" s="38"/>
+      <c r="C258" s="39"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="41"/>
+      <c r="G258" s="41"/>
+      <c r="H258" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="442">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1379,6 +1379,54 @@
   </si>
   <si>
     <t>Mendapatkan Daftar Pelanggan</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.master.setBusinessDocumentVersion</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Versi Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.master.setCurrencyExchangeRateCentralBank</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Kurs Bank Sentral</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setInstitutionType</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Jenis Institusi</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setInstitution</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setInstitutionBranch</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Institusi</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Cabang Institusi</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setInstitution</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Institusi</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setInstitutionBranch</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setInstitutionType</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Jenis Institusi</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Cabang Institusi</t>
   </si>
 </sst>
 </file>
@@ -2167,13 +2215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomRight" activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2803,73 +2851,55 @@
       </c>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
       <c r="B42" s="7" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F42" s="19">
-        <v>1</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1</v>
-      </c>
-      <c r="H42" s="35"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+        <v>434</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
       <c r="B43" s="7" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F43" s="19">
-        <v>1</v>
-      </c>
-      <c r="G43" s="20">
-        <v>1</v>
-      </c>
-      <c r="H43" s="35"/>
+        <v>435</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="7" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="D44" s="35"/>
-      <c r="E44" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F44" s="19">
-        <v>1</v>
-      </c>
-      <c r="G44" s="20">
-        <v>1</v>
-      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="29">
@@ -2886,10 +2916,10 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="29">
@@ -2906,10 +2936,10 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="29">
@@ -2926,10 +2956,10 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="29">
@@ -2946,10 +2976,10 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="29">
@@ -2966,10 +2996,10 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="29">
@@ -2985,85 +3015,91 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="D51" s="35"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
+      <c r="E51" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
       <c r="H51" s="35"/>
     </row>
-    <row r="52" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D52" s="35"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="E52" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F52" s="19">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20">
+        <v>1</v>
+      </c>
       <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="D53" s="35"/>
-      <c r="E53" s="29"/>
+      <c r="E53" s="29">
+        <v>44207</v>
+      </c>
       <c r="F53" s="19">
         <v>1</v>
       </c>
       <c r="G53" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="35"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="20">
-        <v>0</v>
-      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="35"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
-      <c r="B55" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>299</v>
-      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="35"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="19">
-        <v>1</v>
-      </c>
-      <c r="G55" s="20">
-        <v>0</v>
-      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="29"/>
@@ -3078,10 +3114,10 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
@@ -3093,23 +3129,31 @@
       </c>
       <c r="H57" s="35"/>
     </row>
-    <row r="58" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D58" s="35"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="19">
+        <v>1</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
       <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="7" t="s">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="29"/>
@@ -3124,10 +3168,10 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
@@ -3139,31 +3183,23 @@
       </c>
       <c r="H60" s="35"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
-      <c r="B61" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="35"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="19">
-        <v>1</v>
-      </c>
-      <c r="G61" s="20">
-        <v>0</v>
-      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3178,10 +3214,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3196,10 +3232,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3214,10 +3250,10 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="7" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -3232,10 +3268,10 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3250,10 +3286,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="29"/>
@@ -3268,10 +3304,10 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3286,10 +3322,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3304,10 +3340,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3322,10 +3358,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>382</v>
+        <v>128</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3340,10 +3376,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3358,10 +3394,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3376,10 +3412,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3394,10 +3430,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3412,10 +3448,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3430,10 +3466,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="29"/>
@@ -3448,10 +3484,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="29"/>
@@ -3466,10 +3502,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3484,10 +3520,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3502,10 +3538,10 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29"/>
@@ -3520,10 +3556,10 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29"/>
@@ -3538,10 +3574,10 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29"/>
@@ -3556,10 +3592,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3574,10 +3610,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3592,10 +3628,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3610,10 +3646,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="29"/>
@@ -3628,10 +3664,10 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3646,10 +3682,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29"/>
@@ -3664,10 +3700,10 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="29"/>
@@ -3682,10 +3718,10 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29"/>
@@ -3700,10 +3736,10 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3718,10 +3754,10 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="29"/>
@@ -3736,10 +3772,10 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="29"/>
@@ -3751,43 +3787,49 @@
       </c>
       <c r="H94" s="35"/>
     </row>
-    <row r="95" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
+      <c r="B95" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="D95" s="35"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="24"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="19">
+        <v>1</v>
+      </c>
+      <c r="G95" s="20">
+        <v>0</v>
+      </c>
       <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="7" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D96" s="35"/>
-      <c r="E96" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E96" s="29"/>
       <c r="F96" s="19">
         <v>1</v>
       </c>
       <c r="G96" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3799,49 +3841,43 @@
       </c>
       <c r="H97" s="35"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
-      <c r="B98" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="35"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="19">
-        <v>1</v>
-      </c>
-      <c r="G98" s="20">
-        <v>0</v>
-      </c>
+      <c r="E98" s="32"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D99" s="35"/>
-      <c r="E99" s="29"/>
+      <c r="E99" s="29">
+        <v>44188</v>
+      </c>
       <c r="F99" s="19">
         <v>1</v>
       </c>
       <c r="G99" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="29"/>
@@ -3853,23 +3889,31 @@
       </c>
       <c r="H100" s="35"/>
     </row>
-    <row r="101" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
+      <c r="B101" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="D101" s="35"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="24"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="19">
+        <v>1</v>
+      </c>
+      <c r="G101" s="20">
+        <v>0</v>
+      </c>
       <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
       <c r="B102" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="29"/>
@@ -3884,10 +3928,10 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="29"/>
@@ -3899,31 +3943,23 @@
       </c>
       <c r="H103" s="35"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="35"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="19">
-        <v>1</v>
-      </c>
-      <c r="G104" s="20">
-        <v>0</v>
-      </c>
+      <c r="E104" s="32"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="24"/>
       <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29"/>
@@ -3938,10 +3974,10 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29"/>
@@ -3953,23 +3989,31 @@
       </c>
       <c r="H106" s="35"/>
     </row>
-    <row r="107" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
+      <c r="B107" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="D107" s="35"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="24"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="19">
+        <v>1</v>
+      </c>
+      <c r="G107" s="20">
+        <v>0</v>
+      </c>
       <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29"/>
@@ -3981,41 +4025,41 @@
       </c>
       <c r="H108" s="35"/>
     </row>
-    <row r="109" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
+      <c r="B109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="D109" s="35"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="19">
+        <v>1</v>
+      </c>
+      <c r="G109" s="20">
+        <v>0</v>
+      </c>
       <c r="H109" s="35"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
-      <c r="B110" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="35"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="19">
-        <v>1</v>
-      </c>
-      <c r="G110" s="20">
-        <v>0</v>
-      </c>
+      <c r="E110" s="32"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="24"/>
       <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29"/>
@@ -4040,10 +4084,10 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29"/>
@@ -4055,41 +4099,41 @@
       </c>
       <c r="H113" s="35"/>
     </row>
-    <row r="114" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
+      <c r="B114" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="D114" s="35"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="24"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="19">
+        <v>1</v>
+      </c>
+      <c r="G114" s="20">
+        <v>0</v>
+      </c>
       <c r="H114" s="35"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
-      <c r="B115" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="35"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="19">
-        <v>1</v>
-      </c>
-      <c r="G115" s="20">
-        <v>0</v>
-      </c>
+      <c r="E115" s="32"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="24"/>
       <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29"/>
@@ -4101,31 +4145,23 @@
       </c>
       <c r="H116" s="35"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
-      <c r="B117" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="35"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="19">
-        <v>1</v>
-      </c>
-      <c r="G117" s="20">
-        <v>0</v>
-      </c>
+      <c r="E117" s="32"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="24"/>
       <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29"/>
@@ -4140,10 +4176,10 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29"/>
@@ -4158,10 +4194,10 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29"/>
@@ -4176,10 +4212,10 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29"/>
@@ -4194,10 +4230,10 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29"/>
@@ -4212,10 +4248,10 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29"/>
@@ -4230,10 +4266,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29"/>
@@ -4248,10 +4284,10 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="29"/>
@@ -4266,10 +4302,10 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29"/>
@@ -4284,10 +4320,10 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29"/>
@@ -4302,10 +4338,10 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29"/>
@@ -4320,10 +4356,10 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29"/>
@@ -4338,10 +4374,10 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29"/>
@@ -4356,10 +4392,10 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
       <c r="B131" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="29"/>
@@ -4374,10 +4410,10 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29"/>
@@ -4392,10 +4428,10 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29"/>
@@ -4410,10 +4446,10 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29"/>
@@ -4428,10 +4464,10 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29"/>
@@ -4443,23 +4479,31 @@
       </c>
       <c r="H135" s="35"/>
     </row>
-    <row r="136" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
+      <c r="B136" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D136" s="35"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="24"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="19">
+        <v>1</v>
+      </c>
+      <c r="G136" s="20">
+        <v>0</v>
+      </c>
       <c r="H136" s="35"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="29"/>
@@ -4474,10 +4518,10 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29"/>
@@ -4502,10 +4546,10 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29"/>
@@ -4520,10 +4564,10 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29"/>
@@ -4535,31 +4579,23 @@
       </c>
       <c r="H141" s="35"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
-      <c r="B142" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="35"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="19">
-        <v>1</v>
-      </c>
-      <c r="G142" s="20">
-        <v>0</v>
-      </c>
+      <c r="E142" s="32"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="24"/>
       <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
       <c r="B143" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="29"/>
@@ -4574,10 +4610,10 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29"/>
@@ -4591,95 +4627,89 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="4"/>
+      <c r="B145" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="20"/>
+      <c r="F145" s="19">
+        <v>1</v>
+      </c>
+      <c r="G145" s="20">
+        <v>0</v>
+      </c>
       <c r="H145" s="35"/>
     </row>
-    <row r="146" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
+      <c r="B146" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D146" s="35"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="22"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="19">
+        <v>1</v>
+      </c>
+      <c r="G146" s="20">
+        <v>0</v>
+      </c>
       <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="D147" s="35"/>
-      <c r="E147" s="29">
-        <v>44207</v>
-      </c>
+      <c r="E147" s="29"/>
       <c r="F147" s="19">
         <v>1</v>
       </c>
       <c r="G147" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="35"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
-      <c r="B148" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B148" s="7"/>
+      <c r="C148" s="4"/>
       <c r="D148" s="35"/>
-      <c r="E148" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F148" s="19">
-        <v>1</v>
-      </c>
-      <c r="G148" s="20">
-        <v>1</v>
-      </c>
+      <c r="E148" s="29"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="20"/>
       <c r="H148" s="35"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B149" s="9"/>
+      <c r="C149" s="10"/>
       <c r="D149" s="35"/>
-      <c r="E149" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F149" s="19">
-        <v>1</v>
-      </c>
-      <c r="G149" s="20">
-        <v>1</v>
-      </c>
+      <c r="E149" s="30"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="22"/>
       <c r="H149" s="35"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D150" s="35"/>
       <c r="E150" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="F150" s="19">
         <v>1</v>
@@ -4692,10 +4722,10 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29">
@@ -4712,10 +4742,10 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
@@ -4732,10 +4762,10 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="29">
@@ -4752,10 +4782,10 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
@@ -4772,10 +4802,10 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29">
@@ -4792,10 +4822,10 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
@@ -4812,10 +4842,10 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
@@ -4832,10 +4862,10 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -4852,10 +4882,10 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -4872,10 +4902,10 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -4892,10 +4922,10 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -4912,10 +4942,10 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -4932,10 +4962,10 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -4952,10 +4982,10 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -4972,10 +5002,10 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -4992,10 +5022,10 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -5011,99 +5041,105 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="4"/>
+      <c r="B167" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D167" s="35"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="20"/>
+      <c r="E167" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F167" s="19">
+        <v>1</v>
+      </c>
+      <c r="G167" s="20">
+        <v>1</v>
+      </c>
       <c r="H167" s="35"/>
     </row>
-    <row r="168" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="10"/>
+      <c r="B168" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D168" s="35"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="22"/>
+      <c r="E168" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="20">
+        <v>1</v>
+      </c>
       <c r="H168" s="35"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>423</v>
+        <v>91</v>
       </c>
       <c r="D169" s="35"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="20"/>
+      <c r="E169" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F169" s="19">
+        <v>1</v>
+      </c>
+      <c r="G169" s="20">
+        <v>1</v>
+      </c>
       <c r="H169" s="35"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
-      <c r="B170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="4"/>
       <c r="D170" s="35"/>
       <c r="E170" s="29"/>
-      <c r="F170" s="19">
-        <v>1</v>
-      </c>
-      <c r="G170" s="20">
-        <v>0</v>
-      </c>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20"/>
       <c r="H170" s="35"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
-      <c r="B171" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="10"/>
       <c r="D171" s="35"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="19">
-        <v>1</v>
-      </c>
-      <c r="G171" s="20">
-        <v>0</v>
-      </c>
+      <c r="E171" s="30"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="22"/>
       <c r="H171" s="35"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>16</v>
+        <v>422</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>18</v>
+        <v>423</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29"/>
-      <c r="F172" s="19">
-        <v>1</v>
-      </c>
-      <c r="G172" s="20">
-        <v>0</v>
-      </c>
+      <c r="F172" s="19"/>
+      <c r="G172" s="20"/>
       <c r="H172" s="35"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29"/>
@@ -5118,10 +5154,10 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
@@ -5136,10 +5172,10 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29"/>
@@ -5154,10 +5190,10 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29"/>
@@ -5172,10 +5208,10 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29"/>
@@ -5190,10 +5226,10 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -5208,10 +5244,10 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
@@ -5226,10 +5262,10 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29"/>
@@ -5244,10 +5280,10 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5262,10 +5298,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5280,10 +5316,10 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
@@ -5298,10 +5334,10 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29"/>
@@ -5316,10 +5352,10 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5334,10 +5370,10 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29"/>
@@ -5352,10 +5388,10 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29"/>
@@ -5370,10 +5406,10 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
@@ -5385,103 +5421,111 @@
       </c>
       <c r="H188" s="35"/>
     </row>
-    <row r="189" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="12"/>
+      <c r="B189" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D189" s="35"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="24"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="19">
+        <v>1</v>
+      </c>
+      <c r="G189" s="20">
+        <v>0</v>
+      </c>
       <c r="H189" s="35"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="20"/>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="20">
+        <v>0</v>
+      </c>
       <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="20"/>
+      <c r="F191" s="19">
+        <v>1</v>
+      </c>
+      <c r="G191" s="20">
+        <v>0</v>
+      </c>
       <c r="H191" s="35"/>
     </row>
-    <row r="192" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="10"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="35"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="22"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="24"/>
       <c r="H192" s="35"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>309</v>
+        <v>424</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
-      <c r="F193" s="19">
-        <v>1</v>
-      </c>
-      <c r="G193" s="20">
-        <v>0</v>
-      </c>
+      <c r="F193" s="19"/>
+      <c r="G193" s="20"/>
       <c r="H193" s="35"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
-      <c r="B194" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
-      <c r="F194" s="19">
-        <v>1</v>
-      </c>
-      <c r="G194" s="20">
-        <v>0</v>
-      </c>
+      <c r="F194" s="19"/>
+      <c r="G194" s="20"/>
       <c r="H194" s="35"/>
     </row>
-    <row r="195" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="12"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="10"/>
       <c r="D195" s="35"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="24"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="22"/>
       <c r="H195" s="35"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29"/>
@@ -5493,23 +5537,31 @@
       </c>
       <c r="H196" s="35"/>
     </row>
-    <row r="197" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="12"/>
+      <c r="B197" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="D197" s="35"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="24"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="19">
+        <v>1</v>
+      </c>
+      <c r="G197" s="20">
+        <v>0</v>
+      </c>
       <c r="H197" s="35"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
@@ -5523,31 +5575,39 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="4"/>
+      <c r="B199" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="20"/>
+      <c r="F199" s="19">
+        <v>1</v>
+      </c>
+      <c r="G199" s="20">
+        <v>0</v>
+      </c>
       <c r="H199" s="35"/>
     </row>
-    <row r="200" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="10"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="35"/>
-      <c r="E200" s="30"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="22"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="24"/>
       <c r="H200" s="35"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5559,31 +5619,23 @@
       </c>
       <c r="H201" s="35"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
-      <c r="B202" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B202" s="11"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="35"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="19">
-        <v>1</v>
-      </c>
-      <c r="G202" s="20">
-        <v>0</v>
-      </c>
+      <c r="E202" s="32"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="24"/>
       <c r="H202" s="35"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5597,47 +5649,31 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
-      <c r="B204" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B204" s="7"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="35"/>
       <c r="E204" s="29"/>
-      <c r="F204" s="19">
-        <v>1</v>
-      </c>
-      <c r="G204" s="20">
-        <v>0</v>
-      </c>
+      <c r="F204" s="19"/>
+      <c r="G204" s="20"/>
       <c r="H204" s="35"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
-      <c r="B205" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="B205" s="9"/>
+      <c r="C205" s="10"/>
       <c r="D205" s="35"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="19">
-        <v>1</v>
-      </c>
-      <c r="G205" s="20">
-        <v>0</v>
-      </c>
+      <c r="E205" s="30"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="22"/>
       <c r="H205" s="35"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5652,10 +5688,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5670,10 +5706,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5688,10 +5724,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -5706,10 +5742,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5724,10 +5760,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
@@ -5742,10 +5778,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
@@ -5760,10 +5796,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
@@ -5778,10 +5814,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5796,10 +5832,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5814,10 +5850,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5832,10 +5868,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5850,10 +5886,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5868,10 +5904,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5886,10 +5922,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5904,10 +5940,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5922,10 +5958,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5940,10 +5976,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -5958,10 +5994,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -5976,10 +6012,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -5994,7 +6030,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>163</v>
@@ -6012,7 +6048,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>163</v>
@@ -6030,7 +6066,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>163</v>
@@ -6048,7 +6084,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>163</v>
@@ -6066,7 +6102,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>163</v>
@@ -6084,7 +6120,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>163</v>
@@ -6102,7 +6138,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>163</v>
@@ -6120,7 +6156,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>163</v>
@@ -6138,7 +6174,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>163</v>
@@ -6156,7 +6192,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>163</v>
@@ -6174,7 +6210,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>163</v>
@@ -6192,7 +6228,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>163</v>
@@ -6209,31 +6245,47 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="4"/>
+      <c r="B238" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="20"/>
+      <c r="F238" s="19">
+        <v>1</v>
+      </c>
+      <c r="G238" s="20">
+        <v>0</v>
+      </c>
       <c r="H238" s="35"/>
     </row>
-    <row r="239" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="10"/>
+      <c r="B239" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D239" s="35"/>
-      <c r="E239" s="30"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="22"/>
+      <c r="E239" s="29"/>
+      <c r="F239" s="19">
+        <v>1</v>
+      </c>
+      <c r="G239" s="20">
+        <v>0</v>
+      </c>
       <c r="H239" s="35"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29"/>
@@ -6248,10 +6300,10 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29"/>
@@ -6266,10 +6318,10 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29"/>
@@ -6283,101 +6335,85 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
-      <c r="B243" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>320</v>
-      </c>
+      <c r="B243" s="7"/>
+      <c r="C243" s="4"/>
       <c r="D243" s="35"/>
       <c r="E243" s="29"/>
-      <c r="F243" s="19">
-        <v>1</v>
-      </c>
-      <c r="G243" s="20">
-        <v>0</v>
-      </c>
+      <c r="F243" s="19"/>
+      <c r="G243" s="20"/>
       <c r="H243" s="35"/>
     </row>
-    <row r="244" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
-      <c r="B244" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D244" s="37"/>
-      <c r="E244" s="31"/>
-      <c r="F244" s="19">
-        <v>1</v>
-      </c>
-      <c r="G244" s="20">
-        <v>0</v>
-      </c>
-      <c r="H244" s="37"/>
-    </row>
-    <row r="245" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="37"/>
-      <c r="B245" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D245" s="37"/>
-      <c r="E245" s="31"/>
+    <row r="244" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="35"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="35"/>
+      <c r="E244" s="30"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="35"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="35"/>
+      <c r="B245" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D245" s="35"/>
+      <c r="E245" s="29"/>
       <c r="F245" s="19">
         <v>1</v>
       </c>
       <c r="G245" s="20">
         <v>0</v>
       </c>
-      <c r="H245" s="37"/>
-    </row>
-    <row r="246" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="37"/>
-      <c r="B246" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C246" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D246" s="37"/>
-      <c r="E246" s="31"/>
+      <c r="H245" s="35"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="35"/>
+      <c r="B246" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D246" s="35"/>
+      <c r="E246" s="29"/>
       <c r="F246" s="19">
         <v>1</v>
       </c>
       <c r="G246" s="20">
         <v>0</v>
       </c>
-      <c r="H246" s="37"/>
-    </row>
-    <row r="247" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
-      <c r="B247" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D247" s="37"/>
-      <c r="E247" s="31"/>
+      <c r="H246" s="35"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="35"/>
+      <c r="B247" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D247" s="35"/>
+      <c r="E247" s="29"/>
       <c r="F247" s="19">
         <v>1</v>
       </c>
       <c r="G247" s="20">
         <v>0</v>
       </c>
-      <c r="H247" s="37"/>
+      <c r="H247" s="35"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -6389,139 +6425,127 @@
       </c>
       <c r="H248" s="35"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="35"/>
-      <c r="B249" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D249" s="35"/>
-      <c r="E249" s="29"/>
+    <row r="249" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="37"/>
+      <c r="B249" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D249" s="37"/>
+      <c r="E249" s="31"/>
       <c r="F249" s="19">
         <v>1</v>
       </c>
       <c r="G249" s="20">
         <v>0</v>
       </c>
-      <c r="H249" s="35"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="35"/>
-      <c r="B250" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D250" s="35"/>
-      <c r="E250" s="29"/>
+      <c r="H249" s="37"/>
+    </row>
+    <row r="250" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="37"/>
+      <c r="B250" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D250" s="37"/>
+      <c r="E250" s="31"/>
       <c r="F250" s="19">
         <v>1</v>
       </c>
       <c r="G250" s="20">
         <v>0</v>
       </c>
-      <c r="H250" s="35"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="35"/>
-      <c r="B251" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D251" s="35"/>
-      <c r="E251" s="29"/>
+      <c r="H250" s="37"/>
+    </row>
+    <row r="251" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="37"/>
+      <c r="B251" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D251" s="37"/>
+      <c r="E251" s="31"/>
       <c r="F251" s="19">
         <v>1</v>
       </c>
       <c r="G251" s="20">
         <v>0</v>
       </c>
-      <c r="H251" s="35"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="35"/>
-      <c r="B252" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D252" s="35"/>
-      <c r="E252" s="29"/>
+      <c r="H251" s="37"/>
+    </row>
+    <row r="252" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="37"/>
+      <c r="B252" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D252" s="37"/>
+      <c r="E252" s="31"/>
       <c r="F252" s="19">
         <v>1</v>
       </c>
       <c r="G252" s="20">
         <v>0</v>
       </c>
-      <c r="H252" s="35"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="35"/>
+      <c r="H252" s="37"/>
+    </row>
+    <row r="253" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="37"/>
       <c r="B253" s="7" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D253" s="35"/>
-      <c r="E253" s="29"/>
-      <c r="F253" s="19">
-        <v>1</v>
-      </c>
-      <c r="G253" s="20">
-        <v>0</v>
-      </c>
-      <c r="H253" s="35"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="35"/>
+        <v>437</v>
+      </c>
+      <c r="D253" s="37"/>
+      <c r="E253" s="31"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="37"/>
+    </row>
+    <row r="254" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="37"/>
       <c r="B254" s="7" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D254" s="35"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="19">
-        <v>1</v>
-      </c>
-      <c r="G254" s="20">
-        <v>0</v>
-      </c>
-      <c r="H254" s="35"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="35"/>
+        <v>441</v>
+      </c>
+      <c r="D254" s="37"/>
+      <c r="E254" s="31"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="37"/>
+    </row>
+    <row r="255" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="37"/>
       <c r="B255" s="7" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D255" s="35"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="19">
-        <v>1</v>
-      </c>
-      <c r="G255" s="20">
-        <v>0</v>
-      </c>
-      <c r="H255" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D255" s="37"/>
+      <c r="E255" s="31"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="37"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29"/>
@@ -6533,25 +6557,169 @@
       </c>
       <c r="H256" s="35"/>
     </row>
-    <row r="257" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="6"/>
+      <c r="B257" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="25"/>
-      <c r="G257" s="26"/>
+      <c r="E257" s="29"/>
+      <c r="F257" s="19">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>0</v>
+      </c>
       <c r="H257" s="35"/>
     </row>
-    <row r="258" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
-      <c r="B258" s="38"/>
-      <c r="C258" s="39"/>
+      <c r="B258" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="41"/>
-      <c r="G258" s="41"/>
+      <c r="E258" s="29"/>
+      <c r="F258" s="19">
+        <v>1</v>
+      </c>
+      <c r="G258" s="20">
+        <v>0</v>
+      </c>
       <c r="H258" s="35"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="35"/>
+      <c r="B259" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D259" s="35"/>
+      <c r="E259" s="29"/>
+      <c r="F259" s="19">
+        <v>1</v>
+      </c>
+      <c r="G259" s="20">
+        <v>0</v>
+      </c>
+      <c r="H259" s="35"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="35"/>
+      <c r="B260" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D260" s="35"/>
+      <c r="E260" s="29"/>
+      <c r="F260" s="19">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>0</v>
+      </c>
+      <c r="H260" s="35"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="35"/>
+      <c r="B261" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D261" s="35"/>
+      <c r="E261" s="29"/>
+      <c r="F261" s="19">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>0</v>
+      </c>
+      <c r="H261" s="35"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="35"/>
+      <c r="B262" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D262" s="35"/>
+      <c r="E262" s="29"/>
+      <c r="F262" s="19">
+        <v>1</v>
+      </c>
+      <c r="G262" s="20">
+        <v>0</v>
+      </c>
+      <c r="H262" s="35"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="35"/>
+      <c r="B263" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D263" s="35"/>
+      <c r="E263" s="29"/>
+      <c r="F263" s="19">
+        <v>1</v>
+      </c>
+      <c r="G263" s="20">
+        <v>0</v>
+      </c>
+      <c r="H263" s="35"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="35"/>
+      <c r="B264" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D264" s="35"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="19">
+        <v>1</v>
+      </c>
+      <c r="G264" s="20">
+        <v>0</v>
+      </c>
+      <c r="H264" s="35"/>
+    </row>
+    <row r="265" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="35"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="35"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="25"/>
+      <c r="G265" s="26"/>
+      <c r="H265" s="35"/>
+    </row>
+    <row r="266" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="35"/>
+      <c r="B266" s="38"/>
+      <c r="C266" s="39"/>
+      <c r="D266" s="35"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="41"/>
+      <c r="G266" s="41"/>
+      <c r="H266" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="458">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1427,6 +1427,54 @@
   </si>
   <si>
     <t>Memutakhirkan Data Cabang Institusi</t>
+  </si>
+  <si>
+    <t>transaction.update.customerRelation.setCustomer</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Pelanggan</t>
+  </si>
+  <si>
+    <t>transaction.update.customerRelation.setSalesOrder</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Sales Order</t>
+  </si>
+  <si>
+    <t>transaction.create.customerRelation.setCustomer</t>
+  </si>
+  <si>
+    <t>transaction.create.customerRelation.setSalesOrder</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Pelanggan</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Sales Order</t>
+  </si>
+  <si>
+    <t>transaction.create.customerRelation.setSalesContract</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Sales Contract</t>
+  </si>
+  <si>
+    <t>transaction.update.customerRelation.setSalesContract</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Sales Contract</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.customerRelation.setSalesOrder</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Sales Order</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.customerRelation.setSalesOrderDetail</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Sales Order Detail</t>
   </si>
 </sst>
 </file>
@@ -2215,13 +2263,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C255" sqref="C255"/>
+      <selection pane="bottomRight" activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3073,105 +3121,85 @@
       </c>
       <c r="H53" s="35"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="35"/>
     </row>
-    <row r="55" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="D55" s="35"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="7" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="20">
-        <v>0</v>
-      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>301</v>
+        <v>447</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="19">
-        <v>1</v>
-      </c>
-      <c r="G57" s="20">
-        <v>0</v>
-      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
-      <c r="B58" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>299</v>
-      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="35"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="19">
-        <v>1</v>
-      </c>
-      <c r="G58" s="20">
-        <v>0</v>
-      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="35"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="35"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="19">
-        <v>1</v>
-      </c>
-      <c r="G59" s="20">
-        <v>0</v>
-      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
@@ -3183,23 +3211,31 @@
       </c>
       <c r="H60" s="35"/>
     </row>
-    <row r="61" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
+      <c r="B61" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="D61" s="35"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="19">
+        <v>1</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
       <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3214,10 +3250,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3232,10 +3268,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3247,31 +3283,23 @@
       </c>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
-      <c r="B65" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="35"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="19">
-        <v>1</v>
-      </c>
-      <c r="G65" s="20">
-        <v>0</v>
-      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
       <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3286,10 +3314,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="29"/>
@@ -3304,10 +3332,10 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3322,10 +3350,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3340,10 +3368,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3358,10 +3386,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3376,10 +3404,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3394,10 +3422,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3412,10 +3440,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3430,10 +3458,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3448,10 +3476,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>384</v>
+        <v>101</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3466,10 +3494,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>114</v>
+        <v>381</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="29"/>
@@ -3484,10 +3512,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="29"/>
@@ -3502,10 +3530,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3520,10 +3548,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3538,10 +3566,10 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29"/>
@@ -3556,10 +3584,10 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29"/>
@@ -3574,10 +3602,10 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29"/>
@@ -3592,10 +3620,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3610,10 +3638,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3628,10 +3656,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3646,10 +3674,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="29"/>
@@ -3664,10 +3692,10 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3682,10 +3710,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29"/>
@@ -3700,10 +3728,10 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="29"/>
@@ -3718,10 +3746,10 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29"/>
@@ -3736,10 +3764,10 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3754,10 +3782,10 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="29"/>
@@ -3772,10 +3800,10 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="29"/>
@@ -3790,10 +3818,10 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="29"/>
@@ -3808,10 +3836,10 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="29"/>
@@ -3826,10 +3854,10 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3841,43 +3869,49 @@
       </c>
       <c r="H97" s="35"/>
     </row>
-    <row r="98" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+      <c r="B98" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="D98" s="35"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="19">
+        <v>1</v>
+      </c>
+      <c r="G98" s="20">
+        <v>0</v>
+      </c>
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D99" s="35"/>
-      <c r="E99" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E99" s="29"/>
       <c r="F99" s="19">
         <v>1</v>
       </c>
       <c r="G99" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="7" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="29"/>
@@ -3892,10 +3926,10 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="7" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="29"/>
@@ -3907,59 +3941,61 @@
       </c>
       <c r="H101" s="35"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
-      <c r="B102" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="35"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="19">
-        <v>1</v>
-      </c>
-      <c r="G102" s="20">
-        <v>0</v>
-      </c>
+      <c r="E102" s="32"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="24"/>
       <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D103" s="35"/>
-      <c r="E103" s="29"/>
+      <c r="E103" s="29">
+        <v>44188</v>
+      </c>
       <c r="F103" s="19">
         <v>1</v>
       </c>
       <c r="G103" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="35"/>
     </row>
-    <row r="104" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
+      <c r="B104" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="D104" s="35"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="24"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="19">
+        <v>1</v>
+      </c>
+      <c r="G104" s="20">
+        <v>0</v>
+      </c>
       <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29"/>
@@ -3974,10 +4010,10 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29"/>
@@ -3992,10 +4028,10 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="29"/>
@@ -4007,31 +4043,23 @@
       </c>
       <c r="H107" s="35"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
-      <c r="B108" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="35"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="19">
-        <v>1</v>
-      </c>
-      <c r="G108" s="20">
-        <v>0</v>
-      </c>
+      <c r="E108" s="32"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="24"/>
       <c r="H108" s="35"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="29"/>
@@ -4043,23 +4071,31 @@
       </c>
       <c r="H109" s="35"/>
     </row>
-    <row r="110" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
+      <c r="B110" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D110" s="35"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="24"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="19">
+        <v>1</v>
+      </c>
+      <c r="G110" s="20">
+        <v>0</v>
+      </c>
       <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29"/>
@@ -4071,23 +4107,31 @@
       </c>
       <c r="H111" s="35"/>
     </row>
-    <row r="112" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
+      <c r="B112" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="D112" s="35"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="24"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="19">
+        <v>1</v>
+      </c>
+      <c r="G112" s="20">
+        <v>0</v>
+      </c>
       <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29"/>
@@ -4099,69 +4143,69 @@
       </c>
       <c r="H113" s="35"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
-      <c r="B114" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="35"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="19">
-        <v>1</v>
-      </c>
-      <c r="G114" s="20">
-        <v>0</v>
-      </c>
+      <c r="E114" s="32"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="24"/>
       <c r="H114" s="35"/>
     </row>
-    <row r="115" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
+      <c r="B115" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="D115" s="35"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="24"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="19">
+        <v>1</v>
+      </c>
+      <c r="G115" s="20">
+        <v>0</v>
+      </c>
       <c r="H115" s="35"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
-      <c r="B116" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="35"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="19">
-        <v>1</v>
-      </c>
-      <c r="G116" s="20">
-        <v>0</v>
-      </c>
+      <c r="E116" s="32"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="24"/>
       <c r="H116" s="35"/>
     </row>
-    <row r="117" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
+      <c r="B117" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D117" s="35"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="24"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="19">
+        <v>1</v>
+      </c>
+      <c r="G117" s="20">
+        <v>0</v>
+      </c>
       <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29"/>
@@ -4173,31 +4217,23 @@
       </c>
       <c r="H118" s="35"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
-      <c r="B119" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="35"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="19">
-        <v>1</v>
-      </c>
-      <c r="G119" s="20">
-        <v>0</v>
-      </c>
+      <c r="E119" s="32"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="24"/>
       <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29"/>
@@ -4209,31 +4245,23 @@
       </c>
       <c r="H120" s="35"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
-      <c r="B121" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="35"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="19">
-        <v>1</v>
-      </c>
-      <c r="G121" s="20">
-        <v>0</v>
-      </c>
+      <c r="E121" s="32"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="24"/>
       <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29"/>
@@ -4248,10 +4276,10 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29"/>
@@ -4266,10 +4294,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29"/>
@@ -4284,10 +4312,10 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="29"/>
@@ -4302,10 +4330,10 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29"/>
@@ -4320,10 +4348,10 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29"/>
@@ -4338,10 +4366,10 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29"/>
@@ -4356,10 +4384,10 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29"/>
@@ -4374,10 +4402,10 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29"/>
@@ -4392,10 +4420,10 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
       <c r="B131" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="29"/>
@@ -4410,10 +4438,10 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29"/>
@@ -4428,10 +4456,10 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29"/>
@@ -4446,10 +4474,10 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29"/>
@@ -4464,10 +4492,10 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29"/>
@@ -4482,10 +4510,10 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="29"/>
@@ -4500,10 +4528,10 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="29"/>
@@ -4518,10 +4546,10 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29"/>
@@ -4533,23 +4561,31 @@
       </c>
       <c r="H138" s="35"/>
     </row>
-    <row r="139" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
+      <c r="B139" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D139" s="35"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="24"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="19">
+        <v>1</v>
+      </c>
+      <c r="G139" s="20">
+        <v>0</v>
+      </c>
       <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29"/>
@@ -4564,10 +4600,10 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29"/>
@@ -4579,41 +4615,41 @@
       </c>
       <c r="H141" s="35"/>
     </row>
-    <row r="142" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
+      <c r="B142" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D142" s="35"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="24"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="19">
+        <v>1</v>
+      </c>
+      <c r="G142" s="20">
+        <v>0</v>
+      </c>
       <c r="H142" s="35"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
-      <c r="B143" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="35"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="19">
-        <v>1</v>
-      </c>
-      <c r="G143" s="20">
-        <v>0</v>
-      </c>
+      <c r="E143" s="32"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="24"/>
       <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29"/>
@@ -4628,10 +4664,10 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29"/>
@@ -4643,31 +4679,23 @@
       </c>
       <c r="H145" s="35"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
-      <c r="B146" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>293</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="35"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="19">
-        <v>1</v>
-      </c>
-      <c r="G146" s="20">
-        <v>0</v>
-      </c>
+      <c r="E146" s="32"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="24"/>
       <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29"/>
@@ -4681,115 +4709,107 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
+      <c r="B148" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="20"/>
+      <c r="F148" s="19">
+        <v>1</v>
+      </c>
+      <c r="G148" s="20">
+        <v>0</v>
+      </c>
       <c r="H148" s="35"/>
     </row>
-    <row r="149" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="10"/>
+      <c r="B149" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="22"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="19">
+        <v>1</v>
+      </c>
+      <c r="G149" s="20">
+        <v>0</v>
+      </c>
       <c r="H149" s="35"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="7" t="s">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="29">
-        <v>44207</v>
-      </c>
+      <c r="E150" s="29"/>
       <c r="F150" s="19">
         <v>1</v>
       </c>
       <c r="G150" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="D151" s="35"/>
-      <c r="E151" s="29">
-        <v>44211</v>
-      </c>
+      <c r="E151" s="29"/>
       <c r="F151" s="19">
         <v>1</v>
       </c>
       <c r="G151" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="35"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
-      <c r="B152" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="35"/>
-      <c r="E152" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F152" s="19">
-        <v>1</v>
-      </c>
-      <c r="G152" s="20">
-        <v>1</v>
-      </c>
+      <c r="E152" s="29"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="20"/>
       <c r="H152" s="35"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="10"/>
       <c r="D153" s="35"/>
-      <c r="E153" s="29">
-        <v>44211</v>
-      </c>
-      <c r="F153" s="19">
-        <v>1</v>
-      </c>
-      <c r="G153" s="20">
-        <v>1</v>
-      </c>
+      <c r="E153" s="30"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="22"/>
       <c r="H153" s="35"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="F154" s="19">
         <v>1</v>
@@ -4802,10 +4822,10 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29">
@@ -4822,10 +4842,10 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
@@ -4842,10 +4862,10 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
@@ -4862,10 +4882,10 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -4882,10 +4902,10 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -4902,10 +4922,10 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -4922,10 +4942,10 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -4942,10 +4962,10 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -4962,10 +4982,10 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -4982,10 +5002,10 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -5002,10 +5022,10 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -5022,10 +5042,10 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -5042,10 +5062,10 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29">
@@ -5062,10 +5082,10 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -5082,10 +5102,10 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -5101,117 +5121,125 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D170" s="35"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="20"/>
+      <c r="E170" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F170" s="19">
+        <v>1</v>
+      </c>
+      <c r="G170" s="20">
+        <v>1</v>
+      </c>
       <c r="H170" s="35"/>
     </row>
-    <row r="171" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="10"/>
+      <c r="B171" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D171" s="35"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="22"/>
+      <c r="E171" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F171" s="19">
+        <v>1</v>
+      </c>
+      <c r="G171" s="20">
+        <v>1</v>
+      </c>
       <c r="H171" s="35"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>423</v>
+        <v>90</v>
       </c>
       <c r="D172" s="35"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="20"/>
+      <c r="E172" s="29">
+        <v>44211</v>
+      </c>
+      <c r="F172" s="19">
+        <v>1</v>
+      </c>
+      <c r="G172" s="20">
+        <v>1</v>
+      </c>
       <c r="H172" s="35"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D173" s="35"/>
-      <c r="E173" s="29"/>
+      <c r="E173" s="29">
+        <v>44211</v>
+      </c>
       <c r="F173" s="19">
         <v>1</v>
       </c>
       <c r="G173" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="35"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
-      <c r="B174" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="35"/>
       <c r="E174" s="29"/>
-      <c r="F174" s="19">
-        <v>1</v>
-      </c>
-      <c r="G174" s="20">
-        <v>0</v>
-      </c>
+      <c r="F174" s="19"/>
+      <c r="G174" s="20"/>
       <c r="H174" s="35"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
-      <c r="B175" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="10"/>
       <c r="D175" s="35"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="19">
-        <v>1</v>
-      </c>
-      <c r="G175" s="20">
-        <v>0</v>
-      </c>
+      <c r="E175" s="30"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="22"/>
       <c r="H175" s="35"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>20</v>
+        <v>423</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29"/>
-      <c r="F176" s="19">
-        <v>1</v>
-      </c>
-      <c r="G176" s="20">
-        <v>0</v>
-      </c>
+      <c r="F176" s="19"/>
+      <c r="G176" s="20"/>
       <c r="H176" s="35"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29"/>
@@ -5226,10 +5254,10 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29"/>
@@ -5244,10 +5272,10 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29"/>
@@ -5262,10 +5290,10 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29"/>
@@ -5280,10 +5308,10 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29"/>
@@ -5298,10 +5326,10 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29"/>
@@ -5316,10 +5344,10 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29"/>
@@ -5334,10 +5362,10 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29"/>
@@ -5352,10 +5380,10 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29"/>
@@ -5370,10 +5398,10 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29"/>
@@ -5388,10 +5416,10 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29"/>
@@ -5406,10 +5434,10 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29"/>
@@ -5424,10 +5452,10 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29"/>
@@ -5442,10 +5470,10 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29"/>
@@ -5460,10 +5488,10 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29"/>
@@ -5475,139 +5503,147 @@
       </c>
       <c r="H191" s="35"/>
     </row>
-    <row r="192" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
+      <c r="B192" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D192" s="35"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="24"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="19">
+        <v>1</v>
+      </c>
+      <c r="G192" s="20">
+        <v>0</v>
+      </c>
       <c r="H192" s="35"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="20"/>
+      <c r="F193" s="19">
+        <v>1</v>
+      </c>
+      <c r="G193" s="20">
+        <v>0</v>
+      </c>
       <c r="H193" s="35"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="4"/>
+      <c r="B194" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="20"/>
+      <c r="F194" s="19">
+        <v>1</v>
+      </c>
+      <c r="G194" s="20">
+        <v>0</v>
+      </c>
       <c r="H194" s="35"/>
     </row>
-    <row r="195" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="10"/>
+      <c r="B195" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D195" s="35"/>
-      <c r="E195" s="30"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="22"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="19">
+        <v>1</v>
+      </c>
+      <c r="G195" s="20">
+        <v>0</v>
+      </c>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
-      <c r="B196" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="B196" s="11"/>
+      <c r="C196" s="12"/>
       <c r="D196" s="35"/>
-      <c r="E196" s="29"/>
-      <c r="F196" s="19">
-        <v>1</v>
-      </c>
-      <c r="G196" s="20">
-        <v>0</v>
-      </c>
+      <c r="E196" s="32"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="24"/>
       <c r="H196" s="35"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29"/>
-      <c r="F197" s="19">
-        <v>1</v>
-      </c>
-      <c r="G197" s="20">
-        <v>0</v>
-      </c>
+      <c r="F197" s="19"/>
+      <c r="G197" s="20"/>
       <c r="H197" s="35"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
-      <c r="B198" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="B198" s="7"/>
+      <c r="C198" s="4"/>
       <c r="D198" s="35"/>
       <c r="E198" s="29"/>
-      <c r="F198" s="19">
-        <v>1</v>
-      </c>
-      <c r="G198" s="20">
-        <v>0</v>
-      </c>
+      <c r="F198" s="19"/>
+      <c r="G198" s="20"/>
       <c r="H198" s="35"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
-      <c r="B199" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="10"/>
       <c r="D199" s="35"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="19">
-        <v>1</v>
-      </c>
-      <c r="G199" s="20">
-        <v>0</v>
-      </c>
+      <c r="E199" s="30"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="22"/>
       <c r="H199" s="35"/>
     </row>
-    <row r="200" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
+      <c r="B200" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D200" s="35"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="24"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="19">
+        <v>1</v>
+      </c>
+      <c r="G200" s="20">
+        <v>0</v>
+      </c>
       <c r="H200" s="35"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>102</v>
+        <v>426</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>103</v>
+        <v>427</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29"/>
@@ -5619,23 +5655,31 @@
       </c>
       <c r="H201" s="35"/>
     </row>
-    <row r="202" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="12"/>
+      <c r="B202" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="D202" s="35"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="24"/>
+      <c r="E202" s="29"/>
+      <c r="F202" s="19">
+        <v>1</v>
+      </c>
+      <c r="G202" s="20">
+        <v>0</v>
+      </c>
       <c r="H202" s="35"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29"/>
@@ -5647,69 +5691,61 @@
       </c>
       <c r="H203" s="35"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="4"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="12"/>
       <c r="D204" s="35"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="20"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="24"/>
       <c r="H204" s="35"/>
     </row>
-    <row r="205" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="10"/>
+      <c r="B205" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="D205" s="35"/>
-      <c r="E205" s="30"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="22"/>
+      <c r="E205" s="29"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="20"/>
       <c r="H205" s="35"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
-      <c r="F206" s="19">
-        <v>1</v>
-      </c>
-      <c r="G206" s="20">
-        <v>0</v>
-      </c>
+      <c r="F206" s="19"/>
+      <c r="G206" s="20"/>
       <c r="H206" s="35"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
-      <c r="B207" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B207" s="11"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="35"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="19">
-        <v>1</v>
-      </c>
-      <c r="G207" s="20">
-        <v>0</v>
-      </c>
+      <c r="E207" s="32"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="24"/>
       <c r="H207" s="35"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29"/>
@@ -5721,31 +5757,23 @@
       </c>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
-      <c r="B209" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="12"/>
       <c r="D209" s="35"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="19">
-        <v>1</v>
-      </c>
-      <c r="G209" s="20">
-        <v>0</v>
-      </c>
+      <c r="E209" s="32"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24"/>
       <c r="H209" s="35"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>166</v>
+        <v>412</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>147</v>
+        <v>413</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
@@ -5759,47 +5787,31 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
-      <c r="B211" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="B211" s="7"/>
+      <c r="C211" s="4"/>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
-      <c r="F211" s="19">
-        <v>1</v>
-      </c>
-      <c r="G211" s="20">
-        <v>0</v>
-      </c>
+      <c r="F211" s="19"/>
+      <c r="G211" s="20"/>
       <c r="H211" s="35"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
-      <c r="B212" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="B212" s="9"/>
+      <c r="C212" s="10"/>
       <c r="D212" s="35"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="19">
-        <v>1</v>
-      </c>
-      <c r="G212" s="20">
-        <v>0</v>
-      </c>
+      <c r="E212" s="30"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="22"/>
       <c r="H212" s="35"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
@@ -5814,10 +5826,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5832,10 +5844,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5850,10 +5862,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5868,10 +5880,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5886,10 +5898,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5904,10 +5916,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5922,10 +5934,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5940,10 +5952,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5958,10 +5970,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5976,10 +5988,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -5994,10 +6006,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6012,10 +6024,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6030,10 +6042,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6048,10 +6060,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6066,10 +6078,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6084,10 +6096,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6102,10 +6114,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6120,10 +6132,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6138,10 +6150,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6156,7 +6168,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>163</v>
@@ -6174,7 +6186,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>163</v>
@@ -6192,7 +6204,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>163</v>
@@ -6210,7 +6222,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>163</v>
@@ -6228,7 +6240,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>163</v>
@@ -6246,7 +6258,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>163</v>
@@ -6264,7 +6276,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>163</v>
@@ -6282,7 +6294,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>163</v>
@@ -6300,7 +6312,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6318,7 +6330,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6335,31 +6347,47 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="4"/>
+      <c r="B243" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="20"/>
+      <c r="F243" s="19">
+        <v>1</v>
+      </c>
+      <c r="G243" s="20">
+        <v>0</v>
+      </c>
       <c r="H243" s="35"/>
     </row>
-    <row r="244" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="10"/>
+      <c r="B244" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D244" s="35"/>
-      <c r="E244" s="30"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="22"/>
+      <c r="E244" s="29"/>
+      <c r="F244" s="19">
+        <v>1</v>
+      </c>
+      <c r="G244" s="20">
+        <v>0</v>
+      </c>
       <c r="H244" s="35"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29"/>
@@ -6374,10 +6402,10 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29"/>
@@ -6392,10 +6420,10 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29"/>
@@ -6410,10 +6438,10 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -6425,253 +6453,237 @@
       </c>
       <c r="H248" s="35"/>
     </row>
-    <row r="249" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="37"/>
-      <c r="B249" s="13" t="s">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="35"/>
+      <c r="B249" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D249" s="35"/>
+      <c r="E249" s="29"/>
+      <c r="F249" s="19">
+        <v>1</v>
+      </c>
+      <c r="G249" s="20">
+        <v>0</v>
+      </c>
+      <c r="H249" s="35"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="35"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="35"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="35"/>
+    </row>
+    <row r="251" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="35"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="35"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="35"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="35"/>
+      <c r="B252" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D252" s="35"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="19">
+        <v>1</v>
+      </c>
+      <c r="G252" s="20">
+        <v>0</v>
+      </c>
+      <c r="H252" s="35"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="35"/>
+      <c r="B253" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D253" s="35"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="19">
+        <v>1</v>
+      </c>
+      <c r="G253" s="20">
+        <v>0</v>
+      </c>
+      <c r="H253" s="35"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="35"/>
+      <c r="B254" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D254" s="35"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="19">
+        <v>1</v>
+      </c>
+      <c r="G254" s="20">
+        <v>0</v>
+      </c>
+      <c r="H254" s="35"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="35"/>
+      <c r="B255" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D255" s="35"/>
+      <c r="E255" s="29"/>
+      <c r="F255" s="19">
+        <v>1</v>
+      </c>
+      <c r="G255" s="20">
+        <v>0</v>
+      </c>
+      <c r="H255" s="35"/>
+    </row>
+    <row r="256" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="37"/>
+      <c r="B256" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C249" s="14" t="s">
+      <c r="C256" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D249" s="37"/>
-      <c r="E249" s="31"/>
-      <c r="F249" s="19">
-        <v>1</v>
-      </c>
-      <c r="G249" s="20">
-        <v>0</v>
-      </c>
-      <c r="H249" s="37"/>
-    </row>
-    <row r="250" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="37"/>
-      <c r="B250" s="13" t="s">
+      <c r="D256" s="37"/>
+      <c r="E256" s="31"/>
+      <c r="F256" s="19">
+        <v>1</v>
+      </c>
+      <c r="G256" s="20">
+        <v>0</v>
+      </c>
+      <c r="H256" s="37"/>
+    </row>
+    <row r="257" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="37"/>
+      <c r="B257" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="C257" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D250" s="37"/>
-      <c r="E250" s="31"/>
-      <c r="F250" s="19">
-        <v>1</v>
-      </c>
-      <c r="G250" s="20">
-        <v>0</v>
-      </c>
-      <c r="H250" s="37"/>
-    </row>
-    <row r="251" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
-      <c r="B251" s="13" t="s">
+      <c r="D257" s="37"/>
+      <c r="E257" s="31"/>
+      <c r="F257" s="19">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>0</v>
+      </c>
+      <c r="H257" s="37"/>
+    </row>
+    <row r="258" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="37"/>
+      <c r="B258" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C251" s="14" t="s">
+      <c r="C258" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D251" s="37"/>
-      <c r="E251" s="31"/>
-      <c r="F251" s="19">
-        <v>1</v>
-      </c>
-      <c r="G251" s="20">
-        <v>0</v>
-      </c>
-      <c r="H251" s="37"/>
-    </row>
-    <row r="252" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="37"/>
-      <c r="B252" s="13" t="s">
+      <c r="D258" s="37"/>
+      <c r="E258" s="31"/>
+      <c r="F258" s="19">
+        <v>1</v>
+      </c>
+      <c r="G258" s="20">
+        <v>0</v>
+      </c>
+      <c r="H258" s="37"/>
+    </row>
+    <row r="259" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="37"/>
+      <c r="B259" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C259" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D252" s="37"/>
-      <c r="E252" s="31"/>
-      <c r="F252" s="19">
-        <v>1</v>
-      </c>
-      <c r="G252" s="20">
-        <v>0</v>
-      </c>
-      <c r="H252" s="37"/>
-    </row>
-    <row r="253" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="37"/>
-      <c r="B253" s="7" t="s">
+      <c r="D259" s="37"/>
+      <c r="E259" s="31"/>
+      <c r="F259" s="19">
+        <v>1</v>
+      </c>
+      <c r="G259" s="20">
+        <v>0</v>
+      </c>
+      <c r="H259" s="37"/>
+    </row>
+    <row r="260" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="37"/>
+      <c r="B260" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C260" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D253" s="37"/>
-      <c r="E253" s="31"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="20"/>
-      <c r="H253" s="37"/>
-    </row>
-    <row r="254" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="37"/>
-      <c r="B254" s="7" t="s">
+      <c r="D260" s="37"/>
+      <c r="E260" s="31"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="37"/>
+    </row>
+    <row r="261" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="37"/>
+      <c r="B261" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C261" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D254" s="37"/>
-      <c r="E254" s="31"/>
-      <c r="F254" s="19"/>
-      <c r="G254" s="20"/>
-      <c r="H254" s="37"/>
-    </row>
-    <row r="255" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="37"/>
-      <c r="B255" s="7" t="s">
+      <c r="D261" s="37"/>
+      <c r="E261" s="31"/>
+      <c r="F261" s="19"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="37"/>
+    </row>
+    <row r="262" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="37"/>
+      <c r="B262" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C262" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D255" s="37"/>
-      <c r="E255" s="31"/>
-      <c r="F255" s="19"/>
-      <c r="G255" s="20"/>
-      <c r="H255" s="37"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="35"/>
-      <c r="B256" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D256" s="35"/>
-      <c r="E256" s="29"/>
-      <c r="F256" s="19">
-        <v>1</v>
-      </c>
-      <c r="G256" s="20">
-        <v>0</v>
-      </c>
-      <c r="H256" s="35"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="35"/>
-      <c r="B257" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D257" s="35"/>
-      <c r="E257" s="29"/>
-      <c r="F257" s="19">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>0</v>
-      </c>
-      <c r="H257" s="35"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="35"/>
-      <c r="B258" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D258" s="35"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="19">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>0</v>
-      </c>
-      <c r="H258" s="35"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="35"/>
-      <c r="B259" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D259" s="35"/>
-      <c r="E259" s="29"/>
-      <c r="F259" s="19">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>0</v>
-      </c>
-      <c r="H259" s="35"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="35"/>
-      <c r="B260" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D260" s="35"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="19">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>0</v>
-      </c>
-      <c r="H260" s="35"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="35"/>
-      <c r="B261" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D261" s="35"/>
-      <c r="E261" s="29"/>
-      <c r="F261" s="19">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>0</v>
-      </c>
-      <c r="H261" s="35"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="35"/>
-      <c r="B262" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D262" s="35"/>
-      <c r="E262" s="29"/>
-      <c r="F262" s="19">
-        <v>1</v>
-      </c>
-      <c r="G262" s="20">
-        <v>0</v>
-      </c>
-      <c r="H262" s="35"/>
+      <c r="D262" s="37"/>
+      <c r="E262" s="31"/>
+      <c r="F262" s="19"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="37"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29"/>
@@ -6686,10 +6698,10 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29"/>
@@ -6701,25 +6713,203 @@
       </c>
       <c r="H264" s="35"/>
     </row>
-    <row r="265" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="6"/>
+      <c r="B265" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="D265" s="35"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="25"/>
-      <c r="G265" s="26"/>
+      <c r="E265" s="29"/>
+      <c r="F265" s="19">
+        <v>1</v>
+      </c>
+      <c r="G265" s="20">
+        <v>0</v>
+      </c>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
-      <c r="B266" s="38"/>
-      <c r="C266" s="39"/>
+      <c r="B266" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="D266" s="35"/>
-      <c r="E266" s="40"/>
-      <c r="F266" s="41"/>
-      <c r="G266" s="41"/>
+      <c r="E266" s="29"/>
+      <c r="F266" s="19">
+        <v>1</v>
+      </c>
+      <c r="G266" s="20">
+        <v>0</v>
+      </c>
       <c r="H266" s="35"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="35"/>
+      <c r="B267" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D267" s="35"/>
+      <c r="E267" s="29"/>
+      <c r="F267" s="19">
+        <v>1</v>
+      </c>
+      <c r="G267" s="20">
+        <v>0</v>
+      </c>
+      <c r="H267" s="35"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="35"/>
+      <c r="B268" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D268" s="35"/>
+      <c r="E268" s="29"/>
+      <c r="F268" s="19">
+        <v>1</v>
+      </c>
+      <c r="G268" s="20">
+        <v>0</v>
+      </c>
+      <c r="H268" s="35"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="35"/>
+      <c r="B269" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D269" s="35"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="19">
+        <v>1</v>
+      </c>
+      <c r="G269" s="20">
+        <v>0</v>
+      </c>
+      <c r="H269" s="35"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="35"/>
+      <c r="B270" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D270" s="35"/>
+      <c r="E270" s="29"/>
+      <c r="F270" s="19">
+        <v>1</v>
+      </c>
+      <c r="G270" s="20">
+        <v>0</v>
+      </c>
+      <c r="H270" s="35"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="35"/>
+      <c r="B271" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D271" s="35"/>
+      <c r="E271" s="29"/>
+      <c r="F271" s="19">
+        <v>1</v>
+      </c>
+      <c r="G271" s="20">
+        <v>0</v>
+      </c>
+      <c r="H271" s="35"/>
+    </row>
+    <row r="272" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="35"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="35"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="23"/>
+      <c r="G272" s="24"/>
+      <c r="H272" s="35"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="35"/>
+      <c r="B273" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D273" s="35"/>
+      <c r="E273" s="29"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="35"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="35"/>
+      <c r="B274" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D274" s="35"/>
+      <c r="E274" s="29"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="35"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="35"/>
+      <c r="B275" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D275" s="35"/>
+      <c r="E275" s="29"/>
+      <c r="F275" s="19"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="35"/>
+    </row>
+    <row r="276" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="35"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="35"/>
+      <c r="E276" s="33"/>
+      <c r="F276" s="25"/>
+      <c r="G276" s="26"/>
+      <c r="H276" s="35"/>
+    </row>
+    <row r="277" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="35"/>
+      <c r="B277" s="38"/>
+      <c r="C277" s="39"/>
+      <c r="D277" s="35"/>
+      <c r="E277" s="40"/>
+      <c r="F277" s="41"/>
+      <c r="G277" s="41"/>
+      <c r="H277" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="460">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1475,6 +1475,12 @@
   </si>
   <si>
     <t>Menyinkronkan Data Sales Order Detail</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.customerRelation.setSalesContract</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Kontrak Penjualan</t>
   </si>
 </sst>
 </file>
@@ -2263,13 +2269,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B210" sqref="B210"/>
+      <selection pane="bottomRight" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5704,10 +5710,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29"/>
@@ -5718,10 +5724,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5729,107 +5735,103 @@
       <c r="G206" s="20"/>
       <c r="H206" s="35"/>
     </row>
-    <row r="207" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="12"/>
+      <c r="B207" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="D207" s="35"/>
-      <c r="E207" s="32"/>
-      <c r="F207" s="23"/>
-      <c r="G207" s="24"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="20"/>
       <c r="H207" s="35"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="11"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="35"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="35"/>
+      <c r="B209" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C209" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D208" s="35"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="19">
-        <v>1</v>
-      </c>
-      <c r="G208" s="20">
-        <v>0</v>
-      </c>
-      <c r="H208" s="35"/>
-    </row>
-    <row r="209" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="35"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12"/>
       <c r="D209" s="35"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="23"/>
-      <c r="G209" s="24"/>
+      <c r="E209" s="29"/>
+      <c r="F209" s="19">
+        <v>1</v>
+      </c>
+      <c r="G209" s="20">
+        <v>0</v>
+      </c>
       <c r="H209" s="35"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
-      <c r="B210" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12"/>
       <c r="D210" s="35"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="19">
-        <v>1</v>
-      </c>
-      <c r="G210" s="20">
-        <v>0</v>
-      </c>
+      <c r="E210" s="32"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="24"/>
       <c r="H210" s="35"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="4"/>
+      <c r="B211" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="20"/>
+      <c r="F211" s="19">
+        <v>1</v>
+      </c>
+      <c r="G211" s="20">
+        <v>0</v>
+      </c>
       <c r="H211" s="35"/>
     </row>
-    <row r="212" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="10"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="4"/>
       <c r="D212" s="35"/>
-      <c r="E212" s="30"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="22"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="20"/>
       <c r="H212" s="35"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
-      <c r="B213" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B213" s="9"/>
+      <c r="C213" s="10"/>
       <c r="D213" s="35"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="19">
-        <v>1</v>
-      </c>
-      <c r="G213" s="20">
-        <v>0</v>
-      </c>
+      <c r="E213" s="30"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="22"/>
       <c r="H213" s="35"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5844,10 +5846,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5862,10 +5864,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5880,10 +5882,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5898,10 +5900,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5916,10 +5918,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5934,10 +5936,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5952,10 +5954,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5970,10 +5972,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5988,10 +5990,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -6006,10 +6008,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6024,10 +6026,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6042,10 +6044,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6060,10 +6062,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6078,10 +6080,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6096,10 +6098,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6114,10 +6116,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6132,10 +6134,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6150,10 +6152,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6168,10 +6170,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
@@ -6186,7 +6188,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>163</v>
@@ -6204,7 +6206,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>163</v>
@@ -6222,7 +6224,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>163</v>
@@ -6240,7 +6242,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>163</v>
@@ -6258,7 +6260,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>163</v>
@@ -6276,7 +6278,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>163</v>
@@ -6294,7 +6296,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>163</v>
@@ -6312,7 +6314,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6330,7 +6332,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6348,7 +6350,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>163</v>
@@ -6366,7 +6368,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>163</v>
@@ -6384,7 +6386,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>163</v>
@@ -6402,7 +6404,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>163</v>
@@ -6420,7 +6422,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>163</v>
@@ -6438,7 +6440,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>163</v>
@@ -6456,7 +6458,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>163</v>
@@ -6473,49 +6475,49 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="4"/>
+      <c r="B250" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="19"/>
-      <c r="G250" s="20"/>
+      <c r="F250" s="19">
+        <v>1</v>
+      </c>
+      <c r="G250" s="20">
+        <v>0</v>
+      </c>
       <c r="H250" s="35"/>
     </row>
-    <row r="251" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="9"/>
-      <c r="C251" s="10"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="4"/>
       <c r="D251" s="35"/>
-      <c r="E251" s="30"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="22"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="20"/>
       <c r="H251" s="35"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B252" s="9"/>
+      <c r="C252" s="10"/>
       <c r="D252" s="35"/>
-      <c r="E252" s="29"/>
-      <c r="F252" s="19">
-        <v>1</v>
-      </c>
-      <c r="G252" s="20">
-        <v>0</v>
-      </c>
+      <c r="E252" s="30"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="22"/>
       <c r="H252" s="35"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29"/>
@@ -6530,10 +6532,10 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29"/>
@@ -6548,10 +6550,10 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29"/>
@@ -6563,31 +6565,31 @@
       </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="37"/>
-      <c r="B256" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C256" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D256" s="37"/>
-      <c r="E256" s="31"/>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="35"/>
+      <c r="B256" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D256" s="35"/>
+      <c r="E256" s="29"/>
       <c r="F256" s="19">
         <v>1</v>
       </c>
       <c r="G256" s="20">
         <v>0</v>
       </c>
-      <c r="H256" s="37"/>
+      <c r="H256" s="35"/>
     </row>
     <row r="257" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="37"/>
       <c r="B257" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D257" s="37"/>
       <c r="E257" s="31"/>
@@ -6602,10 +6604,10 @@
     <row r="258" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="37"/>
       <c r="B258" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D258" s="37"/>
       <c r="E258" s="31"/>
@@ -6620,10 +6622,10 @@
     <row r="259" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="37"/>
       <c r="B259" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D259" s="37"/>
       <c r="E259" s="31"/>
@@ -6637,25 +6639,29 @@
     </row>
     <row r="260" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="37"/>
-      <c r="B260" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>437</v>
+      <c r="B260" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D260" s="37"/>
       <c r="E260" s="31"/>
-      <c r="F260" s="19"/>
-      <c r="G260" s="20"/>
+      <c r="F260" s="19">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>0</v>
+      </c>
       <c r="H260" s="37"/>
     </row>
     <row r="261" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37"/>
       <c r="B261" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D261" s="37"/>
       <c r="E261" s="31"/>
@@ -6666,10 +6672,10 @@
     <row r="262" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37"/>
       <c r="B262" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D262" s="37"/>
       <c r="E262" s="31"/>
@@ -6677,31 +6683,27 @@
       <c r="G262" s="20"/>
       <c r="H262" s="37"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="35"/>
+    <row r="263" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="37"/>
       <c r="B263" s="7" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D263" s="35"/>
-      <c r="E263" s="29"/>
-      <c r="F263" s="19">
-        <v>1</v>
-      </c>
-      <c r="G263" s="20">
-        <v>0</v>
-      </c>
-      <c r="H263" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D263" s="37"/>
+      <c r="E263" s="31"/>
+      <c r="F263" s="19"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="37"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29"/>
@@ -6716,10 +6718,10 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29"/>
@@ -6734,10 +6736,10 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29"/>
@@ -6752,10 +6754,10 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29"/>
@@ -6770,10 +6772,10 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29"/>
@@ -6788,10 +6790,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29"/>
@@ -6806,10 +6808,10 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29"/>
@@ -6824,10 +6826,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -6839,37 +6841,41 @@
       </c>
       <c r="H271" s="35"/>
     </row>
-    <row r="272" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12"/>
+      <c r="B272" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D272" s="35"/>
-      <c r="E272" s="32"/>
-      <c r="F272" s="23"/>
-      <c r="G272" s="24"/>
+      <c r="E272" s="29"/>
+      <c r="F272" s="19">
+        <v>1</v>
+      </c>
+      <c r="G272" s="20">
+        <v>0</v>
+      </c>
       <c r="H272" s="35"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
-      <c r="B273" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="35"/>
-      <c r="E273" s="29"/>
-      <c r="F273" s="19"/>
-      <c r="G273" s="20"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="23"/>
+      <c r="G273" s="24"/>
       <c r="H273" s="35"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29"/>
@@ -6880,10 +6886,10 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29"/>
@@ -6891,25 +6897,39 @@
       <c r="G275" s="20"/>
       <c r="H275" s="35"/>
     </row>
-    <row r="276" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="6"/>
+      <c r="B276" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D276" s="35"/>
-      <c r="E276" s="33"/>
-      <c r="F276" s="25"/>
-      <c r="G276" s="26"/>
+      <c r="E276" s="29"/>
+      <c r="F276" s="19"/>
+      <c r="G276" s="20"/>
       <c r="H276" s="35"/>
     </row>
-    <row r="277" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="35"/>
-      <c r="B277" s="38"/>
-      <c r="C277" s="39"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="6"/>
       <c r="D277" s="35"/>
-      <c r="E277" s="40"/>
-      <c r="F277" s="41"/>
-      <c r="G277" s="41"/>
+      <c r="E277" s="33"/>
+      <c r="F277" s="25"/>
+      <c r="G277" s="26"/>
       <c r="H277" s="35"/>
+    </row>
+    <row r="278" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="35"/>
+      <c r="B278" s="38"/>
+      <c r="C278" s="39"/>
+      <c r="D278" s="35"/>
+      <c r="E278" s="40"/>
+      <c r="F278" s="41"/>
+      <c r="G278" s="41"/>
+      <c r="H278" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="462">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1481,6 +1481,12 @@
   </si>
   <si>
     <t>Menyinkronkan Data Kontrak Penjualan</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.project.setProjectSection</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Project Section</t>
   </si>
 </sst>
 </file>
@@ -2269,13 +2275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomRight" activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5777,79 +5783,75 @@
       </c>
       <c r="H209" s="35"/>
     </row>
-    <row r="210" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12"/>
+      <c r="B210" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="D210" s="35"/>
-      <c r="E210" s="32"/>
-      <c r="F210" s="23"/>
-      <c r="G210" s="24"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="20"/>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
-      <c r="B211" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="B211" s="11"/>
+      <c r="C211" s="12"/>
       <c r="D211" s="35"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="19">
-        <v>1</v>
-      </c>
-      <c r="G211" s="20">
-        <v>0</v>
-      </c>
+      <c r="E211" s="32"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="24"/>
       <c r="H211" s="35"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
+      <c r="B212" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="20"/>
+      <c r="F212" s="19">
+        <v>1</v>
+      </c>
+      <c r="G212" s="20">
+        <v>0</v>
+      </c>
       <c r="H212" s="35"/>
     </row>
-    <row r="213" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="10"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="4"/>
       <c r="D213" s="35"/>
-      <c r="E213" s="30"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="22"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="20"/>
       <c r="H213" s="35"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
-      <c r="B214" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B214" s="9"/>
+      <c r="C214" s="10"/>
       <c r="D214" s="35"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="19">
-        <v>1</v>
-      </c>
-      <c r="G214" s="20">
-        <v>0</v>
-      </c>
+      <c r="E214" s="30"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="22"/>
       <c r="H214" s="35"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5864,10 +5866,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5882,10 +5884,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5900,10 +5902,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5918,10 +5920,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5936,10 +5938,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5954,10 +5956,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5972,10 +5974,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5990,10 +5992,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -6008,10 +6010,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6026,10 +6028,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6044,10 +6046,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6062,10 +6064,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6080,10 +6082,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6098,10 +6100,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6116,10 +6118,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6134,10 +6136,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6152,10 +6154,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6170,10 +6172,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
@@ -6188,10 +6190,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29"/>
@@ -6206,7 +6208,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>163</v>
@@ -6224,7 +6226,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>163</v>
@@ -6242,7 +6244,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>163</v>
@@ -6260,7 +6262,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>163</v>
@@ -6278,7 +6280,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>163</v>
@@ -6296,7 +6298,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>163</v>
@@ -6314,7 +6316,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6332,7 +6334,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6350,7 +6352,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>163</v>
@@ -6368,7 +6370,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>163</v>
@@ -6386,7 +6388,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>163</v>
@@ -6404,7 +6406,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>163</v>
@@ -6422,7 +6424,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>163</v>
@@ -6440,7 +6442,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>163</v>
@@ -6458,7 +6460,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>163</v>
@@ -6476,7 +6478,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>163</v>
@@ -6493,49 +6495,49 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29"/>
-      <c r="F251" s="19"/>
-      <c r="G251" s="20"/>
+      <c r="F251" s="19">
+        <v>1</v>
+      </c>
+      <c r="G251" s="20">
+        <v>0</v>
+      </c>
       <c r="H251" s="35"/>
     </row>
-    <row r="252" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="9"/>
-      <c r="C252" s="10"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="35"/>
-      <c r="E252" s="30"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="22"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="20"/>
       <c r="H252" s="35"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
-      <c r="B253" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B253" s="9"/>
+      <c r="C253" s="10"/>
       <c r="D253" s="35"/>
-      <c r="E253" s="29"/>
-      <c r="F253" s="19">
-        <v>1</v>
-      </c>
-      <c r="G253" s="20">
-        <v>0</v>
-      </c>
+      <c r="E253" s="30"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="22"/>
       <c r="H253" s="35"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29"/>
@@ -6550,10 +6552,10 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29"/>
@@ -6568,10 +6570,10 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29"/>
@@ -6583,31 +6585,31 @@
       </c>
       <c r="H256" s="35"/>
     </row>
-    <row r="257" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="37"/>
-      <c r="B257" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C257" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D257" s="37"/>
-      <c r="E257" s="31"/>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="35"/>
+      <c r="B257" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D257" s="35"/>
+      <c r="E257" s="29"/>
       <c r="F257" s="19">
         <v>1</v>
       </c>
       <c r="G257" s="20">
         <v>0</v>
       </c>
-      <c r="H257" s="37"/>
+      <c r="H257" s="35"/>
     </row>
     <row r="258" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="37"/>
       <c r="B258" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D258" s="37"/>
       <c r="E258" s="31"/>
@@ -6622,10 +6624,10 @@
     <row r="259" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="37"/>
       <c r="B259" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D259" s="37"/>
       <c r="E259" s="31"/>
@@ -6640,10 +6642,10 @@
     <row r="260" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="37"/>
       <c r="B260" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D260" s="37"/>
       <c r="E260" s="31"/>
@@ -6657,25 +6659,29 @@
     </row>
     <row r="261" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37"/>
-      <c r="B261" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>437</v>
+      <c r="B261" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D261" s="37"/>
       <c r="E261" s="31"/>
-      <c r="F261" s="19"/>
-      <c r="G261" s="20"/>
+      <c r="F261" s="19">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>0</v>
+      </c>
       <c r="H261" s="37"/>
     </row>
     <row r="262" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37"/>
       <c r="B262" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D262" s="37"/>
       <c r="E262" s="31"/>
@@ -6686,10 +6692,10 @@
     <row r="263" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37"/>
       <c r="B263" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D263" s="37"/>
       <c r="E263" s="31"/>
@@ -6697,31 +6703,27 @@
       <c r="G263" s="20"/>
       <c r="H263" s="37"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="35"/>
+    <row r="264" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="37"/>
       <c r="B264" s="7" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D264" s="35"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="19">
-        <v>1</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="H264" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D264" s="37"/>
+      <c r="E264" s="31"/>
+      <c r="F264" s="19"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="37"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29"/>
@@ -6736,10 +6738,10 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29"/>
@@ -6754,10 +6756,10 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29"/>
@@ -6772,10 +6774,10 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29"/>
@@ -6790,10 +6792,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29"/>
@@ -6808,10 +6810,10 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29"/>
@@ -6826,10 +6828,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -6844,10 +6846,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29"/>
@@ -6859,37 +6861,41 @@
       </c>
       <c r="H272" s="35"/>
     </row>
-    <row r="273" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12"/>
+      <c r="B273" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D273" s="35"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="23"/>
-      <c r="G273" s="24"/>
+      <c r="E273" s="29"/>
+      <c r="F273" s="19">
+        <v>1</v>
+      </c>
+      <c r="G273" s="20">
+        <v>0</v>
+      </c>
       <c r="H273" s="35"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
-      <c r="B274" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="35"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="20"/>
+      <c r="E274" s="32"/>
+      <c r="F274" s="23"/>
+      <c r="G274" s="24"/>
       <c r="H274" s="35"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29"/>
@@ -6900,10 +6906,10 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29"/>
@@ -6911,25 +6917,39 @@
       <c r="G276" s="20"/>
       <c r="H276" s="35"/>
     </row>
-    <row r="277" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="6"/>
+      <c r="B277" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D277" s="35"/>
-      <c r="E277" s="33"/>
-      <c r="F277" s="25"/>
-      <c r="G277" s="26"/>
+      <c r="E277" s="29"/>
+      <c r="F277" s="19"/>
+      <c r="G277" s="20"/>
       <c r="H277" s="35"/>
     </row>
-    <row r="278" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="35"/>
-      <c r="B278" s="38"/>
-      <c r="C278" s="39"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="6"/>
       <c r="D278" s="35"/>
-      <c r="E278" s="40"/>
-      <c r="F278" s="41"/>
-      <c r="G278" s="41"/>
+      <c r="E278" s="33"/>
+      <c r="F278" s="25"/>
+      <c r="G278" s="26"/>
       <c r="H278" s="35"/>
+    </row>
+    <row r="279" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="35"/>
+      <c r="B279" s="38"/>
+      <c r="C279" s="39"/>
+      <c r="D279" s="35"/>
+      <c r="E279" s="40"/>
+      <c r="F279" s="41"/>
+      <c r="G279" s="41"/>
+      <c r="H279" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="464">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1487,6 +1487,12 @@
   </si>
   <si>
     <t>Menyinkronkan Data Project Section</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.master.setProduct</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Produk</t>
   </si>
 </sst>
 </file>
@@ -2275,13 +2281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C201" sqref="C201"/>
+      <selection pane="bottomRight" activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5703,37 +5709,41 @@
       </c>
       <c r="H203" s="35"/>
     </row>
-    <row r="204" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="12"/>
+      <c r="B204" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="D204" s="35"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="23"/>
-      <c r="G204" s="24"/>
+      <c r="E204" s="29"/>
+      <c r="F204" s="19">
+        <v>1</v>
+      </c>
+      <c r="G204" s="20">
+        <v>0</v>
+      </c>
       <c r="H204" s="35"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
-      <c r="B205" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>459</v>
-      </c>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12"/>
       <c r="D205" s="35"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="20"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="24"/>
       <c r="H205" s="35"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29"/>
@@ -5744,10 +5754,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29"/>
@@ -5755,121 +5765,117 @@
       <c r="G207" s="20"/>
       <c r="H207" s="35"/>
     </row>
-    <row r="208" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12"/>
+      <c r="B208" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="D208" s="35"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="23"/>
-      <c r="G208" s="24"/>
+      <c r="E208" s="29"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="20"/>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
-      <c r="B209" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="12"/>
       <c r="D209" s="35"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="19">
-        <v>1</v>
-      </c>
-      <c r="G209" s="20">
-        <v>0</v>
-      </c>
+      <c r="E209" s="32"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24"/>
       <c r="H209" s="35"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>460</v>
+        <v>102</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="20"/>
+      <c r="F210" s="19">
+        <v>1</v>
+      </c>
+      <c r="G210" s="20">
+        <v>0</v>
+      </c>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="12"/>
+      <c r="B211" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="D211" s="35"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="23"/>
-      <c r="G211" s="24"/>
+      <c r="E211" s="29"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="20"/>
       <c r="H211" s="35"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
-      <c r="B212" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="35"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="19">
-        <v>1</v>
-      </c>
-      <c r="G212" s="20">
-        <v>0</v>
-      </c>
+      <c r="E212" s="32"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="24"/>
       <c r="H212" s="35"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
+      <c r="B213" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="20"/>
+      <c r="F213" s="19">
+        <v>1</v>
+      </c>
+      <c r="G213" s="20">
+        <v>0</v>
+      </c>
       <c r="H213" s="35"/>
     </row>
-    <row r="214" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="10"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="4"/>
       <c r="D214" s="35"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="21"/>
-      <c r="G214" s="22"/>
+      <c r="E214" s="29"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="20"/>
       <c r="H214" s="35"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
-      <c r="B215" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B215" s="9"/>
+      <c r="C215" s="10"/>
       <c r="D215" s="35"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="19">
-        <v>1</v>
-      </c>
-      <c r="G215" s="20">
-        <v>0</v>
-      </c>
+      <c r="E215" s="30"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="22"/>
       <c r="H215" s="35"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
@@ -5884,10 +5890,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29"/>
@@ -5902,10 +5908,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5920,10 +5926,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5938,10 +5944,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5956,10 +5962,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5974,10 +5980,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5992,10 +5998,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -6010,10 +6016,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6028,10 +6034,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6046,10 +6052,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6064,10 +6070,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6082,10 +6088,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6100,10 +6106,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6118,10 +6124,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6136,10 +6142,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6154,10 +6160,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6172,10 +6178,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
@@ -6190,10 +6196,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29"/>
@@ -6208,10 +6214,10 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
@@ -6226,7 +6232,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>163</v>
@@ -6244,7 +6250,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>163</v>
@@ -6262,7 +6268,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>163</v>
@@ -6280,7 +6286,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>163</v>
@@ -6298,7 +6304,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>163</v>
@@ -6316,7 +6322,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6334,7 +6340,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6352,7 +6358,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>163</v>
@@ -6370,7 +6376,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>163</v>
@@ -6388,7 +6394,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>163</v>
@@ -6406,7 +6412,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>163</v>
@@ -6424,7 +6430,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>163</v>
@@ -6442,7 +6448,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>163</v>
@@ -6460,7 +6466,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>163</v>
@@ -6478,7 +6484,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>163</v>
@@ -6496,7 +6502,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>163</v>
@@ -6513,49 +6519,49 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D252" s="35"/>
       <c r="E252" s="29"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="20"/>
+      <c r="F252" s="19">
+        <v>1</v>
+      </c>
+      <c r="G252" s="20">
+        <v>0</v>
+      </c>
       <c r="H252" s="35"/>
     </row>
-    <row r="253" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="10"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="4"/>
       <c r="D253" s="35"/>
-      <c r="E253" s="30"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="22"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="20"/>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
-      <c r="B254" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B254" s="9"/>
+      <c r="C254" s="10"/>
       <c r="D254" s="35"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="19">
-        <v>1</v>
-      </c>
-      <c r="G254" s="20">
-        <v>0</v>
-      </c>
+      <c r="E254" s="30"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="22"/>
       <c r="H254" s="35"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29"/>
@@ -6570,10 +6576,10 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29"/>
@@ -6588,10 +6594,10 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29"/>
@@ -6603,31 +6609,31 @@
       </c>
       <c r="H257" s="35"/>
     </row>
-    <row r="258" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="37"/>
-      <c r="B258" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C258" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D258" s="37"/>
-      <c r="E258" s="31"/>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="35"/>
+      <c r="B258" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D258" s="35"/>
+      <c r="E258" s="29"/>
       <c r="F258" s="19">
         <v>1</v>
       </c>
       <c r="G258" s="20">
         <v>0</v>
       </c>
-      <c r="H258" s="37"/>
+      <c r="H258" s="35"/>
     </row>
     <row r="259" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="37"/>
       <c r="B259" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D259" s="37"/>
       <c r="E259" s="31"/>
@@ -6642,10 +6648,10 @@
     <row r="260" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="37"/>
       <c r="B260" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D260" s="37"/>
       <c r="E260" s="31"/>
@@ -6660,10 +6666,10 @@
     <row r="261" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37"/>
       <c r="B261" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D261" s="37"/>
       <c r="E261" s="31"/>
@@ -6677,25 +6683,29 @@
     </row>
     <row r="262" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37"/>
-      <c r="B262" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>437</v>
+      <c r="B262" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D262" s="37"/>
       <c r="E262" s="31"/>
-      <c r="F262" s="19"/>
-      <c r="G262" s="20"/>
+      <c r="F262" s="19">
+        <v>1</v>
+      </c>
+      <c r="G262" s="20">
+        <v>0</v>
+      </c>
       <c r="H262" s="37"/>
     </row>
     <row r="263" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37"/>
       <c r="B263" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D263" s="37"/>
       <c r="E263" s="31"/>
@@ -6706,10 +6716,10 @@
     <row r="264" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37"/>
       <c r="B264" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D264" s="37"/>
       <c r="E264" s="31"/>
@@ -6717,31 +6727,27 @@
       <c r="G264" s="20"/>
       <c r="H264" s="37"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="35"/>
+    <row r="265" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="37"/>
       <c r="B265" s="7" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D265" s="35"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="19">
-        <v>1</v>
-      </c>
-      <c r="G265" s="20">
-        <v>0</v>
-      </c>
-      <c r="H265" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D265" s="37"/>
+      <c r="E265" s="31"/>
+      <c r="F265" s="19"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="37"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29"/>
@@ -6756,10 +6762,10 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29"/>
@@ -6774,10 +6780,10 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29"/>
@@ -6792,10 +6798,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29"/>
@@ -6810,10 +6816,10 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29"/>
@@ -6828,10 +6834,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -6846,10 +6852,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29"/>
@@ -6864,10 +6870,10 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29"/>
@@ -6879,37 +6885,41 @@
       </c>
       <c r="H273" s="35"/>
     </row>
-    <row r="274" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12"/>
+      <c r="B274" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D274" s="35"/>
-      <c r="E274" s="32"/>
-      <c r="F274" s="23"/>
-      <c r="G274" s="24"/>
+      <c r="E274" s="29"/>
+      <c r="F274" s="19">
+        <v>1</v>
+      </c>
+      <c r="G274" s="20">
+        <v>0</v>
+      </c>
       <c r="H274" s="35"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
-      <c r="B275" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B275" s="11"/>
+      <c r="C275" s="12"/>
       <c r="D275" s="35"/>
-      <c r="E275" s="29"/>
-      <c r="F275" s="19"/>
-      <c r="G275" s="20"/>
+      <c r="E275" s="32"/>
+      <c r="F275" s="23"/>
+      <c r="G275" s="24"/>
       <c r="H275" s="35"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29"/>
@@ -6920,10 +6930,10 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29"/>
@@ -6931,25 +6941,39 @@
       <c r="G277" s="20"/>
       <c r="H277" s="35"/>
     </row>
-    <row r="278" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="6"/>
+      <c r="B278" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D278" s="35"/>
-      <c r="E278" s="33"/>
-      <c r="F278" s="25"/>
-      <c r="G278" s="26"/>
+      <c r="E278" s="29"/>
+      <c r="F278" s="19"/>
+      <c r="G278" s="20"/>
       <c r="H278" s="35"/>
     </row>
-    <row r="279" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="35"/>
-      <c r="B279" s="38"/>
-      <c r="C279" s="39"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="6"/>
       <c r="D279" s="35"/>
-      <c r="E279" s="40"/>
-      <c r="F279" s="41"/>
-      <c r="G279" s="41"/>
+      <c r="E279" s="33"/>
+      <c r="F279" s="25"/>
+      <c r="G279" s="26"/>
       <c r="H279" s="35"/>
+    </row>
+    <row r="280" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="35"/>
+      <c r="B280" s="38"/>
+      <c r="C280" s="39"/>
+      <c r="D280" s="35"/>
+      <c r="E280" s="40"/>
+      <c r="F280" s="41"/>
+      <c r="G280" s="41"/>
+      <c r="H280" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="466">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1493,6 +1493,12 @@
   </si>
   <si>
     <t>Menyinkronkan Data Produk</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.production.setBillOfMaterial</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Bill Of Material</t>
   </si>
 </sst>
 </file>
@@ -2281,13 +2287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C205" sqref="C205"/>
+      <selection pane="bottomRight" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5834,84 +5840,72 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="19">
-        <v>1</v>
-      </c>
-      <c r="G213" s="20">
-        <v>0</v>
-      </c>
+      <c r="F213" s="19"/>
+      <c r="G213" s="20"/>
       <c r="H213" s="35"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="4"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="12"/>
       <c r="D214" s="35"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="20"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="24"/>
       <c r="H214" s="35"/>
     </row>
-    <row r="215" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="10"/>
+      <c r="B215" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D215" s="35"/>
-      <c r="E215" s="30"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="22"/>
+      <c r="E215" s="29"/>
+      <c r="F215" s="19">
+        <v>1</v>
+      </c>
+      <c r="G215" s="20">
+        <v>0</v>
+      </c>
       <c r="H215" s="35"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B216" s="7"/>
+      <c r="C216" s="4"/>
       <c r="D216" s="35"/>
       <c r="E216" s="29"/>
-      <c r="F216" s="19">
-        <v>1</v>
-      </c>
-      <c r="G216" s="20">
-        <v>0</v>
-      </c>
+      <c r="F216" s="19"/>
+      <c r="G216" s="20"/>
       <c r="H216" s="35"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
-      <c r="B217" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B217" s="9"/>
+      <c r="C217" s="10"/>
       <c r="D217" s="35"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="19">
-        <v>1</v>
-      </c>
-      <c r="G217" s="20">
-        <v>0</v>
-      </c>
+      <c r="E217" s="30"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="22"/>
       <c r="H217" s="35"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
@@ -5926,10 +5920,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29"/>
@@ -5944,10 +5938,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5962,10 +5956,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5980,10 +5974,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5998,10 +5992,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -6016,10 +6010,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6034,10 +6028,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6052,10 +6046,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6070,10 +6064,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6088,10 +6082,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6106,10 +6100,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6124,10 +6118,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6142,10 +6136,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6160,10 +6154,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6178,10 +6172,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
@@ -6196,10 +6190,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29"/>
@@ -6214,10 +6208,10 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
@@ -6232,10 +6226,10 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29"/>
@@ -6250,10 +6244,10 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29"/>
@@ -6268,7 +6262,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>163</v>
@@ -6286,7 +6280,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>163</v>
@@ -6304,7 +6298,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>163</v>
@@ -6322,7 +6316,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6340,7 +6334,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6358,7 +6352,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>163</v>
@@ -6376,7 +6370,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>163</v>
@@ -6394,7 +6388,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>163</v>
@@ -6412,7 +6406,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>163</v>
@@ -6430,7 +6424,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>163</v>
@@ -6448,7 +6442,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>163</v>
@@ -6466,7 +6460,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>163</v>
@@ -6484,7 +6478,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>163</v>
@@ -6502,7 +6496,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>163</v>
@@ -6520,7 +6514,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>163</v>
@@ -6537,67 +6531,67 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="20"/>
+      <c r="F253" s="19">
+        <v>1</v>
+      </c>
+      <c r="G253" s="20">
+        <v>0</v>
+      </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="10"/>
+      <c r="B254" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="30"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="22"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="19">
+        <v>1</v>
+      </c>
+      <c r="G254" s="20">
+        <v>0</v>
+      </c>
       <c r="H254" s="35"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B255" s="7"/>
+      <c r="C255" s="4"/>
       <c r="D255" s="35"/>
       <c r="E255" s="29"/>
-      <c r="F255" s="19">
-        <v>1</v>
-      </c>
-      <c r="G255" s="20">
-        <v>0</v>
-      </c>
+      <c r="F255" s="19"/>
+      <c r="G255" s="20"/>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
-      <c r="B256" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B256" s="9"/>
+      <c r="C256" s="10"/>
       <c r="D256" s="35"/>
-      <c r="E256" s="29"/>
-      <c r="F256" s="19">
-        <v>1</v>
-      </c>
-      <c r="G256" s="20">
-        <v>0</v>
-      </c>
+      <c r="E256" s="30"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="22"/>
       <c r="H256" s="35"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29"/>
@@ -6612,10 +6606,10 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D258" s="35"/>
       <c r="E258" s="29"/>
@@ -6627,49 +6621,49 @@
       </c>
       <c r="H258" s="35"/>
     </row>
-    <row r="259" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
-      <c r="B259" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C259" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D259" s="37"/>
-      <c r="E259" s="31"/>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="35"/>
+      <c r="B259" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D259" s="35"/>
+      <c r="E259" s="29"/>
       <c r="F259" s="19">
         <v>1</v>
       </c>
       <c r="G259" s="20">
         <v>0</v>
       </c>
-      <c r="H259" s="37"/>
-    </row>
-    <row r="260" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="37"/>
-      <c r="B260" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C260" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D260" s="37"/>
-      <c r="E260" s="31"/>
+      <c r="H259" s="35"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="35"/>
+      <c r="B260" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D260" s="35"/>
+      <c r="E260" s="29"/>
       <c r="F260" s="19">
         <v>1</v>
       </c>
       <c r="G260" s="20">
         <v>0</v>
       </c>
-      <c r="H260" s="37"/>
+      <c r="H260" s="35"/>
     </row>
     <row r="261" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37"/>
       <c r="B261" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D261" s="37"/>
       <c r="E261" s="31"/>
@@ -6684,10 +6678,10 @@
     <row r="262" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37"/>
       <c r="B262" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D262" s="37"/>
       <c r="E262" s="31"/>
@@ -6701,39 +6695,47 @@
     </row>
     <row r="263" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37"/>
-      <c r="B263" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>437</v>
+      <c r="B263" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="D263" s="37"/>
       <c r="E263" s="31"/>
-      <c r="F263" s="19"/>
-      <c r="G263" s="20"/>
+      <c r="F263" s="19">
+        <v>1</v>
+      </c>
+      <c r="G263" s="20">
+        <v>0</v>
+      </c>
       <c r="H263" s="37"/>
     </row>
     <row r="264" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37"/>
-      <c r="B264" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>441</v>
+      <c r="B264" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D264" s="37"/>
       <c r="E264" s="31"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="20"/>
+      <c r="F264" s="19">
+        <v>1</v>
+      </c>
+      <c r="G264" s="20">
+        <v>0</v>
+      </c>
       <c r="H264" s="37"/>
     </row>
     <row r="265" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37"/>
       <c r="B265" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D265" s="37"/>
       <c r="E265" s="31"/>
@@ -6741,49 +6743,41 @@
       <c r="G265" s="20"/>
       <c r="H265" s="37"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="35"/>
+    <row r="266" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="37"/>
       <c r="B266" s="7" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D266" s="35"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="19">
-        <v>1</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="H266" s="35"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="35"/>
+        <v>441</v>
+      </c>
+      <c r="D266" s="37"/>
+      <c r="E266" s="31"/>
+      <c r="F266" s="19"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="37"/>
+    </row>
+    <row r="267" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="37"/>
       <c r="B267" s="7" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D267" s="35"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="19">
-        <v>1</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="H267" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D267" s="37"/>
+      <c r="E267" s="31"/>
+      <c r="F267" s="19"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="37"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29"/>
@@ -6798,10 +6792,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29"/>
@@ -6816,10 +6810,10 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29"/>
@@ -6834,10 +6828,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -6852,10 +6846,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29"/>
@@ -6870,10 +6864,10 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29"/>
@@ -6888,10 +6882,10 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29"/>
@@ -6903,51 +6897,59 @@
       </c>
       <c r="H274" s="35"/>
     </row>
-    <row r="275" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="12"/>
+      <c r="B275" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D275" s="35"/>
-      <c r="E275" s="32"/>
-      <c r="F275" s="23"/>
-      <c r="G275" s="24"/>
+      <c r="E275" s="29"/>
+      <c r="F275" s="19">
+        <v>1</v>
+      </c>
+      <c r="G275" s="20">
+        <v>0</v>
+      </c>
       <c r="H275" s="35"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29"/>
-      <c r="F276" s="19"/>
-      <c r="G276" s="20"/>
+      <c r="F276" s="19">
+        <v>1</v>
+      </c>
+      <c r="G276" s="20">
+        <v>0</v>
+      </c>
       <c r="H276" s="35"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
-      <c r="B277" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>453</v>
-      </c>
+      <c r="B277" s="11"/>
+      <c r="C277" s="12"/>
       <c r="D277" s="35"/>
-      <c r="E277" s="29"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="20"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="23"/>
+      <c r="G277" s="24"/>
       <c r="H277" s="35"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29"/>
@@ -6955,25 +6957,53 @@
       <c r="G278" s="20"/>
       <c r="H278" s="35"/>
     </row>
-    <row r="279" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="6"/>
+      <c r="B279" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="D279" s="35"/>
-      <c r="E279" s="33"/>
-      <c r="F279" s="25"/>
-      <c r="G279" s="26"/>
+      <c r="E279" s="29"/>
+      <c r="F279" s="19"/>
+      <c r="G279" s="20"/>
       <c r="H279" s="35"/>
     </row>
-    <row r="280" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
-      <c r="B280" s="38"/>
-      <c r="C280" s="39"/>
+      <c r="B280" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D280" s="35"/>
-      <c r="E280" s="40"/>
-      <c r="F280" s="41"/>
-      <c r="G280" s="41"/>
+      <c r="E280" s="29"/>
+      <c r="F280" s="19"/>
+      <c r="G280" s="20"/>
       <c r="H280" s="35"/>
+    </row>
+    <row r="281" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="35"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="35"/>
+      <c r="E281" s="33"/>
+      <c r="F281" s="25"/>
+      <c r="G281" s="26"/>
+      <c r="H281" s="35"/>
+    </row>
+    <row r="282" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="35"/>
+      <c r="B282" s="38"/>
+      <c r="C282" s="39"/>
+      <c r="D282" s="35"/>
+      <c r="E282" s="40"/>
+      <c r="F282" s="41"/>
+      <c r="G282" s="41"/>
+      <c r="H282" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="470">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1500,6 +1500,18 @@
   <si>
     <t>Menyinkronkan Data Bill Of Material</t>
   </si>
+  <si>
+    <t>transaction.synchronize.production.setMaterialProductAssembly</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Material Product Assembly</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.production.setMaterialProductComponent</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Material Product Component</t>
+  </si>
 </sst>
 </file>
 
@@ -1508,7 +1520,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,6 +1585,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1819,7 +1846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1961,6 +1988,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2287,13 +2332,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H282"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E214" sqref="E214"/>
+      <selection pane="bottomRight" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2321,24 +2366,24 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="35"/>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="36"/>
       <c r="E3" s="42" t="s">
         <v>390</v>
@@ -5717,18 +5762,18 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="D204" s="35"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="19">
-        <v>1</v>
-      </c>
-      <c r="G204" s="20">
+      <c r="D204" s="50"/>
+      <c r="E204" s="51"/>
+      <c r="F204" s="52">
+        <v>1</v>
+      </c>
+      <c r="G204" s="53">
         <v>0</v>
       </c>
       <c r="H204" s="35"/>
@@ -5851,97 +5896,89 @@
       <c r="G213" s="20"/>
       <c r="H213" s="35"/>
     </row>
-    <row r="214" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12"/>
+      <c r="B214" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="D214" s="35"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="23"/>
-      <c r="G214" s="24"/>
+      <c r="E214" s="29"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="20"/>
       <c r="H214" s="35"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
-      <c r="F215" s="19">
-        <v>1</v>
-      </c>
-      <c r="G215" s="20">
-        <v>0</v>
-      </c>
+      <c r="F215" s="19"/>
+      <c r="G215" s="20"/>
       <c r="H215" s="35"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="4"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="35"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="20"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="24"/>
       <c r="H216" s="35"/>
     </row>
-    <row r="217" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="10"/>
+      <c r="B217" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D217" s="35"/>
-      <c r="E217" s="30"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="22"/>
+      <c r="E217" s="29"/>
+      <c r="F217" s="19">
+        <v>1</v>
+      </c>
+      <c r="G217" s="20">
+        <v>0</v>
+      </c>
       <c r="H217" s="35"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
-      <c r="B218" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B218" s="7"/>
+      <c r="C218" s="4"/>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="19">
-        <v>1</v>
-      </c>
-      <c r="G218" s="20">
-        <v>0</v>
-      </c>
+      <c r="F218" s="19"/>
+      <c r="G218" s="20"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="10"/>
       <c r="D219" s="35"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="19">
-        <v>1</v>
-      </c>
-      <c r="G219" s="20">
-        <v>0</v>
-      </c>
+      <c r="E219" s="30"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="22"/>
       <c r="H219" s="35"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29"/>
@@ -5956,10 +5993,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -5974,10 +6011,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -5992,10 +6029,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -6010,10 +6047,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6028,10 +6065,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6046,10 +6083,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6064,10 +6101,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6082,10 +6119,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6100,10 +6137,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6118,10 +6155,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6136,10 +6173,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6154,10 +6191,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6172,10 +6209,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
@@ -6190,10 +6227,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29"/>
@@ -6208,10 +6245,10 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
@@ -6226,10 +6263,10 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29"/>
@@ -6244,10 +6281,10 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29"/>
@@ -6262,10 +6299,10 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29"/>
@@ -6280,10 +6317,10 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29"/>
@@ -6298,7 +6335,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>163</v>
@@ -6316,7 +6353,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6334,7 +6371,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6352,7 +6389,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>163</v>
@@ -6370,7 +6407,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>163</v>
@@ -6388,7 +6425,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>163</v>
@@ -6406,7 +6443,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>163</v>
@@ -6424,7 +6461,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>163</v>
@@ -6442,7 +6479,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>163</v>
@@ -6460,7 +6497,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>163</v>
@@ -6478,7 +6515,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>163</v>
@@ -6496,7 +6533,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>163</v>
@@ -6514,7 +6551,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>163</v>
@@ -6532,7 +6569,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>163</v>
@@ -6550,7 +6587,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>163</v>
@@ -6567,67 +6604,67 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29"/>
-      <c r="F255" s="19"/>
-      <c r="G255" s="20"/>
+      <c r="F255" s="19">
+        <v>1</v>
+      </c>
+      <c r="G255" s="20">
+        <v>0</v>
+      </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="10"/>
+      <c r="B256" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D256" s="35"/>
-      <c r="E256" s="30"/>
-      <c r="F256" s="21"/>
-      <c r="G256" s="22"/>
+      <c r="E256" s="29"/>
+      <c r="F256" s="19">
+        <v>1</v>
+      </c>
+      <c r="G256" s="20">
+        <v>0</v>
+      </c>
       <c r="H256" s="35"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
-      <c r="B257" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B257" s="7"/>
+      <c r="C257" s="4"/>
       <c r="D257" s="35"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="19">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>0</v>
-      </c>
+      <c r="F257" s="19"/>
+      <c r="G257" s="20"/>
       <c r="H257" s="35"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
-      <c r="B258" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B258" s="9"/>
+      <c r="C258" s="10"/>
       <c r="D258" s="35"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="19">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>0</v>
-      </c>
+      <c r="E258" s="30"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="22"/>
       <c r="H258" s="35"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
       <c r="B259" s="7" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="D259" s="35"/>
       <c r="E259" s="29"/>
@@ -6642,10 +6679,10 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29"/>
@@ -6657,49 +6694,49 @@
       </c>
       <c r="H260" s="35"/>
     </row>
-    <row r="261" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="37"/>
-      <c r="B261" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C261" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D261" s="37"/>
-      <c r="E261" s="31"/>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="35"/>
+      <c r="B261" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D261" s="35"/>
+      <c r="E261" s="29"/>
       <c r="F261" s="19">
         <v>1</v>
       </c>
       <c r="G261" s="20">
         <v>0</v>
       </c>
-      <c r="H261" s="37"/>
-    </row>
-    <row r="262" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="37"/>
-      <c r="B262" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C262" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D262" s="37"/>
-      <c r="E262" s="31"/>
+      <c r="H261" s="35"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="35"/>
+      <c r="B262" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D262" s="35"/>
+      <c r="E262" s="29"/>
       <c r="F262" s="19">
         <v>1</v>
       </c>
       <c r="G262" s="20">
         <v>0</v>
       </c>
-      <c r="H262" s="37"/>
+      <c r="H262" s="35"/>
     </row>
     <row r="263" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37"/>
       <c r="B263" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D263" s="37"/>
       <c r="E263" s="31"/>
@@ -6714,10 +6751,10 @@
     <row r="264" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37"/>
       <c r="B264" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D264" s="37"/>
       <c r="E264" s="31"/>
@@ -6731,39 +6768,47 @@
     </row>
     <row r="265" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37"/>
-      <c r="B265" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>437</v>
+      <c r="B265" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="D265" s="37"/>
       <c r="E265" s="31"/>
-      <c r="F265" s="19"/>
-      <c r="G265" s="20"/>
+      <c r="F265" s="19">
+        <v>1</v>
+      </c>
+      <c r="G265" s="20">
+        <v>0</v>
+      </c>
       <c r="H265" s="37"/>
     </row>
     <row r="266" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="37"/>
-      <c r="B266" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>441</v>
+      <c r="B266" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D266" s="37"/>
       <c r="E266" s="31"/>
-      <c r="F266" s="19"/>
-      <c r="G266" s="20"/>
+      <c r="F266" s="19">
+        <v>1</v>
+      </c>
+      <c r="G266" s="20">
+        <v>0</v>
+      </c>
       <c r="H266" s="37"/>
     </row>
     <row r="267" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="37"/>
       <c r="B267" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D267" s="37"/>
       <c r="E267" s="31"/>
@@ -6771,49 +6816,41 @@
       <c r="G267" s="20"/>
       <c r="H267" s="37"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="35"/>
+    <row r="268" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="37"/>
       <c r="B268" s="7" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D268" s="35"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="19">
-        <v>1</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="H268" s="35"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="35"/>
+        <v>441</v>
+      </c>
+      <c r="D268" s="37"/>
+      <c r="E268" s="31"/>
+      <c r="F268" s="19"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="37"/>
+    </row>
+    <row r="269" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="37"/>
       <c r="B269" s="7" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D269" s="35"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="19">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>0</v>
-      </c>
-      <c r="H269" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D269" s="37"/>
+      <c r="E269" s="31"/>
+      <c r="F269" s="19"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="37"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29"/>
@@ -6828,10 +6865,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -6846,10 +6883,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29"/>
@@ -6864,10 +6901,10 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29"/>
@@ -6882,10 +6919,10 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29"/>
@@ -6900,10 +6937,10 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29"/>
@@ -6918,10 +6955,10 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29"/>
@@ -6933,51 +6970,59 @@
       </c>
       <c r="H276" s="35"/>
     </row>
-    <row r="277" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="12"/>
+      <c r="B277" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D277" s="35"/>
-      <c r="E277" s="32"/>
-      <c r="F277" s="23"/>
-      <c r="G277" s="24"/>
+      <c r="E277" s="29"/>
+      <c r="F277" s="19">
+        <v>1</v>
+      </c>
+      <c r="G277" s="20">
+        <v>0</v>
+      </c>
       <c r="H277" s="35"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29"/>
-      <c r="F278" s="19"/>
-      <c r="G278" s="20"/>
+      <c r="F278" s="19">
+        <v>1</v>
+      </c>
+      <c r="G278" s="20">
+        <v>0</v>
+      </c>
       <c r="H278" s="35"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
-      <c r="B279" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>453</v>
-      </c>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12"/>
       <c r="D279" s="35"/>
-      <c r="E279" s="29"/>
-      <c r="F279" s="19"/>
-      <c r="G279" s="20"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="23"/>
+      <c r="G279" s="24"/>
       <c r="H279" s="35"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29"/>
@@ -6985,25 +7030,53 @@
       <c r="G280" s="20"/>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="6"/>
+      <c r="B281" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="D281" s="35"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="25"/>
-      <c r="G281" s="26"/>
+      <c r="E281" s="29"/>
+      <c r="F281" s="19"/>
+      <c r="G281" s="20"/>
       <c r="H281" s="35"/>
     </row>
-    <row r="282" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
-      <c r="B282" s="38"/>
-      <c r="C282" s="39"/>
+      <c r="B282" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D282" s="35"/>
-      <c r="E282" s="40"/>
-      <c r="F282" s="41"/>
-      <c r="G282" s="41"/>
+      <c r="E282" s="29"/>
+      <c r="F282" s="19"/>
+      <c r="G282" s="20"/>
       <c r="H282" s="35"/>
+    </row>
+    <row r="283" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="35"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="35"/>
+      <c r="E283" s="33"/>
+      <c r="F283" s="25"/>
+      <c r="G283" s="26"/>
+      <c r="H283" s="35"/>
+    </row>
+    <row r="284" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="35"/>
+      <c r="B284" s="38"/>
+      <c r="C284" s="39"/>
+      <c r="D284" s="35"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="41"/>
+      <c r="G284" s="41"/>
+      <c r="H284" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="472">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1511,6 +1511,12 @@
   </si>
   <si>
     <t>Menyinkronkan Data Material Product Component</t>
+  </si>
+  <si>
+    <t>transaction.synchronize.production.setBillOfMaterialDetail</t>
+  </si>
+  <si>
+    <t>Menyinkronkan Data Bill Of Material Detail</t>
   </si>
 </sst>
 </file>
@@ -2332,13 +2338,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C208" sqref="C208"/>
+      <selection pane="bottomRight" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5899,10 +5905,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29"/>
@@ -5913,10 +5919,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29"/>
@@ -5924,79 +5930,75 @@
       <c r="G215" s="20"/>
       <c r="H215" s="35"/>
     </row>
-    <row r="216" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12"/>
+      <c r="B216" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="D216" s="35"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="23"/>
-      <c r="G216" s="24"/>
+      <c r="E216" s="29"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="20"/>
       <c r="H216" s="35"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
-      <c r="B217" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="35"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="19">
-        <v>1</v>
-      </c>
-      <c r="G217" s="20">
-        <v>0</v>
-      </c>
+      <c r="E217" s="32"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="24"/>
       <c r="H217" s="35"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="4"/>
+      <c r="B218" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="20"/>
+      <c r="F218" s="19">
+        <v>1</v>
+      </c>
+      <c r="G218" s="20">
+        <v>0</v>
+      </c>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="10"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="4"/>
       <c r="D219" s="35"/>
-      <c r="E219" s="30"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="22"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="20"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
-      <c r="B220" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B220" s="9"/>
+      <c r="C220" s="10"/>
       <c r="D220" s="35"/>
-      <c r="E220" s="29"/>
-      <c r="F220" s="19">
-        <v>1</v>
-      </c>
-      <c r="G220" s="20">
-        <v>0</v>
-      </c>
+      <c r="E220" s="30"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="22"/>
       <c r="H220" s="35"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29"/>
@@ -6011,10 +6013,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29"/>
@@ -6029,10 +6031,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29"/>
@@ -6047,10 +6049,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29"/>
@@ -6065,10 +6067,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29"/>
@@ -6083,10 +6085,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29"/>
@@ -6101,10 +6103,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -6119,10 +6121,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29"/>
@@ -6137,10 +6139,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29"/>
@@ -6155,10 +6157,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29"/>
@@ -6173,10 +6175,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29"/>
@@ -6191,10 +6193,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29"/>
@@ -6209,10 +6211,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29"/>
@@ -6227,10 +6229,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29"/>
@@ -6245,10 +6247,10 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29"/>
@@ -6263,10 +6265,10 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29"/>
@@ -6281,10 +6283,10 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29"/>
@@ -6299,10 +6301,10 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29"/>
@@ -6317,10 +6319,10 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29"/>
@@ -6335,10 +6337,10 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29"/>
@@ -6353,7 +6355,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>163</v>
@@ -6371,7 +6373,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>163</v>
@@ -6389,7 +6391,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>163</v>
@@ -6407,7 +6409,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>163</v>
@@ -6425,7 +6427,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>163</v>
@@ -6443,7 +6445,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>163</v>
@@ -6461,7 +6463,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>163</v>
@@ -6479,7 +6481,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>163</v>
@@ -6497,7 +6499,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>163</v>
@@ -6515,7 +6517,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>163</v>
@@ -6533,7 +6535,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>163</v>
@@ -6551,7 +6553,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>163</v>
@@ -6569,7 +6571,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>163</v>
@@ -6587,7 +6589,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>163</v>
@@ -6605,7 +6607,7 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>163</v>
@@ -6623,7 +6625,7 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>163</v>
@@ -6640,49 +6642,49 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="4"/>
+      <c r="B257" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="19"/>
-      <c r="G257" s="20"/>
+      <c r="F257" s="19">
+        <v>1</v>
+      </c>
+      <c r="G257" s="20">
+        <v>0</v>
+      </c>
       <c r="H257" s="35"/>
     </row>
-    <row r="258" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="10"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="4"/>
       <c r="D258" s="35"/>
-      <c r="E258" s="30"/>
-      <c r="F258" s="21"/>
-      <c r="G258" s="22"/>
+      <c r="E258" s="29"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="20"/>
       <c r="H258" s="35"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
-      <c r="B259" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B259" s="9"/>
+      <c r="C259" s="10"/>
       <c r="D259" s="35"/>
-      <c r="E259" s="29"/>
-      <c r="F259" s="19">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>0</v>
-      </c>
+      <c r="E259" s="30"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="22"/>
       <c r="H259" s="35"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29"/>
@@ -6697,10 +6699,10 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
       <c r="B261" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D261" s="35"/>
       <c r="E261" s="29"/>
@@ -6715,10 +6717,10 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
       <c r="B262" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="29"/>
@@ -6730,31 +6732,31 @@
       </c>
       <c r="H262" s="35"/>
     </row>
-    <row r="263" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="37"/>
-      <c r="B263" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C263" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D263" s="37"/>
-      <c r="E263" s="31"/>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="35"/>
+      <c r="B263" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D263" s="35"/>
+      <c r="E263" s="29"/>
       <c r="F263" s="19">
         <v>1</v>
       </c>
       <c r="G263" s="20">
         <v>0</v>
       </c>
-      <c r="H263" s="37"/>
+      <c r="H263" s="35"/>
     </row>
     <row r="264" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37"/>
       <c r="B264" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D264" s="37"/>
       <c r="E264" s="31"/>
@@ -6769,10 +6771,10 @@
     <row r="265" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37"/>
       <c r="B265" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D265" s="37"/>
       <c r="E265" s="31"/>
@@ -6787,10 +6789,10 @@
     <row r="266" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="37"/>
       <c r="B266" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D266" s="37"/>
       <c r="E266" s="31"/>
@@ -6804,25 +6806,29 @@
     </row>
     <row r="267" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="37"/>
-      <c r="B267" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>437</v>
+      <c r="B267" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D267" s="37"/>
       <c r="E267" s="31"/>
-      <c r="F267" s="19"/>
-      <c r="G267" s="20"/>
+      <c r="F267" s="19">
+        <v>1</v>
+      </c>
+      <c r="G267" s="20">
+        <v>0</v>
+      </c>
       <c r="H267" s="37"/>
     </row>
     <row r="268" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="37"/>
       <c r="B268" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D268" s="37"/>
       <c r="E268" s="31"/>
@@ -6833,10 +6839,10 @@
     <row r="269" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="37"/>
       <c r="B269" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D269" s="37"/>
       <c r="E269" s="31"/>
@@ -6844,31 +6850,27 @@
       <c r="G269" s="20"/>
       <c r="H269" s="37"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="35"/>
+    <row r="270" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="37"/>
       <c r="B270" s="7" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D270" s="35"/>
-      <c r="E270" s="29"/>
-      <c r="F270" s="19">
-        <v>1</v>
-      </c>
-      <c r="G270" s="20">
-        <v>0</v>
-      </c>
-      <c r="H270" s="35"/>
+        <v>440</v>
+      </c>
+      <c r="D270" s="37"/>
+      <c r="E270" s="31"/>
+      <c r="F270" s="19"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="37"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -6883,10 +6885,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29"/>
@@ -6901,10 +6903,10 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29"/>
@@ -6919,10 +6921,10 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29"/>
@@ -6937,10 +6939,10 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29"/>
@@ -6955,10 +6957,10 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29"/>
@@ -6973,10 +6975,10 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29"/>
@@ -6991,10 +6993,10 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29"/>
@@ -7006,37 +7008,41 @@
       </c>
       <c r="H278" s="35"/>
     </row>
-    <row r="279" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="12"/>
+      <c r="B279" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D279" s="35"/>
-      <c r="E279" s="32"/>
-      <c r="F279" s="23"/>
-      <c r="G279" s="24"/>
+      <c r="E279" s="29"/>
+      <c r="F279" s="19">
+        <v>1</v>
+      </c>
+      <c r="G279" s="20">
+        <v>0</v>
+      </c>
       <c r="H279" s="35"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
-      <c r="B280" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12"/>
       <c r="D280" s="35"/>
-      <c r="E280" s="29"/>
-      <c r="F280" s="19"/>
-      <c r="G280" s="20"/>
+      <c r="E280" s="32"/>
+      <c r="F280" s="23"/>
+      <c r="G280" s="24"/>
       <c r="H280" s="35"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29"/>
@@ -7047,10 +7053,10 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
       <c r="B282" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D282" s="35"/>
       <c r="E282" s="29"/>
@@ -7058,25 +7064,39 @@
       <c r="G282" s="20"/>
       <c r="H282" s="35"/>
     </row>
-    <row r="283" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="6"/>
+      <c r="B283" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D283" s="35"/>
-      <c r="E283" s="33"/>
-      <c r="F283" s="25"/>
-      <c r="G283" s="26"/>
+      <c r="E283" s="29"/>
+      <c r="F283" s="19"/>
+      <c r="G283" s="20"/>
       <c r="H283" s="35"/>
     </row>
-    <row r="284" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="35"/>
-      <c r="B284" s="38"/>
-      <c r="C284" s="39"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="6"/>
       <c r="D284" s="35"/>
-      <c r="E284" s="40"/>
-      <c r="F284" s="41"/>
-      <c r="G284" s="41"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="25"/>
+      <c r="G284" s="26"/>
       <c r="H284" s="35"/>
+    </row>
+    <row r="285" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="35"/>
+      <c r="B285" s="38"/>
+      <c r="C285" s="39"/>
+      <c r="D285" s="35"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="41"/>
+      <c r="G285" s="41"/>
+      <c r="H285" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/API-Catalogue.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="474">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1518,6 +1518,33 @@
   <si>
     <t>Menyinkronkan Data Bill Of Material Detail</t>
   </si>
+  <si>
+    <t>instruction.device.swingBarrierGate.Goodwin.ServoSW01.getDataAttendance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Menginstruksikan kepada Alat </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Swing Barrier Gate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Goodwin ServoSW01 untuk memberikan semua data akses</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1526,7 +1553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,6 +1629,13 @@
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -2338,13 +2372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C214" sqref="C214"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2648,11 +2682,11 @@
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
-      <c r="B20" s="47" t="s">
-        <v>418</v>
+      <c r="B20" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="29"/>
@@ -2660,27 +2694,23 @@
       <c r="G20" s="20"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="29"/>
@@ -2688,61 +2718,61 @@
       <c r="G22" s="20"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D23" s="35"/>
       <c r="E23" s="29"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="D24" s="35"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>403</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="35"/>
       <c r="E25" s="29"/>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>404</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="29"/>
@@ -2753,10 +2783,10 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="29"/>
@@ -2767,10 +2797,10 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="29"/>
@@ -2781,10 +2811,10 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="29"/>
@@ -2795,10 +2825,10 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="29"/>
@@ -2808,121 +2838,109 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D32" s="35"/>
       <c r="E32" s="29"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="D33" s="35"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="29">
-        <v>44200</v>
-      </c>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1</v>
-      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="35"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>323</v>
-      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
-      <c r="B36" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>324</v>
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="D36" s="35"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="29">
+        <v>44200</v>
+      </c>
+      <c r="F36" s="19">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
       <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F37" s="19">
-        <v>1</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1</v>
-      </c>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="29">
-        <v>44204</v>
-      </c>
-      <c r="F38" s="19">
-        <v>1</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="29">
         <v>44204</v>
       </c>
@@ -2932,15 +2950,15 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="37"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="29">
@@ -2957,14 +2975,14 @@
     <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="F41" s="19">
         <v>1</v>
@@ -2976,93 +2994,93 @@
     </row>
     <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
-      <c r="B42" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>434</v>
+      <c r="B42" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="D42" s="37"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="E42" s="29">
+        <v>44204</v>
+      </c>
+      <c r="F42" s="19">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
       <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
-      <c r="B43" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>435</v>
+      <c r="B43" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="D43" s="37"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
+      <c r="E43" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F43" s="19">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20">
+        <v>1</v>
+      </c>
       <c r="H43" s="37"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
       <c r="B44" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D44" s="35"/>
+        <v>434</v>
+      </c>
+      <c r="D44" s="37"/>
       <c r="E44" s="29"/>
       <c r="F44" s="19"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="35"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
       <c r="B45" s="7" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F45" s="19">
-        <v>1</v>
-      </c>
-      <c r="G45" s="20">
-        <v>1</v>
-      </c>
-      <c r="H45" s="35"/>
+        <v>435</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="7" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="D46" s="35"/>
-      <c r="E46" s="29">
-        <v>44207</v>
-      </c>
-      <c r="F46" s="19">
-        <v>1</v>
-      </c>
-      <c r="G46" s="20">
-        <v>1</v>
-      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="29">
@@ -3079,10 +3097,10 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="29">
@@ -3099,10 +3117,10 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="29">
@@ -3119,10 +3137,10 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="29">
@@ -3139,10 +3157,10 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="29">
@@ -3159,10 +3177,10 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="29">
@@ -3179,10 +3197,10 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="29">
@@ -3196,51 +3214,63 @@
       </c>
       <c r="H53" s="35"/>
     </row>
-    <row r="54" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D54" s="35"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
+      <c r="E54" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F54" s="19">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
       <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="7" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>448</v>
+        <v>332</v>
       </c>
       <c r="D55" s="35"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
+      <c r="E55" s="29">
+        <v>44207</v>
+      </c>
+      <c r="F55" s="19">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20">
+        <v>1</v>
+      </c>
       <c r="H55" s="35"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="35"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="29"/>
@@ -3250,67 +3280,59 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="D58" s="35"/>
       <c r="E58" s="29"/>
       <c r="F58" s="19"/>
       <c r="G58" s="20"/>
       <c r="H58" s="35"/>
     </row>
-    <row r="59" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="D59" s="35"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
       <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
-      <c r="B60" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="35"/>
       <c r="E60" s="29"/>
-      <c r="F60" s="19">
-        <v>1</v>
-      </c>
-      <c r="G60" s="20">
-        <v>0</v>
-      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="35"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
-      <c r="B61" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="35"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="19">
-        <v>1</v>
-      </c>
-      <c r="G61" s="20">
-        <v>0</v>
-      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="29"/>
@@ -3325,10 +3347,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="29"/>
@@ -3343,10 +3365,10 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="29"/>
@@ -3358,23 +3380,31 @@
       </c>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
+      <c r="B65" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D65" s="35"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="19">
+        <v>1</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
       <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="7" t="s">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="29"/>
@@ -3386,31 +3416,23 @@
       </c>
       <c r="H66" s="35"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
-      <c r="B67" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="35"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="19">
-        <v>1</v>
-      </c>
-      <c r="G67" s="20">
-        <v>0</v>
-      </c>
+      <c r="E67" s="32"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
       <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="7" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="29"/>
@@ -3425,10 +3447,10 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="7" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="29"/>
@@ -3443,10 +3465,10 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
-        <v>96</v>
+        <v>311</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="29"/>
@@ -3461,10 +3483,10 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="29"/>
@@ -3479,10 +3501,10 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29"/>
@@ -3497,10 +3519,10 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29"/>
@@ -3515,10 +3537,10 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="29"/>
@@ -3533,10 +3555,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="29"/>
@@ -3551,10 +3573,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="29"/>
@@ -3569,10 +3591,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="29"/>
@@ -3587,10 +3609,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="29"/>
@@ -3605,10 +3627,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="29"/>
@@ -3623,10 +3645,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="29"/>
@@ -3641,10 +3663,10 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29"/>
@@ -3659,10 +3681,10 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29"/>
@@ -3677,10 +3699,10 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29"/>
@@ -3695,10 +3717,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29"/>
@@ -3713,10 +3735,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29"/>
@@ -3731,10 +3753,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29"/>
@@ -3749,10 +3771,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="29"/>
@@ -3767,10 +3789,10 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29"/>
@@ -3785,10 +3807,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29"/>
@@ -3803,10 +3825,10 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="29"/>
@@ -3821,10 +3843,10 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29"/>
@@ -3839,10 +3861,10 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29"/>
@@ -3857,10 +3879,10 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="29"/>
@@ -3875,10 +3897,10 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="29"/>
@@ -3893,10 +3915,10 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="29"/>
@@ -3911,10 +3933,10 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="29"/>
@@ -3929,10 +3951,10 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="29"/>
@@ -3947,10 +3969,10 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="29"/>
@@ -3965,10 +3987,10 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="29"/>
@@ -3983,10 +4005,10 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="29"/>
@@ -4001,10 +4023,10 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="29"/>
@@ -4016,79 +4038,79 @@
       </c>
       <c r="H101" s="35"/>
     </row>
-    <row r="102" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
+      <c r="B102" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="D102" s="35"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="24"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="19">
+        <v>1</v>
+      </c>
+      <c r="G102" s="20">
+        <v>0</v>
+      </c>
       <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D103" s="35"/>
-      <c r="E103" s="29">
-        <v>44188</v>
-      </c>
+      <c r="E103" s="29"/>
       <c r="F103" s="19">
         <v>1</v>
       </c>
       <c r="G103" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="35"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="7" t="s">
